--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Definitivo\ecopFront\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\FORMULARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1401CBD-80D1-484B-AB5A-CA0575DBBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F80D72-BC4C-4640-A4A5-32EA2F3F2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -507,6 +507,12 @@
     </r>
   </si>
   <si>
+    <t>GATO</t>
+  </si>
+  <si>
+    <t>PERRO</t>
+  </si>
+  <si>
     <t>Precio unitario de venta</t>
   </si>
 </sst>
@@ -913,24 +919,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,6 +945,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -992,9 +998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1745118</xdr:colOff>
+      <xdr:colOff>1748928</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>398287</xdr:rowOff>
+      <xdr:rowOff>415432</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1230,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1254,22 +1260,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="57"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
@@ -1284,22 +1290,22 @@
       <c r="Z1" s="18"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="54"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
@@ -1314,22 +1320,22 @@
       <c r="Z2" s="18"/>
     </row>
     <row r="3" spans="1:26" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -1361,7 +1367,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>69</v>
@@ -1457,14 +1463,30 @@
       <c r="A6" s="44">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="46">
+        <v>100</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="58">
+        <v>1500</v>
+      </c>
+      <c r="F6" s="47">
+        <v>5</v>
+      </c>
+      <c r="G6" s="58">
+        <v>1900</v>
+      </c>
+      <c r="H6" s="61">
+        <v>45657</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="47"/>
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
@@ -1487,14 +1509,30 @@
       <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="47"/>
+      <c r="B7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="46">
+        <v>5</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="58">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="47">
+        <v>19</v>
+      </c>
+      <c r="G7" s="58">
+        <v>2500</v>
+      </c>
+      <c r="H7" s="61">
+        <v>45658</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>5</v>
+      </c>
       <c r="J7" s="47"/>
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
@@ -1517,13 +1555,13 @@
       <c r="A8" s="36">
         <v>3</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="46"/>
       <c r="D8" s="47"/>
-      <c r="E8" s="49"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="47"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="52"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
       <c r="K8" s="46"/>
@@ -1550,10 +1588,10 @@
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
       <c r="D9" s="47"/>
-      <c r="E9" s="49"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="47"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="52"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
       <c r="K9" s="46"/>
@@ -1580,10 +1618,10 @@
       <c r="B10" s="48"/>
       <c r="C10" s="46"/>
       <c r="D10" s="47"/>
-      <c r="E10" s="49"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="47"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="52"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
       <c r="K10" s="46"/>
@@ -1610,10 +1648,10 @@
       <c r="B11" s="48"/>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="49"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="47"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="52"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="61"/>
       <c r="I11" s="47"/>
       <c r="J11" s="47"/>
       <c r="K11" s="46"/>
@@ -1640,10 +1678,10 @@
       <c r="B12" s="48"/>
       <c r="C12" s="46"/>
       <c r="D12" s="47"/>
-      <c r="E12" s="49"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="47"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="52"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
       <c r="K12" s="46"/>
@@ -1670,10 +1708,10 @@
       <c r="B13" s="48"/>
       <c r="C13" s="46"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="49"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="52"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
       <c r="K13" s="46"/>
@@ -1700,10 +1738,10 @@
       <c r="B14" s="48"/>
       <c r="C14" s="46"/>
       <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="52"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="47"/>
       <c r="J14" s="47"/>
       <c r="K14" s="46"/>
@@ -1730,10 +1768,10 @@
       <c r="B15" s="48"/>
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="52"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
       <c r="K15" s="46"/>
@@ -1760,10 +1798,10 @@
       <c r="B16" s="48"/>
       <c r="C16" s="46"/>
       <c r="D16" s="47"/>
-      <c r="E16" s="49"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="52"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="47"/>
       <c r="J16" s="47"/>
       <c r="K16" s="46"/>
@@ -1790,10 +1828,10 @@
       <c r="B17" s="48"/>
       <c r="C17" s="46"/>
       <c r="D17" s="47"/>
-      <c r="E17" s="49"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="47"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="52"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="47"/>
       <c r="J17" s="47"/>
       <c r="K17" s="46"/>
@@ -1820,10 +1858,10 @@
       <c r="B18" s="48"/>
       <c r="C18" s="46"/>
       <c r="D18" s="47"/>
-      <c r="E18" s="49"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="47"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="52"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="61"/>
       <c r="I18" s="47"/>
       <c r="J18" s="47"/>
       <c r="K18" s="46"/>
@@ -1850,10 +1888,10 @@
       <c r="B19" s="48"/>
       <c r="C19" s="46"/>
       <c r="D19" s="47"/>
-      <c r="E19" s="49"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="47"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="52"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
       <c r="K19" s="46"/>
@@ -1880,10 +1918,10 @@
       <c r="B20" s="48"/>
       <c r="C20" s="46"/>
       <c r="D20" s="47"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="47"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="52"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="61"/>
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
       <c r="K20" s="46"/>
@@ -1910,10 +1948,10 @@
       <c r="B21" s="48"/>
       <c r="C21" s="46"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="47"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="52"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
       <c r="K21" s="46"/>
@@ -1940,10 +1978,10 @@
       <c r="B22" s="48"/>
       <c r="C22" s="46"/>
       <c r="D22" s="47"/>
-      <c r="E22" s="49"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="47"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="52"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="61"/>
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
       <c r="K22" s="46"/>
@@ -1970,10 +2008,10 @@
       <c r="B23" s="48"/>
       <c r="C23" s="46"/>
       <c r="D23" s="47"/>
-      <c r="E23" s="49"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="47"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="52"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
       <c r="K23" s="46"/>
@@ -2000,10 +2038,10 @@
       <c r="B24" s="48"/>
       <c r="C24" s="46"/>
       <c r="D24" s="47"/>
-      <c r="E24" s="49"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="47"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="52"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="47"/>
       <c r="J24" s="47"/>
       <c r="K24" s="46"/>
@@ -2030,10 +2068,10 @@
       <c r="B25" s="48"/>
       <c r="C25" s="46"/>
       <c r="D25" s="47"/>
-      <c r="E25" s="49"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="47"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="52"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
       <c r="K25" s="46"/>
@@ -2060,10 +2098,10 @@
       <c r="B26" s="48"/>
       <c r="C26" s="46"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="49"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="47"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="52"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="61"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
       <c r="K26" s="46"/>
@@ -2090,10 +2128,10 @@
       <c r="B27" s="48"/>
       <c r="C27" s="46"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="49"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="47"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="52"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
       <c r="K27" s="46"/>
@@ -2120,10 +2158,10 @@
       <c r="B28" s="48"/>
       <c r="C28" s="46"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="49"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="47"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="52"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
       <c r="K28" s="46"/>
@@ -2150,10 +2188,10 @@
       <c r="B29" s="48"/>
       <c r="C29" s="46"/>
       <c r="D29" s="47"/>
-      <c r="E29" s="49"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="47"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="52"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="61"/>
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
       <c r="K29" s="46"/>
@@ -2180,10 +2218,10 @@
       <c r="B30" s="48"/>
       <c r="C30" s="46"/>
       <c r="D30" s="47"/>
-      <c r="E30" s="49"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="47"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="52"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="61"/>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
       <c r="K30" s="46"/>
@@ -2210,10 +2248,10 @@
       <c r="B31" s="48"/>
       <c r="C31" s="46"/>
       <c r="D31" s="47"/>
-      <c r="E31" s="49"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="47"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="52"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="47"/>
       <c r="J31" s="47"/>
       <c r="K31" s="46"/>
@@ -2240,10 +2278,10 @@
       <c r="B32" s="48"/>
       <c r="C32" s="46"/>
       <c r="D32" s="47"/>
-      <c r="E32" s="49"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="47"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="52"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="47"/>
       <c r="J32" s="47"/>
       <c r="K32" s="46"/>
@@ -2270,10 +2308,10 @@
       <c r="B33" s="48"/>
       <c r="C33" s="46"/>
       <c r="D33" s="47"/>
-      <c r="E33" s="49"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="47"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="52"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="47"/>
       <c r="J33" s="47"/>
       <c r="K33" s="46"/>
@@ -2300,10 +2338,10 @@
       <c r="B34" s="48"/>
       <c r="C34" s="46"/>
       <c r="D34" s="47"/>
-      <c r="E34" s="49"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="47"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="52"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="47"/>
       <c r="J34" s="47"/>
       <c r="K34" s="46"/>
@@ -2330,10 +2368,10 @@
       <c r="B35" s="48"/>
       <c r="C35" s="46"/>
       <c r="D35" s="47"/>
-      <c r="E35" s="49"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="47"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="52"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
       <c r="K35" s="46"/>
@@ -2360,10 +2398,10 @@
       <c r="B36" s="48"/>
       <c r="C36" s="46"/>
       <c r="D36" s="47"/>
-      <c r="E36" s="49"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="47"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="52"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="61"/>
       <c r="I36" s="47"/>
       <c r="J36" s="47"/>
       <c r="K36" s="46"/>
@@ -2390,10 +2428,10 @@
       <c r="B37" s="48"/>
       <c r="C37" s="46"/>
       <c r="D37" s="47"/>
-      <c r="E37" s="49"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="47"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="52"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
       <c r="K37" s="46"/>
@@ -2420,10 +2458,10 @@
       <c r="B38" s="48"/>
       <c r="C38" s="46"/>
       <c r="D38" s="47"/>
-      <c r="E38" s="49"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="47"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="52"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="47"/>
       <c r="J38" s="47"/>
       <c r="K38" s="46"/>
@@ -2450,10 +2488,10 @@
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
-      <c r="E39" s="50"/>
+      <c r="E39" s="59"/>
       <c r="F39" s="47"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="53"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="62"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
       <c r="K39" s="28"/>
@@ -2480,10 +2518,10 @@
       <c r="B40" s="12"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="51"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="47"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="20"/>
@@ -2510,10 +2548,10 @@
       <c r="B41" s="12"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="51"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="47"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="54"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="63"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="20"/>
@@ -2540,10 +2578,10 @@
       <c r="B42" s="12"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="51"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="47"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="54"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="63"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="20"/>
@@ -2570,10 +2608,10 @@
       <c r="B43" s="12"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21"/>
-      <c r="E43" s="51"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="47"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="54"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="21"/>
       <c r="J43" s="21"/>
       <c r="K43" s="20"/>
@@ -2600,10 +2638,10 @@
       <c r="B44" s="12"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21"/>
-      <c r="E44" s="51"/>
+      <c r="E44" s="60"/>
       <c r="F44" s="47"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="54"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="20"/>
@@ -2630,10 +2668,10 @@
       <c r="B45" s="12"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21"/>
-      <c r="E45" s="51"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="47"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="54"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="63"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="20"/>
@@ -2660,10 +2698,10 @@
       <c r="B46" s="12"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
-      <c r="E46" s="51"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="47"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="54"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="20"/>
@@ -2690,10 +2728,10 @@
       <c r="B47" s="12"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="51"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="47"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="54"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="63"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="20"/>
@@ -2720,10 +2758,10 @@
       <c r="B48" s="12"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21"/>
-      <c r="E48" s="51"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="47"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="54"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="63"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="20"/>
@@ -2750,10 +2788,10 @@
       <c r="B49" s="12"/>
       <c r="C49" s="20"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="51"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="47"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="54"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="63"/>
       <c r="I49" s="21"/>
       <c r="J49" s="21"/>
       <c r="K49" s="20"/>
@@ -2780,10 +2818,10 @@
       <c r="B50" s="12"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
-      <c r="E50" s="51"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="47"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="54"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="63"/>
       <c r="I50" s="21"/>
       <c r="J50" s="21"/>
       <c r="K50" s="20"/>
@@ -2810,10 +2848,10 @@
       <c r="B51" s="12"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21"/>
-      <c r="E51" s="51"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="47"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="54"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="63"/>
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
       <c r="K51" s="20"/>
@@ -2840,10 +2878,10 @@
       <c r="B52" s="12"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="51"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="47"/>
-      <c r="G52" s="51"/>
-      <c r="H52" s="54"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
       <c r="K52" s="20"/>
@@ -2870,10 +2908,10 @@
       <c r="B53" s="12"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21"/>
-      <c r="E53" s="51"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="47"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="54"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="63"/>
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
       <c r="K53" s="20"/>
@@ -2900,10 +2938,10 @@
       <c r="B54" s="12"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
-      <c r="E54" s="51"/>
+      <c r="E54" s="60"/>
       <c r="F54" s="47"/>
-      <c r="G54" s="51"/>
-      <c r="H54" s="54"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="63"/>
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
       <c r="K54" s="20"/>
@@ -2930,10 +2968,10 @@
       <c r="B55" s="12"/>
       <c r="C55" s="20"/>
       <c r="D55" s="21"/>
-      <c r="E55" s="51"/>
+      <c r="E55" s="60"/>
       <c r="F55" s="47"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="54"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="63"/>
       <c r="I55" s="21"/>
       <c r="J55" s="21"/>
       <c r="K55" s="20"/>
@@ -2960,10 +2998,10 @@
       <c r="B56" s="12"/>
       <c r="C56" s="20"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="51"/>
+      <c r="E56" s="60"/>
       <c r="F56" s="47"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="54"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="63"/>
       <c r="I56" s="21"/>
       <c r="J56" s="21"/>
       <c r="K56" s="20"/>
@@ -2990,10 +3028,10 @@
       <c r="B57" s="12"/>
       <c r="C57" s="20"/>
       <c r="D57" s="21"/>
-      <c r="E57" s="51"/>
+      <c r="E57" s="60"/>
       <c r="F57" s="47"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="54"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="63"/>
       <c r="I57" s="21"/>
       <c r="J57" s="21"/>
       <c r="K57" s="20"/>
@@ -3020,10 +3058,10 @@
       <c r="B58" s="12"/>
       <c r="C58" s="20"/>
       <c r="D58" s="21"/>
-      <c r="E58" s="51"/>
+      <c r="E58" s="60"/>
       <c r="F58" s="47"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="54"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="63"/>
       <c r="I58" s="21"/>
       <c r="J58" s="21"/>
       <c r="K58" s="20"/>
@@ -3050,10 +3088,10 @@
       <c r="B59" s="12"/>
       <c r="C59" s="20"/>
       <c r="D59" s="21"/>
-      <c r="E59" s="51"/>
+      <c r="E59" s="60"/>
       <c r="F59" s="47"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="54"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="63"/>
       <c r="I59" s="21"/>
       <c r="J59" s="21"/>
       <c r="K59" s="20"/>
@@ -3080,10 +3118,10 @@
       <c r="B60" s="12"/>
       <c r="C60" s="20"/>
       <c r="D60" s="21"/>
-      <c r="E60" s="51"/>
+      <c r="E60" s="60"/>
       <c r="F60" s="47"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="54"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="63"/>
       <c r="I60" s="21"/>
       <c r="J60" s="21"/>
       <c r="K60" s="20"/>
@@ -3110,10 +3148,10 @@
       <c r="B61" s="12"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
-      <c r="E61" s="51"/>
+      <c r="E61" s="60"/>
       <c r="F61" s="47"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="54"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="63"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="20"/>
@@ -3140,10 +3178,10 @@
       <c r="B62" s="12"/>
       <c r="C62" s="20"/>
       <c r="D62" s="21"/>
-      <c r="E62" s="51"/>
+      <c r="E62" s="60"/>
       <c r="F62" s="47"/>
-      <c r="G62" s="51"/>
-      <c r="H62" s="54"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="63"/>
       <c r="I62" s="21"/>
       <c r="J62" s="21"/>
       <c r="K62" s="20"/>
@@ -3170,10 +3208,10 @@
       <c r="B63" s="12"/>
       <c r="C63" s="20"/>
       <c r="D63" s="21"/>
-      <c r="E63" s="51"/>
+      <c r="E63" s="60"/>
       <c r="F63" s="47"/>
-      <c r="G63" s="51"/>
-      <c r="H63" s="54"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="63"/>
       <c r="I63" s="21"/>
       <c r="J63" s="21"/>
       <c r="K63" s="20"/>
@@ -3200,10 +3238,10 @@
       <c r="B64" s="12"/>
       <c r="C64" s="20"/>
       <c r="D64" s="21"/>
-      <c r="E64" s="51"/>
+      <c r="E64" s="60"/>
       <c r="F64" s="47"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="54"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="63"/>
       <c r="I64" s="21"/>
       <c r="J64" s="21"/>
       <c r="K64" s="20"/>
@@ -3230,10 +3268,10 @@
       <c r="B65" s="12"/>
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
-      <c r="E65" s="51"/>
+      <c r="E65" s="60"/>
       <c r="F65" s="47"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="54"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="63"/>
       <c r="I65" s="21"/>
       <c r="J65" s="21"/>
       <c r="K65" s="20"/>
@@ -3260,10 +3298,10 @@
       <c r="B66" s="12"/>
       <c r="C66" s="20"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="51"/>
+      <c r="E66" s="60"/>
       <c r="F66" s="47"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="54"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="63"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
       <c r="K66" s="20"/>
@@ -3290,10 +3328,10 @@
       <c r="B67" s="12"/>
       <c r="C67" s="20"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="51"/>
+      <c r="E67" s="60"/>
       <c r="F67" s="47"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="54"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="63"/>
       <c r="I67" s="21"/>
       <c r="J67" s="21"/>
       <c r="K67" s="20"/>
@@ -3320,10 +3358,10 @@
       <c r="B68" s="12"/>
       <c r="C68" s="20"/>
       <c r="D68" s="21"/>
-      <c r="E68" s="51"/>
+      <c r="E68" s="60"/>
       <c r="F68" s="47"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="54"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="63"/>
       <c r="I68" s="21"/>
       <c r="J68" s="21"/>
       <c r="K68" s="20"/>
@@ -3350,10 +3388,10 @@
       <c r="B69" s="12"/>
       <c r="C69" s="20"/>
       <c r="D69" s="21"/>
-      <c r="E69" s="51"/>
+      <c r="E69" s="60"/>
       <c r="F69" s="47"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="54"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="63"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="20"/>
@@ -3380,10 +3418,10 @@
       <c r="B70" s="12"/>
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="51"/>
+      <c r="E70" s="60"/>
       <c r="F70" s="47"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="54"/>
+      <c r="G70" s="60"/>
+      <c r="H70" s="63"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
       <c r="K70" s="20"/>
@@ -3410,10 +3448,10 @@
       <c r="B71" s="12"/>
       <c r="C71" s="20"/>
       <c r="D71" s="21"/>
-      <c r="E71" s="51"/>
+      <c r="E71" s="60"/>
       <c r="F71" s="47"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="54"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="63"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="20"/>
@@ -3440,10 +3478,10 @@
       <c r="B72" s="12"/>
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
-      <c r="E72" s="51"/>
+      <c r="E72" s="60"/>
       <c r="F72" s="47"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="54"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="63"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="20"/>
@@ -3470,10 +3508,10 @@
       <c r="B73" s="12"/>
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
-      <c r="E73" s="51"/>
+      <c r="E73" s="60"/>
       <c r="F73" s="47"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="54"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="63"/>
       <c r="I73" s="21"/>
       <c r="J73" s="21"/>
       <c r="K73" s="20"/>
@@ -3500,10 +3538,10 @@
       <c r="B74" s="12"/>
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
-      <c r="E74" s="51"/>
+      <c r="E74" s="60"/>
       <c r="F74" s="47"/>
-      <c r="G74" s="51"/>
-      <c r="H74" s="54"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="63"/>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="20"/>
@@ -3530,10 +3568,10 @@
       <c r="B75" s="12"/>
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
-      <c r="E75" s="51"/>
+      <c r="E75" s="60"/>
       <c r="F75" s="47"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="54"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="63"/>
       <c r="I75" s="21"/>
       <c r="J75" s="21"/>
       <c r="K75" s="20"/>
@@ -3560,10 +3598,10 @@
       <c r="B76" s="12"/>
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="51"/>
+      <c r="E76" s="60"/>
       <c r="F76" s="47"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="54"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="63"/>
       <c r="I76" s="21"/>
       <c r="J76" s="21"/>
       <c r="K76" s="20"/>
@@ -3590,10 +3628,10 @@
       <c r="B77" s="12"/>
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
-      <c r="E77" s="51"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="47"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="54"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="63"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="20"/>
@@ -3620,10 +3658,10 @@
       <c r="B78" s="12"/>
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
-      <c r="E78" s="51"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="47"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="54"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="63"/>
       <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" s="20"/>
@@ -3650,10 +3688,10 @@
       <c r="B79" s="12"/>
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
-      <c r="E79" s="51"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="47"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="54"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="63"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="20"/>
@@ -3680,10 +3718,10 @@
       <c r="B80" s="12"/>
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
-      <c r="E80" s="51"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="47"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="54"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="63"/>
       <c r="I80" s="21"/>
       <c r="J80" s="21"/>
       <c r="K80" s="20"/>
@@ -3710,10 +3748,10 @@
       <c r="B81" s="12"/>
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
-      <c r="E81" s="51"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="47"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="54"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="63"/>
       <c r="I81" s="21"/>
       <c r="J81" s="21"/>
       <c r="K81" s="20"/>
@@ -3740,10 +3778,10 @@
       <c r="B82" s="12"/>
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
-      <c r="E82" s="51"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="47"/>
-      <c r="G82" s="51"/>
-      <c r="H82" s="54"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="63"/>
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="20"/>
@@ -3770,10 +3808,10 @@
       <c r="B83" s="12"/>
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
-      <c r="E83" s="51"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="47"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="54"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="63"/>
       <c r="I83" s="21"/>
       <c r="J83" s="21"/>
       <c r="K83" s="20"/>
@@ -3800,10 +3838,10 @@
       <c r="B84" s="12"/>
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
-      <c r="E84" s="51"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="47"/>
-      <c r="G84" s="51"/>
-      <c r="H84" s="54"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="63"/>
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="20"/>
@@ -3830,10 +3868,10 @@
       <c r="B85" s="12"/>
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
-      <c r="E85" s="51"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="47"/>
-      <c r="G85" s="51"/>
-      <c r="H85" s="54"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="63"/>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
       <c r="K85" s="20"/>
@@ -3860,10 +3898,10 @@
       <c r="B86" s="12"/>
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
-      <c r="E86" s="51"/>
+      <c r="E86" s="60"/>
       <c r="F86" s="47"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="54"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="63"/>
       <c r="I86" s="21"/>
       <c r="J86" s="21"/>
       <c r="K86" s="20"/>
@@ -3890,10 +3928,10 @@
       <c r="B87" s="12"/>
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
-      <c r="E87" s="51"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="47"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="54"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="21"/>
       <c r="J87" s="21"/>
       <c r="K87" s="20"/>
@@ -3920,10 +3958,10 @@
       <c r="B88" s="12"/>
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
-      <c r="E88" s="51"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="47"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="54"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="63"/>
       <c r="I88" s="21"/>
       <c r="J88" s="21"/>
       <c r="K88" s="20"/>
@@ -3950,10 +3988,10 @@
       <c r="B89" s="12"/>
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
-      <c r="E89" s="51"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="47"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="54"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="63"/>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
       <c r="K89" s="20"/>
@@ -3980,10 +4018,10 @@
       <c r="B90" s="12"/>
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
-      <c r="E90" s="51"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="47"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="54"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="63"/>
       <c r="I90" s="21"/>
       <c r="J90" s="21"/>
       <c r="K90" s="20"/>
@@ -4010,10 +4048,10 @@
       <c r="B91" s="12"/>
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
-      <c r="E91" s="51"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="47"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="54"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="63"/>
       <c r="I91" s="21"/>
       <c r="J91" s="21"/>
       <c r="K91" s="20"/>
@@ -4040,10 +4078,10 @@
       <c r="B92" s="12"/>
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
-      <c r="E92" s="51"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="47"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="54"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="63"/>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
       <c r="K92" s="20"/>
@@ -4070,10 +4108,10 @@
       <c r="B93" s="12"/>
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
-      <c r="E93" s="51"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="47"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="54"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="63"/>
       <c r="I93" s="21"/>
       <c r="J93" s="21"/>
       <c r="K93" s="20"/>
@@ -4100,10 +4138,10 @@
       <c r="B94" s="12"/>
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
-      <c r="E94" s="51"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="47"/>
-      <c r="G94" s="51"/>
-      <c r="H94" s="54"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="63"/>
       <c r="I94" s="21"/>
       <c r="J94" s="21"/>
       <c r="K94" s="20"/>
@@ -4130,10 +4168,10 @@
       <c r="B95" s="12"/>
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
-      <c r="E95" s="51"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="47"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="54"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="63"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
       <c r="K95" s="20"/>
@@ -4160,10 +4198,10 @@
       <c r="B96" s="12"/>
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
-      <c r="E96" s="51"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="47"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="54"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="63"/>
       <c r="I96" s="21"/>
       <c r="J96" s="21"/>
       <c r="K96" s="20"/>
@@ -4190,10 +4228,10 @@
       <c r="B97" s="12"/>
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
-      <c r="E97" s="51"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="47"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="54"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="63"/>
       <c r="I97" s="21"/>
       <c r="J97" s="21"/>
       <c r="K97" s="20"/>
@@ -4220,10 +4258,10 @@
       <c r="B98" s="12"/>
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
-      <c r="E98" s="51"/>
+      <c r="E98" s="60"/>
       <c r="F98" s="47"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="54"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="63"/>
       <c r="I98" s="21"/>
       <c r="J98" s="21"/>
       <c r="K98" s="20"/>
@@ -4250,10 +4288,10 @@
       <c r="B99" s="12"/>
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
-      <c r="E99" s="51"/>
+      <c r="E99" s="60"/>
       <c r="F99" s="47"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="54"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="63"/>
       <c r="I99" s="21"/>
       <c r="J99" s="21"/>
       <c r="K99" s="20"/>
@@ -4280,10 +4318,10 @@
       <c r="B100" s="12"/>
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
-      <c r="E100" s="51"/>
+      <c r="E100" s="60"/>
       <c r="F100" s="47"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="54"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="63"/>
       <c r="I100" s="21"/>
       <c r="J100" s="21"/>
       <c r="K100" s="20"/>
@@ -4310,10 +4348,10 @@
       <c r="B101" s="12"/>
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
-      <c r="E101" s="51"/>
+      <c r="E101" s="60"/>
       <c r="F101" s="47"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="54"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="63"/>
       <c r="I101" s="21"/>
       <c r="J101" s="21"/>
       <c r="K101" s="20"/>
@@ -4340,10 +4378,10 @@
       <c r="B102" s="12"/>
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
-      <c r="E102" s="51"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="47"/>
-      <c r="G102" s="51"/>
-      <c r="H102" s="54"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="63"/>
       <c r="I102" s="21"/>
       <c r="J102" s="21"/>
       <c r="K102" s="20"/>
@@ -4370,10 +4408,10 @@
       <c r="B103" s="12"/>
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
-      <c r="E103" s="51"/>
+      <c r="E103" s="60"/>
       <c r="F103" s="47"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="54"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="63"/>
       <c r="I103" s="21"/>
       <c r="J103" s="21"/>
       <c r="K103" s="20"/>
@@ -4400,10 +4438,10 @@
       <c r="B104" s="12"/>
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
-      <c r="E104" s="51"/>
+      <c r="E104" s="60"/>
       <c r="F104" s="47"/>
-      <c r="G104" s="51"/>
-      <c r="H104" s="54"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="63"/>
       <c r="I104" s="21"/>
       <c r="J104" s="21"/>
       <c r="K104" s="20"/>
@@ -4430,10 +4468,10 @@
       <c r="B105" s="12"/>
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
-      <c r="E105" s="51"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="47"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="54"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="63"/>
       <c r="I105" s="21"/>
       <c r="J105" s="21"/>
       <c r="K105" s="20"/>
@@ -4460,10 +4498,10 @@
       <c r="B106" s="12"/>
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
-      <c r="E106" s="51"/>
+      <c r="E106" s="60"/>
       <c r="F106" s="47"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="54"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="63"/>
       <c r="I106" s="21"/>
       <c r="J106" s="21"/>
       <c r="K106" s="20"/>
@@ -4490,10 +4528,10 @@
       <c r="B107" s="12"/>
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
-      <c r="E107" s="51"/>
+      <c r="E107" s="60"/>
       <c r="F107" s="47"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="54"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="63"/>
       <c r="I107" s="21"/>
       <c r="J107" s="21"/>
       <c r="K107" s="20"/>
@@ -4520,10 +4558,10 @@
       <c r="B108" s="12"/>
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
-      <c r="E108" s="51"/>
+      <c r="E108" s="60"/>
       <c r="F108" s="47"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="54"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="63"/>
       <c r="I108" s="21"/>
       <c r="J108" s="21"/>
       <c r="K108" s="20"/>
@@ -4550,10 +4588,10 @@
       <c r="B109" s="12"/>
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
-      <c r="E109" s="51"/>
+      <c r="E109" s="60"/>
       <c r="F109" s="47"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="54"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="63"/>
       <c r="I109" s="21"/>
       <c r="J109" s="21"/>
       <c r="K109" s="20"/>
@@ -4580,10 +4618,10 @@
       <c r="B110" s="12"/>
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
-      <c r="E110" s="51"/>
+      <c r="E110" s="60"/>
       <c r="F110" s="47"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="54"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="63"/>
       <c r="I110" s="21"/>
       <c r="J110" s="21"/>
       <c r="K110" s="20"/>
@@ -4610,10 +4648,10 @@
       <c r="B111" s="12"/>
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
-      <c r="E111" s="51"/>
+      <c r="E111" s="60"/>
       <c r="F111" s="47"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="54"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="63"/>
       <c r="I111" s="21"/>
       <c r="J111" s="21"/>
       <c r="K111" s="20"/>
@@ -4640,10 +4678,10 @@
       <c r="B112" s="12"/>
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
-      <c r="E112" s="51"/>
+      <c r="E112" s="60"/>
       <c r="F112" s="47"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="54"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="63"/>
       <c r="I112" s="21"/>
       <c r="J112" s="21"/>
       <c r="K112" s="20"/>
@@ -4670,10 +4708,10 @@
       <c r="B113" s="12"/>
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
-      <c r="E113" s="51"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="47"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="54"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="63"/>
       <c r="I113" s="21"/>
       <c r="J113" s="21"/>
       <c r="K113" s="20"/>
@@ -4700,10 +4738,10 @@
       <c r="B114" s="12"/>
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
-      <c r="E114" s="51"/>
+      <c r="E114" s="60"/>
       <c r="F114" s="47"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="54"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="63"/>
       <c r="I114" s="21"/>
       <c r="J114" s="21"/>
       <c r="K114" s="20"/>
@@ -4730,10 +4768,10 @@
       <c r="B115" s="12"/>
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
-      <c r="E115" s="51"/>
+      <c r="E115" s="60"/>
       <c r="F115" s="47"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="54"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="63"/>
       <c r="I115" s="21"/>
       <c r="J115" s="21"/>
       <c r="K115" s="20"/>
@@ -4760,10 +4798,10 @@
       <c r="B116" s="12"/>
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
-      <c r="E116" s="51"/>
+      <c r="E116" s="60"/>
       <c r="F116" s="47"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="54"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="63"/>
       <c r="I116" s="21"/>
       <c r="J116" s="21"/>
       <c r="K116" s="20"/>
@@ -4790,10 +4828,10 @@
       <c r="B117" s="12"/>
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
-      <c r="E117" s="51"/>
+      <c r="E117" s="60"/>
       <c r="F117" s="47"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="54"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="63"/>
       <c r="I117" s="21"/>
       <c r="J117" s="21"/>
       <c r="K117" s="20"/>
@@ -4820,10 +4858,10 @@
       <c r="B118" s="12"/>
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
-      <c r="E118" s="51"/>
+      <c r="E118" s="60"/>
       <c r="F118" s="47"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="54"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="63"/>
       <c r="I118" s="21"/>
       <c r="J118" s="21"/>
       <c r="K118" s="20"/>
@@ -4850,10 +4888,10 @@
       <c r="B119" s="12"/>
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
-      <c r="E119" s="51"/>
+      <c r="E119" s="60"/>
       <c r="F119" s="47"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="54"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="63"/>
       <c r="I119" s="21"/>
       <c r="J119" s="21"/>
       <c r="K119" s="20"/>
@@ -4880,10 +4918,10 @@
       <c r="B120" s="12"/>
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
-      <c r="E120" s="51"/>
+      <c r="E120" s="60"/>
       <c r="F120" s="47"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="54"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="63"/>
       <c r="I120" s="21"/>
       <c r="J120" s="21"/>
       <c r="K120" s="20"/>
@@ -4910,10 +4948,10 @@
       <c r="B121" s="12"/>
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
-      <c r="E121" s="51"/>
+      <c r="E121" s="60"/>
       <c r="F121" s="47"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="54"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="63"/>
       <c r="I121" s="21"/>
       <c r="J121" s="21"/>
       <c r="K121" s="20"/>
@@ -4940,10 +4978,10 @@
       <c r="B122" s="12"/>
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
-      <c r="E122" s="51"/>
+      <c r="E122" s="60"/>
       <c r="F122" s="47"/>
-      <c r="G122" s="51"/>
-      <c r="H122" s="54"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="63"/>
       <c r="I122" s="21"/>
       <c r="J122" s="21"/>
       <c r="K122" s="20"/>
@@ -4970,10 +5008,10 @@
       <c r="B123" s="12"/>
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
-      <c r="E123" s="51"/>
+      <c r="E123" s="60"/>
       <c r="F123" s="47"/>
-      <c r="G123" s="51"/>
-      <c r="H123" s="54"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="63"/>
       <c r="I123" s="21"/>
       <c r="J123" s="21"/>
       <c r="K123" s="20"/>
@@ -5000,10 +5038,10 @@
       <c r="B124" s="12"/>
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
-      <c r="E124" s="51"/>
+      <c r="E124" s="60"/>
       <c r="F124" s="47"/>
-      <c r="G124" s="51"/>
-      <c r="H124" s="54"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="63"/>
       <c r="I124" s="21"/>
       <c r="J124" s="21"/>
       <c r="K124" s="20"/>
@@ -5030,10 +5068,10 @@
       <c r="B125" s="12"/>
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
-      <c r="E125" s="51"/>
+      <c r="E125" s="60"/>
       <c r="F125" s="47"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="54"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="63"/>
       <c r="I125" s="21"/>
       <c r="J125" s="21"/>
       <c r="K125" s="20"/>
@@ -5060,10 +5098,10 @@
       <c r="B126" s="12"/>
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
-      <c r="E126" s="51"/>
+      <c r="E126" s="60"/>
       <c r="F126" s="47"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="54"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="63"/>
       <c r="I126" s="21"/>
       <c r="J126" s="21"/>
       <c r="K126" s="20"/>
@@ -5090,10 +5128,10 @@
       <c r="B127" s="12"/>
       <c r="C127" s="20"/>
       <c r="D127" s="21"/>
-      <c r="E127" s="51"/>
+      <c r="E127" s="60"/>
       <c r="F127" s="47"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="54"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="63"/>
       <c r="I127" s="21"/>
       <c r="J127" s="21"/>
       <c r="K127" s="20"/>
@@ -5120,10 +5158,10 @@
       <c r="B128" s="12"/>
       <c r="C128" s="20"/>
       <c r="D128" s="21"/>
-      <c r="E128" s="51"/>
+      <c r="E128" s="60"/>
       <c r="F128" s="47"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="54"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="63"/>
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
       <c r="K128" s="20"/>
@@ -5150,10 +5188,10 @@
       <c r="B129" s="12"/>
       <c r="C129" s="20"/>
       <c r="D129" s="21"/>
-      <c r="E129" s="51"/>
+      <c r="E129" s="60"/>
       <c r="F129" s="47"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="54"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="63"/>
       <c r="I129" s="21"/>
       <c r="J129" s="21"/>
       <c r="K129" s="20"/>
@@ -5180,10 +5218,10 @@
       <c r="B130" s="12"/>
       <c r="C130" s="20"/>
       <c r="D130" s="21"/>
-      <c r="E130" s="51"/>
+      <c r="E130" s="60"/>
       <c r="F130" s="47"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="54"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="63"/>
       <c r="I130" s="21"/>
       <c r="J130" s="21"/>
       <c r="K130" s="20"/>
@@ -5210,10 +5248,10 @@
       <c r="B131" s="12"/>
       <c r="C131" s="20"/>
       <c r="D131" s="21"/>
-      <c r="E131" s="51"/>
+      <c r="E131" s="60"/>
       <c r="F131" s="47"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="54"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="63"/>
       <c r="I131" s="21"/>
       <c r="J131" s="21"/>
       <c r="K131" s="20"/>
@@ -5240,10 +5278,10 @@
       <c r="B132" s="12"/>
       <c r="C132" s="20"/>
       <c r="D132" s="21"/>
-      <c r="E132" s="51"/>
+      <c r="E132" s="60"/>
       <c r="F132" s="47"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="54"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="63"/>
       <c r="I132" s="21"/>
       <c r="J132" s="21"/>
       <c r="K132" s="20"/>
@@ -5270,10 +5308,10 @@
       <c r="B133" s="12"/>
       <c r="C133" s="20"/>
       <c r="D133" s="21"/>
-      <c r="E133" s="51"/>
+      <c r="E133" s="60"/>
       <c r="F133" s="47"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="54"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="63"/>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
       <c r="K133" s="20"/>
@@ -5300,10 +5338,10 @@
       <c r="B134" s="12"/>
       <c r="C134" s="20"/>
       <c r="D134" s="21"/>
-      <c r="E134" s="51"/>
+      <c r="E134" s="60"/>
       <c r="F134" s="47"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="54"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="63"/>
       <c r="I134" s="21"/>
       <c r="J134" s="21"/>
       <c r="K134" s="20"/>
@@ -5330,10 +5368,10 @@
       <c r="B135" s="12"/>
       <c r="C135" s="20"/>
       <c r="D135" s="21"/>
-      <c r="E135" s="51"/>
+      <c r="E135" s="60"/>
       <c r="F135" s="47"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="54"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="63"/>
       <c r="I135" s="21"/>
       <c r="J135" s="21"/>
       <c r="K135" s="20"/>
@@ -5360,10 +5398,10 @@
       <c r="B136" s="12"/>
       <c r="C136" s="20"/>
       <c r="D136" s="21"/>
-      <c r="E136" s="51"/>
+      <c r="E136" s="60"/>
       <c r="F136" s="47"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="54"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="63"/>
       <c r="I136" s="21"/>
       <c r="J136" s="21"/>
       <c r="K136" s="20"/>
@@ -5390,10 +5428,10 @@
       <c r="B137" s="12"/>
       <c r="C137" s="20"/>
       <c r="D137" s="21"/>
-      <c r="E137" s="51"/>
+      <c r="E137" s="60"/>
       <c r="F137" s="47"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="54"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="63"/>
       <c r="I137" s="21"/>
       <c r="J137" s="21"/>
       <c r="K137" s="20"/>
@@ -5420,10 +5458,10 @@
       <c r="B138" s="12"/>
       <c r="C138" s="20"/>
       <c r="D138" s="21"/>
-      <c r="E138" s="51"/>
+      <c r="E138" s="60"/>
       <c r="F138" s="47"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="54"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="63"/>
       <c r="I138" s="21"/>
       <c r="J138" s="21"/>
       <c r="K138" s="20"/>
@@ -5450,10 +5488,10 @@
       <c r="B139" s="12"/>
       <c r="C139" s="20"/>
       <c r="D139" s="21"/>
-      <c r="E139" s="51"/>
+      <c r="E139" s="60"/>
       <c r="F139" s="47"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="54"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="63"/>
       <c r="I139" s="21"/>
       <c r="J139" s="21"/>
       <c r="K139" s="20"/>
@@ -5480,10 +5518,10 @@
       <c r="B140" s="12"/>
       <c r="C140" s="20"/>
       <c r="D140" s="21"/>
-      <c r="E140" s="51"/>
+      <c r="E140" s="60"/>
       <c r="F140" s="47"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="54"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="63"/>
       <c r="I140" s="21"/>
       <c r="J140" s="21"/>
       <c r="K140" s="20"/>
@@ -5510,10 +5548,10 @@
       <c r="B141" s="12"/>
       <c r="C141" s="20"/>
       <c r="D141" s="21"/>
-      <c r="E141" s="51"/>
+      <c r="E141" s="60"/>
       <c r="F141" s="47"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="54"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="63"/>
       <c r="I141" s="21"/>
       <c r="J141" s="21"/>
       <c r="K141" s="20"/>
@@ -5540,10 +5578,10 @@
       <c r="B142" s="12"/>
       <c r="C142" s="20"/>
       <c r="D142" s="21"/>
-      <c r="E142" s="51"/>
+      <c r="E142" s="60"/>
       <c r="F142" s="47"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="54"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="63"/>
       <c r="I142" s="21"/>
       <c r="J142" s="21"/>
       <c r="K142" s="20"/>
@@ -5570,10 +5608,10 @@
       <c r="B143" s="12"/>
       <c r="C143" s="20"/>
       <c r="D143" s="21"/>
-      <c r="E143" s="51"/>
+      <c r="E143" s="60"/>
       <c r="F143" s="47"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="54"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="63"/>
       <c r="I143" s="21"/>
       <c r="J143" s="21"/>
       <c r="K143" s="20"/>
@@ -5600,10 +5638,10 @@
       <c r="B144" s="12"/>
       <c r="C144" s="20"/>
       <c r="D144" s="21"/>
-      <c r="E144" s="51"/>
+      <c r="E144" s="60"/>
       <c r="F144" s="47"/>
-      <c r="G144" s="51"/>
-      <c r="H144" s="54"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="63"/>
       <c r="I144" s="21"/>
       <c r="J144" s="21"/>
       <c r="K144" s="20"/>
@@ -5630,10 +5668,10 @@
       <c r="B145" s="12"/>
       <c r="C145" s="20"/>
       <c r="D145" s="21"/>
-      <c r="E145" s="51"/>
+      <c r="E145" s="60"/>
       <c r="F145" s="47"/>
-      <c r="G145" s="51"/>
-      <c r="H145" s="54"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="63"/>
       <c r="I145" s="21"/>
       <c r="J145" s="21"/>
       <c r="K145" s="20"/>
@@ -5660,10 +5698,10 @@
       <c r="B146" s="12"/>
       <c r="C146" s="20"/>
       <c r="D146" s="21"/>
-      <c r="E146" s="51"/>
+      <c r="E146" s="60"/>
       <c r="F146" s="47"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="54"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="63"/>
       <c r="I146" s="21"/>
       <c r="J146" s="21"/>
       <c r="K146" s="20"/>
@@ -5690,10 +5728,10 @@
       <c r="B147" s="12"/>
       <c r="C147" s="20"/>
       <c r="D147" s="21"/>
-      <c r="E147" s="51"/>
+      <c r="E147" s="60"/>
       <c r="F147" s="47"/>
-      <c r="G147" s="51"/>
-      <c r="H147" s="54"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="63"/>
       <c r="I147" s="21"/>
       <c r="J147" s="21"/>
       <c r="K147" s="20"/>
@@ -5720,10 +5758,10 @@
       <c r="B148" s="12"/>
       <c r="C148" s="20"/>
       <c r="D148" s="21"/>
-      <c r="E148" s="51"/>
+      <c r="E148" s="60"/>
       <c r="F148" s="47"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="54"/>
+      <c r="G148" s="60"/>
+      <c r="H148" s="63"/>
       <c r="I148" s="21"/>
       <c r="J148" s="21"/>
       <c r="K148" s="20"/>
@@ -5750,10 +5788,10 @@
       <c r="B149" s="12"/>
       <c r="C149" s="20"/>
       <c r="D149" s="21"/>
-      <c r="E149" s="51"/>
+      <c r="E149" s="60"/>
       <c r="F149" s="47"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="54"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="63"/>
       <c r="I149" s="21"/>
       <c r="J149" s="21"/>
       <c r="K149" s="20"/>
@@ -5780,10 +5818,10 @@
       <c r="B150" s="12"/>
       <c r="C150" s="20"/>
       <c r="D150" s="21"/>
-      <c r="E150" s="51"/>
+      <c r="E150" s="60"/>
       <c r="F150" s="47"/>
-      <c r="G150" s="51"/>
-      <c r="H150" s="54"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="63"/>
       <c r="I150" s="21"/>
       <c r="J150" s="21"/>
       <c r="K150" s="20"/>
@@ -5810,10 +5848,10 @@
       <c r="B151" s="12"/>
       <c r="C151" s="20"/>
       <c r="D151" s="21"/>
-      <c r="E151" s="51"/>
+      <c r="E151" s="60"/>
       <c r="F151" s="47"/>
-      <c r="G151" s="51"/>
-      <c r="H151" s="54"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="63"/>
       <c r="I151" s="21"/>
       <c r="J151" s="21"/>
       <c r="K151" s="20"/>
@@ -5840,10 +5878,10 @@
       <c r="B152" s="12"/>
       <c r="C152" s="20"/>
       <c r="D152" s="21"/>
-      <c r="E152" s="51"/>
+      <c r="E152" s="60"/>
       <c r="F152" s="47"/>
-      <c r="G152" s="51"/>
-      <c r="H152" s="54"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="63"/>
       <c r="I152" s="21"/>
       <c r="J152" s="21"/>
       <c r="K152" s="20"/>
@@ -5870,10 +5908,10 @@
       <c r="B153" s="12"/>
       <c r="C153" s="20"/>
       <c r="D153" s="21"/>
-      <c r="E153" s="51"/>
+      <c r="E153" s="60"/>
       <c r="F153" s="47"/>
-      <c r="G153" s="51"/>
-      <c r="H153" s="54"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="63"/>
       <c r="I153" s="21"/>
       <c r="J153" s="21"/>
       <c r="K153" s="20"/>
@@ -5900,10 +5938,10 @@
       <c r="B154" s="12"/>
       <c r="C154" s="20"/>
       <c r="D154" s="21"/>
-      <c r="E154" s="51"/>
+      <c r="E154" s="60"/>
       <c r="F154" s="47"/>
-      <c r="G154" s="51"/>
-      <c r="H154" s="54"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="63"/>
       <c r="I154" s="21"/>
       <c r="J154" s="21"/>
       <c r="K154" s="20"/>
@@ -5930,10 +5968,10 @@
       <c r="B155" s="12"/>
       <c r="C155" s="20"/>
       <c r="D155" s="21"/>
-      <c r="E155" s="51"/>
+      <c r="E155" s="60"/>
       <c r="F155" s="47"/>
-      <c r="G155" s="51"/>
-      <c r="H155" s="54"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="63"/>
       <c r="I155" s="21"/>
       <c r="J155" s="21"/>
       <c r="K155" s="20"/>
@@ -5960,10 +5998,10 @@
       <c r="B156" s="12"/>
       <c r="C156" s="20"/>
       <c r="D156" s="21"/>
-      <c r="E156" s="51"/>
+      <c r="E156" s="60"/>
       <c r="F156" s="47"/>
-      <c r="G156" s="51"/>
-      <c r="H156" s="54"/>
+      <c r="G156" s="60"/>
+      <c r="H156" s="63"/>
       <c r="I156" s="21"/>
       <c r="J156" s="21"/>
       <c r="K156" s="20"/>
@@ -5990,10 +6028,10 @@
       <c r="B157" s="12"/>
       <c r="C157" s="20"/>
       <c r="D157" s="21"/>
-      <c r="E157" s="51"/>
+      <c r="E157" s="60"/>
       <c r="F157" s="47"/>
-      <c r="G157" s="51"/>
-      <c r="H157" s="54"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="63"/>
       <c r="I157" s="21"/>
       <c r="J157" s="21"/>
       <c r="K157" s="20"/>
@@ -6020,10 +6058,10 @@
       <c r="B158" s="12"/>
       <c r="C158" s="20"/>
       <c r="D158" s="21"/>
-      <c r="E158" s="51"/>
+      <c r="E158" s="60"/>
       <c r="F158" s="47"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="54"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="63"/>
       <c r="I158" s="21"/>
       <c r="J158" s="21"/>
       <c r="K158" s="20"/>
@@ -6050,10 +6088,10 @@
       <c r="B159" s="12"/>
       <c r="C159" s="20"/>
       <c r="D159" s="21"/>
-      <c r="E159" s="51"/>
+      <c r="E159" s="60"/>
       <c r="F159" s="47"/>
-      <c r="G159" s="51"/>
-      <c r="H159" s="54"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="63"/>
       <c r="I159" s="21"/>
       <c r="J159" s="21"/>
       <c r="K159" s="20"/>
@@ -6080,10 +6118,10 @@
       <c r="B160" s="12"/>
       <c r="C160" s="20"/>
       <c r="D160" s="21"/>
-      <c r="E160" s="51"/>
+      <c r="E160" s="60"/>
       <c r="F160" s="47"/>
-      <c r="G160" s="51"/>
-      <c r="H160" s="54"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="63"/>
       <c r="I160" s="21"/>
       <c r="J160" s="21"/>
       <c r="K160" s="20"/>
@@ -6110,10 +6148,10 @@
       <c r="B161" s="12"/>
       <c r="C161" s="20"/>
       <c r="D161" s="21"/>
-      <c r="E161" s="51"/>
+      <c r="E161" s="60"/>
       <c r="F161" s="47"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="54"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="63"/>
       <c r="I161" s="21"/>
       <c r="J161" s="21"/>
       <c r="K161" s="20"/>
@@ -6140,10 +6178,10 @@
       <c r="B162" s="12"/>
       <c r="C162" s="20"/>
       <c r="D162" s="21"/>
-      <c r="E162" s="51"/>
+      <c r="E162" s="60"/>
       <c r="F162" s="47"/>
-      <c r="G162" s="51"/>
-      <c r="H162" s="54"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="63"/>
       <c r="I162" s="21"/>
       <c r="J162" s="21"/>
       <c r="K162" s="20"/>
@@ -6170,10 +6208,10 @@
       <c r="B163" s="12"/>
       <c r="C163" s="20"/>
       <c r="D163" s="21"/>
-      <c r="E163" s="51"/>
+      <c r="E163" s="60"/>
       <c r="F163" s="47"/>
-      <c r="G163" s="51"/>
-      <c r="H163" s="54"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="63"/>
       <c r="I163" s="21"/>
       <c r="J163" s="21"/>
       <c r="K163" s="20"/>
@@ -6200,10 +6238,10 @@
       <c r="B164" s="12"/>
       <c r="C164" s="20"/>
       <c r="D164" s="21"/>
-      <c r="E164" s="51"/>
+      <c r="E164" s="60"/>
       <c r="F164" s="47"/>
-      <c r="G164" s="51"/>
-      <c r="H164" s="54"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="63"/>
       <c r="I164" s="21"/>
       <c r="J164" s="21"/>
       <c r="K164" s="20"/>
@@ -6230,10 +6268,10 @@
       <c r="B165" s="12"/>
       <c r="C165" s="20"/>
       <c r="D165" s="21"/>
-      <c r="E165" s="51"/>
+      <c r="E165" s="60"/>
       <c r="F165" s="47"/>
-      <c r="G165" s="51"/>
-      <c r="H165" s="54"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="63"/>
       <c r="I165" s="21"/>
       <c r="J165" s="21"/>
       <c r="K165" s="20"/>
@@ -6260,10 +6298,10 @@
       <c r="B166" s="12"/>
       <c r="C166" s="20"/>
       <c r="D166" s="21"/>
-      <c r="E166" s="51"/>
+      <c r="E166" s="60"/>
       <c r="F166" s="47"/>
-      <c r="G166" s="51"/>
-      <c r="H166" s="54"/>
+      <c r="G166" s="60"/>
+      <c r="H166" s="63"/>
       <c r="I166" s="21"/>
       <c r="J166" s="21"/>
       <c r="K166" s="20"/>
@@ -6290,10 +6328,10 @@
       <c r="B167" s="12"/>
       <c r="C167" s="20"/>
       <c r="D167" s="21"/>
-      <c r="E167" s="51"/>
+      <c r="E167" s="60"/>
       <c r="F167" s="47"/>
-      <c r="G167" s="51"/>
-      <c r="H167" s="54"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="63"/>
       <c r="I167" s="21"/>
       <c r="J167" s="21"/>
       <c r="K167" s="20"/>
@@ -6320,10 +6358,10 @@
       <c r="B168" s="12"/>
       <c r="C168" s="20"/>
       <c r="D168" s="21"/>
-      <c r="E168" s="51"/>
+      <c r="E168" s="60"/>
       <c r="F168" s="47"/>
-      <c r="G168" s="51"/>
-      <c r="H168" s="54"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="63"/>
       <c r="I168" s="21"/>
       <c r="J168" s="21"/>
       <c r="K168" s="20"/>
@@ -6350,10 +6388,10 @@
       <c r="B169" s="12"/>
       <c r="C169" s="20"/>
       <c r="D169" s="21"/>
-      <c r="E169" s="51"/>
+      <c r="E169" s="60"/>
       <c r="F169" s="47"/>
-      <c r="G169" s="51"/>
-      <c r="H169" s="54"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="63"/>
       <c r="I169" s="21"/>
       <c r="J169" s="21"/>
       <c r="K169" s="20"/>
@@ -6380,10 +6418,10 @@
       <c r="B170" s="12"/>
       <c r="C170" s="20"/>
       <c r="D170" s="21"/>
-      <c r="E170" s="51"/>
+      <c r="E170" s="60"/>
       <c r="F170" s="47"/>
-      <c r="G170" s="51"/>
-      <c r="H170" s="54"/>
+      <c r="G170" s="60"/>
+      <c r="H170" s="63"/>
       <c r="I170" s="21"/>
       <c r="J170" s="21"/>
       <c r="K170" s="20"/>
@@ -6410,10 +6448,10 @@
       <c r="B171" s="12"/>
       <c r="C171" s="20"/>
       <c r="D171" s="21"/>
-      <c r="E171" s="51"/>
+      <c r="E171" s="60"/>
       <c r="F171" s="47"/>
-      <c r="G171" s="51"/>
-      <c r="H171" s="54"/>
+      <c r="G171" s="60"/>
+      <c r="H171" s="63"/>
       <c r="I171" s="21"/>
       <c r="J171" s="21"/>
       <c r="K171" s="20"/>
@@ -6440,10 +6478,10 @@
       <c r="B172" s="12"/>
       <c r="C172" s="20"/>
       <c r="D172" s="21"/>
-      <c r="E172" s="51"/>
+      <c r="E172" s="60"/>
       <c r="F172" s="47"/>
-      <c r="G172" s="51"/>
-      <c r="H172" s="54"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="63"/>
       <c r="I172" s="21"/>
       <c r="J172" s="21"/>
       <c r="K172" s="20"/>
@@ -6470,10 +6508,10 @@
       <c r="B173" s="12"/>
       <c r="C173" s="20"/>
       <c r="D173" s="21"/>
-      <c r="E173" s="51"/>
+      <c r="E173" s="60"/>
       <c r="F173" s="47"/>
-      <c r="G173" s="51"/>
-      <c r="H173" s="54"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="63"/>
       <c r="I173" s="21"/>
       <c r="J173" s="21"/>
       <c r="K173" s="20"/>
@@ -6500,10 +6538,10 @@
       <c r="B174" s="12"/>
       <c r="C174" s="20"/>
       <c r="D174" s="21"/>
-      <c r="E174" s="51"/>
+      <c r="E174" s="60"/>
       <c r="F174" s="47"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="54"/>
+      <c r="G174" s="60"/>
+      <c r="H174" s="63"/>
       <c r="I174" s="21"/>
       <c r="J174" s="21"/>
       <c r="K174" s="20"/>
@@ -6530,10 +6568,10 @@
       <c r="B175" s="12"/>
       <c r="C175" s="20"/>
       <c r="D175" s="21"/>
-      <c r="E175" s="51"/>
+      <c r="E175" s="60"/>
       <c r="F175" s="47"/>
-      <c r="G175" s="51"/>
-      <c r="H175" s="54"/>
+      <c r="G175" s="60"/>
+      <c r="H175" s="63"/>
       <c r="I175" s="21"/>
       <c r="J175" s="21"/>
       <c r="K175" s="20"/>
@@ -6560,10 +6598,10 @@
       <c r="B176" s="12"/>
       <c r="C176" s="20"/>
       <c r="D176" s="21"/>
-      <c r="E176" s="51"/>
+      <c r="E176" s="60"/>
       <c r="F176" s="47"/>
-      <c r="G176" s="51"/>
-      <c r="H176" s="54"/>
+      <c r="G176" s="60"/>
+      <c r="H176" s="63"/>
       <c r="I176" s="21"/>
       <c r="J176" s="21"/>
       <c r="K176" s="20"/>
@@ -6590,10 +6628,10 @@
       <c r="B177" s="12"/>
       <c r="C177" s="20"/>
       <c r="D177" s="21"/>
-      <c r="E177" s="51"/>
+      <c r="E177" s="60"/>
       <c r="F177" s="47"/>
-      <c r="G177" s="51"/>
-      <c r="H177" s="54"/>
+      <c r="G177" s="60"/>
+      <c r="H177" s="63"/>
       <c r="I177" s="21"/>
       <c r="J177" s="21"/>
       <c r="K177" s="20"/>
@@ -6620,10 +6658,10 @@
       <c r="B178" s="12"/>
       <c r="C178" s="20"/>
       <c r="D178" s="21"/>
-      <c r="E178" s="51"/>
+      <c r="E178" s="60"/>
       <c r="F178" s="47"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="54"/>
+      <c r="G178" s="60"/>
+      <c r="H178" s="63"/>
       <c r="I178" s="21"/>
       <c r="J178" s="21"/>
       <c r="K178" s="20"/>
@@ -6650,10 +6688,10 @@
       <c r="B179" s="12"/>
       <c r="C179" s="20"/>
       <c r="D179" s="21"/>
-      <c r="E179" s="51"/>
+      <c r="E179" s="60"/>
       <c r="F179" s="47"/>
-      <c r="G179" s="51"/>
-      <c r="H179" s="54"/>
+      <c r="G179" s="60"/>
+      <c r="H179" s="63"/>
       <c r="I179" s="21"/>
       <c r="J179" s="21"/>
       <c r="K179" s="20"/>
@@ -6680,10 +6718,10 @@
       <c r="B180" s="12"/>
       <c r="C180" s="20"/>
       <c r="D180" s="21"/>
-      <c r="E180" s="51"/>
+      <c r="E180" s="60"/>
       <c r="F180" s="47"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="54"/>
+      <c r="G180" s="60"/>
+      <c r="H180" s="63"/>
       <c r="I180" s="21"/>
       <c r="J180" s="21"/>
       <c r="K180" s="20"/>
@@ -6710,10 +6748,10 @@
       <c r="B181" s="12"/>
       <c r="C181" s="20"/>
       <c r="D181" s="21"/>
-      <c r="E181" s="51"/>
+      <c r="E181" s="60"/>
       <c r="F181" s="47"/>
-      <c r="G181" s="51"/>
-      <c r="H181" s="54"/>
+      <c r="G181" s="60"/>
+      <c r="H181" s="63"/>
       <c r="I181" s="21"/>
       <c r="J181" s="21"/>
       <c r="K181" s="20"/>
@@ -6740,10 +6778,10 @@
       <c r="B182" s="12"/>
       <c r="C182" s="20"/>
       <c r="D182" s="21"/>
-      <c r="E182" s="51"/>
+      <c r="E182" s="60"/>
       <c r="F182" s="47"/>
-      <c r="G182" s="51"/>
-      <c r="H182" s="54"/>
+      <c r="G182" s="60"/>
+      <c r="H182" s="63"/>
       <c r="I182" s="21"/>
       <c r="J182" s="21"/>
       <c r="K182" s="20"/>
@@ -6770,10 +6808,10 @@
       <c r="B183" s="12"/>
       <c r="C183" s="20"/>
       <c r="D183" s="21"/>
-      <c r="E183" s="51"/>
+      <c r="E183" s="60"/>
       <c r="F183" s="47"/>
-      <c r="G183" s="51"/>
-      <c r="H183" s="54"/>
+      <c r="G183" s="60"/>
+      <c r="H183" s="63"/>
       <c r="I183" s="21"/>
       <c r="J183" s="21"/>
       <c r="K183" s="20"/>
@@ -6800,10 +6838,10 @@
       <c r="B184" s="12"/>
       <c r="C184" s="20"/>
       <c r="D184" s="21"/>
-      <c r="E184" s="51"/>
+      <c r="E184" s="60"/>
       <c r="F184" s="47"/>
-      <c r="G184" s="51"/>
-      <c r="H184" s="54"/>
+      <c r="G184" s="60"/>
+      <c r="H184" s="63"/>
       <c r="I184" s="21"/>
       <c r="J184" s="21"/>
       <c r="K184" s="20"/>
@@ -6830,10 +6868,10 @@
       <c r="B185" s="12"/>
       <c r="C185" s="20"/>
       <c r="D185" s="21"/>
-      <c r="E185" s="51"/>
+      <c r="E185" s="60"/>
       <c r="F185" s="47"/>
-      <c r="G185" s="51"/>
-      <c r="H185" s="54"/>
+      <c r="G185" s="60"/>
+      <c r="H185" s="63"/>
       <c r="I185" s="21"/>
       <c r="J185" s="21"/>
       <c r="K185" s="20"/>
@@ -6860,10 +6898,10 @@
       <c r="B186" s="12"/>
       <c r="C186" s="20"/>
       <c r="D186" s="21"/>
-      <c r="E186" s="51"/>
+      <c r="E186" s="60"/>
       <c r="F186" s="47"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="54"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="63"/>
       <c r="I186" s="21"/>
       <c r="J186" s="21"/>
       <c r="K186" s="20"/>
@@ -6890,10 +6928,10 @@
       <c r="B187" s="12"/>
       <c r="C187" s="20"/>
       <c r="D187" s="21"/>
-      <c r="E187" s="51"/>
+      <c r="E187" s="60"/>
       <c r="F187" s="47"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="54"/>
+      <c r="G187" s="60"/>
+      <c r="H187" s="63"/>
       <c r="I187" s="21"/>
       <c r="J187" s="21"/>
       <c r="K187" s="20"/>
@@ -6920,10 +6958,10 @@
       <c r="B188" s="12"/>
       <c r="C188" s="20"/>
       <c r="D188" s="21"/>
-      <c r="E188" s="51"/>
+      <c r="E188" s="60"/>
       <c r="F188" s="47"/>
-      <c r="G188" s="51"/>
-      <c r="H188" s="54"/>
+      <c r="G188" s="60"/>
+      <c r="H188" s="63"/>
       <c r="I188" s="21"/>
       <c r="J188" s="21"/>
       <c r="K188" s="20"/>
@@ -6950,10 +6988,10 @@
       <c r="B189" s="12"/>
       <c r="C189" s="20"/>
       <c r="D189" s="21"/>
-      <c r="E189" s="51"/>
+      <c r="E189" s="60"/>
       <c r="F189" s="47"/>
-      <c r="G189" s="51"/>
-      <c r="H189" s="54"/>
+      <c r="G189" s="60"/>
+      <c r="H189" s="63"/>
       <c r="I189" s="21"/>
       <c r="J189" s="21"/>
       <c r="K189" s="20"/>
@@ -6980,10 +7018,10 @@
       <c r="B190" s="12"/>
       <c r="C190" s="20"/>
       <c r="D190" s="21"/>
-      <c r="E190" s="51"/>
+      <c r="E190" s="60"/>
       <c r="F190" s="47"/>
-      <c r="G190" s="51"/>
-      <c r="H190" s="54"/>
+      <c r="G190" s="60"/>
+      <c r="H190" s="63"/>
       <c r="I190" s="21"/>
       <c r="J190" s="21"/>
       <c r="K190" s="20"/>
@@ -7010,10 +7048,10 @@
       <c r="B191" s="12"/>
       <c r="C191" s="20"/>
       <c r="D191" s="21"/>
-      <c r="E191" s="51"/>
+      <c r="E191" s="60"/>
       <c r="F191" s="47"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="54"/>
+      <c r="G191" s="60"/>
+      <c r="H191" s="63"/>
       <c r="I191" s="21"/>
       <c r="J191" s="21"/>
       <c r="K191" s="20"/>
@@ -7040,10 +7078,10 @@
       <c r="B192" s="12"/>
       <c r="C192" s="20"/>
       <c r="D192" s="21"/>
-      <c r="E192" s="51"/>
+      <c r="E192" s="60"/>
       <c r="F192" s="47"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="54"/>
+      <c r="G192" s="60"/>
+      <c r="H192" s="63"/>
       <c r="I192" s="21"/>
       <c r="J192" s="21"/>
       <c r="K192" s="20"/>
@@ -7070,10 +7108,10 @@
       <c r="B193" s="12"/>
       <c r="C193" s="20"/>
       <c r="D193" s="21"/>
-      <c r="E193" s="51"/>
+      <c r="E193" s="60"/>
       <c r="F193" s="47"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="54"/>
+      <c r="G193" s="60"/>
+      <c r="H193" s="63"/>
       <c r="I193" s="21"/>
       <c r="J193" s="21"/>
       <c r="K193" s="20"/>
@@ -7100,10 +7138,10 @@
       <c r="B194" s="12"/>
       <c r="C194" s="20"/>
       <c r="D194" s="21"/>
-      <c r="E194" s="51"/>
+      <c r="E194" s="60"/>
       <c r="F194" s="47"/>
-      <c r="G194" s="51"/>
-      <c r="H194" s="54"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="63"/>
       <c r="I194" s="21"/>
       <c r="J194" s="21"/>
       <c r="K194" s="20"/>
@@ -7130,10 +7168,10 @@
       <c r="B195" s="12"/>
       <c r="C195" s="20"/>
       <c r="D195" s="21"/>
-      <c r="E195" s="51"/>
+      <c r="E195" s="60"/>
       <c r="F195" s="47"/>
-      <c r="G195" s="51"/>
-      <c r="H195" s="54"/>
+      <c r="G195" s="60"/>
+      <c r="H195" s="63"/>
       <c r="I195" s="21"/>
       <c r="J195" s="21"/>
       <c r="K195" s="20"/>
@@ -7160,10 +7198,10 @@
       <c r="B196" s="12"/>
       <c r="C196" s="20"/>
       <c r="D196" s="21"/>
-      <c r="E196" s="51"/>
+      <c r="E196" s="60"/>
       <c r="F196" s="47"/>
-      <c r="G196" s="51"/>
-      <c r="H196" s="54"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="63"/>
       <c r="I196" s="21"/>
       <c r="J196" s="21"/>
       <c r="K196" s="20"/>
@@ -7190,10 +7228,10 @@
       <c r="B197" s="12"/>
       <c r="C197" s="20"/>
       <c r="D197" s="21"/>
-      <c r="E197" s="51"/>
+      <c r="E197" s="60"/>
       <c r="F197" s="47"/>
-      <c r="G197" s="51"/>
-      <c r="H197" s="54"/>
+      <c r="G197" s="60"/>
+      <c r="H197" s="63"/>
       <c r="I197" s="21"/>
       <c r="J197" s="21"/>
       <c r="K197" s="20"/>
@@ -7220,10 +7258,10 @@
       <c r="B198" s="12"/>
       <c r="C198" s="20"/>
       <c r="D198" s="21"/>
-      <c r="E198" s="51"/>
+      <c r="E198" s="60"/>
       <c r="F198" s="47"/>
-      <c r="G198" s="51"/>
-      <c r="H198" s="54"/>
+      <c r="G198" s="60"/>
+      <c r="H198" s="63"/>
       <c r="I198" s="21"/>
       <c r="J198" s="21"/>
       <c r="K198" s="20"/>
@@ -7250,10 +7288,10 @@
       <c r="B199" s="12"/>
       <c r="C199" s="20"/>
       <c r="D199" s="21"/>
-      <c r="E199" s="51"/>
+      <c r="E199" s="60"/>
       <c r="F199" s="47"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="54"/>
+      <c r="G199" s="60"/>
+      <c r="H199" s="63"/>
       <c r="I199" s="21"/>
       <c r="J199" s="21"/>
       <c r="K199" s="20"/>
@@ -7280,10 +7318,10 @@
       <c r="B200" s="12"/>
       <c r="C200" s="20"/>
       <c r="D200" s="21"/>
-      <c r="E200" s="51"/>
+      <c r="E200" s="60"/>
       <c r="F200" s="47"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="54"/>
+      <c r="G200" s="60"/>
+      <c r="H200" s="63"/>
       <c r="I200" s="21"/>
       <c r="J200" s="21"/>
       <c r="K200" s="20"/>
@@ -7310,10 +7348,10 @@
       <c r="B201" s="12"/>
       <c r="C201" s="20"/>
       <c r="D201" s="21"/>
-      <c r="E201" s="51"/>
+      <c r="E201" s="60"/>
       <c r="F201" s="47"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="54"/>
+      <c r="G201" s="60"/>
+      <c r="H201" s="63"/>
       <c r="I201" s="21"/>
       <c r="J201" s="21"/>
       <c r="K201" s="20"/>
@@ -7340,10 +7378,10 @@
       <c r="B202" s="12"/>
       <c r="C202" s="20"/>
       <c r="D202" s="21"/>
-      <c r="E202" s="51"/>
+      <c r="E202" s="60"/>
       <c r="F202" s="47"/>
-      <c r="G202" s="51"/>
-      <c r="H202" s="54"/>
+      <c r="G202" s="60"/>
+      <c r="H202" s="63"/>
       <c r="I202" s="21"/>
       <c r="J202" s="21"/>
       <c r="K202" s="20"/>
@@ -7370,10 +7408,10 @@
       <c r="B203" s="12"/>
       <c r="C203" s="20"/>
       <c r="D203" s="21"/>
-      <c r="E203" s="51"/>
+      <c r="E203" s="60"/>
       <c r="F203" s="47"/>
-      <c r="G203" s="51"/>
-      <c r="H203" s="54"/>
+      <c r="G203" s="60"/>
+      <c r="H203" s="63"/>
       <c r="I203" s="21"/>
       <c r="J203" s="21"/>
       <c r="K203" s="20"/>
@@ -7400,10 +7438,10 @@
       <c r="B204" s="12"/>
       <c r="C204" s="20"/>
       <c r="D204" s="21"/>
-      <c r="E204" s="51"/>
+      <c r="E204" s="60"/>
       <c r="F204" s="47"/>
-      <c r="G204" s="51"/>
-      <c r="H204" s="54"/>
+      <c r="G204" s="60"/>
+      <c r="H204" s="63"/>
       <c r="I204" s="21"/>
       <c r="J204" s="21"/>
       <c r="K204" s="20"/>
@@ -7430,10 +7468,10 @@
       <c r="B205" s="12"/>
       <c r="C205" s="20"/>
       <c r="D205" s="21"/>
-      <c r="E205" s="51"/>
+      <c r="E205" s="60"/>
       <c r="F205" s="47"/>
-      <c r="G205" s="51"/>
-      <c r="H205" s="54"/>
+      <c r="G205" s="60"/>
+      <c r="H205" s="63"/>
       <c r="I205" s="21"/>
       <c r="J205" s="21"/>
       <c r="K205" s="20"/>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Definitivo\ecopFront\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1401CBD-80D1-484B-AB5A-CA0575DBBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147AFED7-97A8-4467-A310-7499F308EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>Precio unitario de venta</t>
+  </si>
+  <si>
+    <t>Arroz Roa</t>
+  </si>
+  <si>
+    <t>Arroz Supremo</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1237,7 @@
   <dimension ref="A1:Z689"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1457,14 +1463,30 @@
       <c r="A6" s="44">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="46">
+        <v>100</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="49">
+        <v>1800</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0</v>
+      </c>
+      <c r="G6" s="49">
+        <v>2200</v>
+      </c>
+      <c r="H6" s="52">
+        <v>45656</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="47"/>
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
@@ -1487,15 +1509,33 @@
       <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="46">
+        <v>200</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="49">
+        <v>1750</v>
+      </c>
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>2150</v>
+      </c>
+      <c r="H7" s="52">
+        <v>45656</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>18</v>
+      </c>
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Definitivo\ecopFront\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147AFED7-97A8-4467-A310-7499F308EA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F994557B-9A10-4DE5-A683-18392583C89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="88">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -256,12 +256,6 @@
     <t>Ninguno</t>
   </si>
   <si>
-    <t>Escrube o lee el código de barras. 
-Si no tiene, dejar en blanco
-Ej: 7702552000097
-Ej: 1245679898954</t>
-  </si>
-  <si>
     <t>¿Deseas aumentar de manera automática y periódica tu inventario?
 Ej: Si
 Ej: No</t>
@@ -280,16 +274,6 @@
     <t>¿La materia prima viene empacada?
 Ej: Si
 Ej: No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si respondiste que "SI" viene empacada,  elige el tipo de empaaue de la lista desplegable. Ej: Biodegradable
- Si se respondiste que "No"  viene empacada, dejar en blanco
-</t>
-  </si>
-  <si>
-    <t>¿Cuánta mercancia tienes tienes en inventario?
-Ej: 100
-Ej: 20</t>
   </si>
   <si>
     <t>¿En qué unidad de medida registras tu inventario?
@@ -510,10 +494,20 @@
     <t>Precio unitario de venta</t>
   </si>
   <si>
-    <t>Arroz Roa</t>
+    <t>¿Cuánta mercancia tienes en inventario?
+Ej: 100
+Ej: 20</t>
   </si>
   <si>
-    <t>Arroz Supremo</t>
+    <t xml:space="preserve">Si respondiste que "SI" viene empacada,  elige el tipo de empaque de la lista desplegable. Ej: Biodegradable
+ Si se respondiste que "No"  viene empacada, dejar en blanco
+</t>
+  </si>
+  <si>
+    <t>Escribe o lee el código de barras. 
+Si no tiene, dejar en blanco
+Ej: 7702552000097
+Ej: 1245679898954</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1231,7 @@
   <dimension ref="A1:Z689"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1315,7 @@
     </row>
     <row r="3" spans="1:26" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="62"/>
@@ -1367,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H4" s="31" t="s">
         <v>69</v>
@@ -1411,40 +1405,40 @@
         <v>71</v>
       </c>
       <c r="C5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>81</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>84</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="M5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="N5" s="43" t="s">
         <v>77</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>78</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1463,30 +1457,14 @@
       <c r="A6" s="44">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="46">
-        <v>100</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="49">
-        <v>1800</v>
-      </c>
-      <c r="F6" s="47">
-        <v>0</v>
-      </c>
-      <c r="G6" s="49">
-        <v>2200</v>
-      </c>
-      <c r="H6" s="52">
-        <v>45656</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>23</v>
-      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="47"/>
       <c r="K6" s="46"/>
       <c r="L6" s="47"/>
@@ -1509,33 +1487,15 @@
       <c r="A7" s="36">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="46">
-        <v>200</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="49">
-        <v>1750</v>
-      </c>
-      <c r="F7" s="47">
-        <v>0</v>
-      </c>
-      <c r="G7" s="49">
-        <v>2150</v>
-      </c>
-      <c r="H7" s="52">
-        <v>45656</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="47" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="46"/>
       <c r="L7" s="47"/>
       <c r="M7" s="47"/>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97E6F78-7389-4B6B-A6D7-3A171E21EEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F08C241-BD8D-4ED2-A4E5-19348898F96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,15 +824,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -853,6 +844,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1127,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1147,24 +1147,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1179,24 +1179,24 @@
       <c r="AB1" s="5"/>
     </row>
     <row r="2" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -1211,24 +1211,24 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -22362,13 +22362,13 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="67" customWidth="1"/>
     <col min="3" max="3" width="20" style="35" customWidth="1"/>
     <col min="4" max="4" width="20" style="37" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
@@ -22381,7 +22381,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="32" t="s">
@@ -22412,7 +22412,7 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="33" t="s">
@@ -22442,7 +22442,7 @@
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="62" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="34">
@@ -22472,7 +22472,7 @@
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="34">
@@ -22502,7 +22502,7 @@
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="62" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="34">
@@ -22529,7 +22529,7 @@
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="52" t="s">
@@ -22547,7 +22547,7 @@
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="52" t="s">
@@ -22565,7 +22565,7 @@
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="63" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="25">
@@ -22581,7 +22581,7 @@
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="25">
@@ -22596,7 +22596,7 @@
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="65" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="25">
@@ -22608,7 +22608,7 @@
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="66" t="s">
         <v>66</v>
       </c>
       <c r="F11" s="25">
@@ -22620,7 +22620,7 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="65" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="25">
@@ -22630,7 +22630,7 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="66" t="s">
         <v>67</v>
       </c>
       <c r="F13" s="25">
@@ -22639,7 +22639,7 @@
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="66" t="s">
         <v>68</v>
       </c>
       <c r="F14" s="25">
@@ -22648,7 +22648,7 @@
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="65" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="25">
@@ -22657,7 +22657,7 @@
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="65" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="25">
@@ -22666,7 +22666,7 @@
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="65" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="25">
@@ -22675,7 +22675,7 @@
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="65" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="25">
@@ -22684,7 +22684,7 @@
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="65" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="25">
@@ -22693,7 +22693,7 @@
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="65" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="25">
@@ -22702,7 +22702,7 @@
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="65" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="36"/>
@@ -22711,7 +22711,7 @@
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="65" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="46"/>
@@ -22719,7 +22719,7 @@
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="63" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="46"/>
@@ -22727,7 +22727,7 @@
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="63" t="s">
         <v>24</v>
       </c>
       <c r="G24" s="46"/>
@@ -22735,7 +22735,7 @@
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="63" t="s">
         <v>25</v>
       </c>
       <c r="G25" s="46"/>
@@ -22743,7 +22743,7 @@
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="63" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="46"/>
@@ -22751,7 +22751,7 @@
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="63" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="46"/>
@@ -22759,7 +22759,7 @@
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="63" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="46"/>
@@ -22767,7 +22767,7 @@
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="46"/>
@@ -22775,14 +22775,14 @@
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="63" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="63" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="46"/>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F08C241-BD8D-4ED2-A4E5-19348898F96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC40AD-2808-4414-996E-5AFC22A47200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
     <sheet name="Lista desplegable " sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -380,6 +381,9 @@
   <si>
     <t>Frasco</t>
   </si>
+  <si>
+    <t>Botella</t>
+  </si>
 </sst>
 </file>
 
@@ -650,7 +654,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,6 +857,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1128,7 +1135,7 @@
   <dimension ref="A1:AB689"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1387,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="59"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
@@ -1412,7 +1419,7 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="59"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="5"/>
@@ -1444,7 +1451,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="59"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="5"/>
@@ -1476,7 +1483,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="59"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="5"/>
@@ -1508,7 +1515,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="59"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="5"/>
@@ -1540,7 +1547,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="59"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="5"/>
@@ -1572,7 +1579,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="59"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="5"/>
@@ -1604,7 +1611,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="59"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="5"/>
@@ -1636,7 +1643,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="59"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="5"/>
@@ -1668,7 +1675,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="59"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="5"/>
@@ -1700,7 +1707,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="59"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="5"/>
@@ -1732,7 +1739,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="59"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="5"/>
@@ -1764,7 +1771,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="N18" s="71"/>
       <c r="O18" s="59"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="5"/>
@@ -1796,7 +1803,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="N19" s="71"/>
       <c r="O19" s="59"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="5"/>
@@ -1828,7 +1835,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="59"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="5"/>
@@ -1860,7 +1867,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="N21" s="71"/>
       <c r="O21" s="59"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="5"/>
@@ -1892,7 +1899,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="N22" s="71"/>
       <c r="O22" s="59"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="5"/>
@@ -1924,7 +1931,7 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="N23" s="71"/>
       <c r="O23" s="59"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="5"/>
@@ -1956,7 +1963,7 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="71"/>
       <c r="O24" s="59"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
@@ -1988,7 +1995,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="N25" s="71"/>
       <c r="O25" s="59"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="5"/>
@@ -2020,7 +2027,7 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="N26" s="71"/>
       <c r="O26" s="59"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="5"/>
@@ -2052,7 +2059,7 @@
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="N27" s="71"/>
       <c r="O27" s="59"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="5"/>
@@ -2084,7 +2091,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="N28" s="71"/>
       <c r="O28" s="59"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="5"/>
@@ -2116,7 +2123,7 @@
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+      <c r="N29" s="71"/>
       <c r="O29" s="59"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="5"/>
@@ -2148,7 +2155,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="N30" s="71"/>
       <c r="O30" s="59"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="5"/>
@@ -2180,7 +2187,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="N31" s="71"/>
       <c r="O31" s="59"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="5"/>
@@ -2212,7 +2219,7 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
+      <c r="N32" s="71"/>
       <c r="O32" s="59"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="5"/>
@@ -2244,7 +2251,7 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="59"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="5"/>
@@ -2276,7 +2283,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
+      <c r="N34" s="71"/>
       <c r="O34" s="59"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="5"/>
@@ -2308,7 +2315,7 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
+      <c r="N35" s="71"/>
       <c r="O35" s="59"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="5"/>
@@ -2340,7 +2347,7 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
+      <c r="N36" s="71"/>
       <c r="O36" s="59"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="5"/>
@@ -2372,7 +2379,7 @@
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+      <c r="N37" s="71"/>
       <c r="O37" s="59"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="5"/>
@@ -2404,7 +2411,7 @@
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
+      <c r="N38" s="71"/>
       <c r="O38" s="59"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="5"/>
@@ -2436,7 +2443,7 @@
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="59"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="5"/>
@@ -2468,7 +2475,7 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="59"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="5"/>
@@ -2500,7 +2507,7 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
+      <c r="N41" s="71"/>
       <c r="O41" s="59"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="5"/>
@@ -2532,7 +2539,7 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="59"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="5"/>
@@ -2564,7 +2571,7 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="59"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="5"/>
@@ -2596,7 +2603,7 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
+      <c r="N44" s="71"/>
       <c r="O44" s="59"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="5"/>
@@ -2628,7 +2635,7 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
+      <c r="N45" s="71"/>
       <c r="O45" s="59"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="5"/>
@@ -2660,7 +2667,7 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
+      <c r="N46" s="71"/>
       <c r="O46" s="59"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="5"/>
@@ -2692,7 +2699,7 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
+      <c r="N47" s="71"/>
       <c r="O47" s="59"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="5"/>
@@ -2724,7 +2731,7 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
+      <c r="N48" s="71"/>
       <c r="O48" s="59"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="5"/>
@@ -2756,7 +2763,7 @@
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
+      <c r="N49" s="71"/>
       <c r="O49" s="59"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="5"/>
@@ -2788,7 +2795,7 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
+      <c r="N50" s="71"/>
       <c r="O50" s="59"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="5"/>
@@ -2820,7 +2827,7 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
+      <c r="N51" s="71"/>
       <c r="O51" s="59"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="5"/>
@@ -2852,7 +2859,7 @@
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
+      <c r="N52" s="71"/>
       <c r="O52" s="59"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="5"/>
@@ -2884,7 +2891,7 @@
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
+      <c r="N53" s="71"/>
       <c r="O53" s="59"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="5"/>
@@ -2916,7 +2923,7 @@
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
+      <c r="N54" s="71"/>
       <c r="O54" s="59"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="5"/>
@@ -2948,7 +2955,7 @@
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
+      <c r="N55" s="71"/>
       <c r="O55" s="59"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="5"/>
@@ -2980,7 +2987,7 @@
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
+      <c r="N56" s="71"/>
       <c r="O56" s="59"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="5"/>
@@ -3012,7 +3019,7 @@
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
+      <c r="N57" s="71"/>
       <c r="O57" s="59"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="5"/>
@@ -3044,7 +3051,7 @@
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
+      <c r="N58" s="71"/>
       <c r="O58" s="59"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="5"/>
@@ -3076,7 +3083,7 @@
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
+      <c r="N59" s="71"/>
       <c r="O59" s="59"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="5"/>
@@ -3108,7 +3115,7 @@
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
+      <c r="N60" s="71"/>
       <c r="O60" s="59"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="5"/>
@@ -3140,7 +3147,7 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
+      <c r="N61" s="71"/>
       <c r="O61" s="59"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="5"/>
@@ -3172,7 +3179,7 @@
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
+      <c r="N62" s="71"/>
       <c r="O62" s="59"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="5"/>
@@ -3204,7 +3211,7 @@
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
+      <c r="N63" s="71"/>
       <c r="O63" s="59"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="5"/>
@@ -3236,7 +3243,7 @@
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
+      <c r="N64" s="71"/>
       <c r="O64" s="59"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="5"/>
@@ -3268,7 +3275,7 @@
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
+      <c r="N65" s="71"/>
       <c r="O65" s="59"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="5"/>
@@ -3300,7 +3307,7 @@
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
+      <c r="N66" s="71"/>
       <c r="O66" s="59"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="5"/>
@@ -3332,7 +3339,7 @@
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
+      <c r="N67" s="71"/>
       <c r="O67" s="59"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="5"/>
@@ -3364,7 +3371,7 @@
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
+      <c r="N68" s="71"/>
       <c r="O68" s="59"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="5"/>
@@ -3396,7 +3403,7 @@
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
+      <c r="N69" s="71"/>
       <c r="O69" s="59"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="5"/>
@@ -3428,7 +3435,7 @@
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
-      <c r="N70" s="21"/>
+      <c r="N70" s="71"/>
       <c r="O70" s="59"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="5"/>
@@ -3460,7 +3467,7 @@
       <c r="K71" s="21"/>
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
-      <c r="N71" s="21"/>
+      <c r="N71" s="71"/>
       <c r="O71" s="59"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="5"/>
@@ -3492,7 +3499,7 @@
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
+      <c r="N72" s="71"/>
       <c r="O72" s="59"/>
       <c r="P72" s="21"/>
       <c r="Q72" s="5"/>
@@ -3524,7 +3531,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
+      <c r="N73" s="71"/>
       <c r="O73" s="59"/>
       <c r="P73" s="21"/>
       <c r="Q73" s="5"/>
@@ -3556,7 +3563,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
+      <c r="N74" s="71"/>
       <c r="O74" s="59"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="5"/>
@@ -3588,7 +3595,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
+      <c r="N75" s="71"/>
       <c r="O75" s="59"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="5"/>
@@ -3620,7 +3627,7 @@
       <c r="K76" s="21"/>
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
+      <c r="N76" s="71"/>
       <c r="O76" s="59"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="5"/>
@@ -3652,7 +3659,7 @@
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
       <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
+      <c r="N77" s="71"/>
       <c r="O77" s="59"/>
       <c r="P77" s="21"/>
       <c r="Q77" s="5"/>
@@ -3684,7 +3691,7 @@
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
+      <c r="N78" s="71"/>
       <c r="O78" s="59"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="5"/>
@@ -3716,7 +3723,7 @@
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
+      <c r="N79" s="71"/>
       <c r="O79" s="59"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="5"/>
@@ -3748,7 +3755,7 @@
       <c r="K80" s="21"/>
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
-      <c r="N80" s="21"/>
+      <c r="N80" s="71"/>
       <c r="O80" s="59"/>
       <c r="P80" s="21"/>
       <c r="Q80" s="5"/>
@@ -3780,7 +3787,7 @@
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
-      <c r="N81" s="21"/>
+      <c r="N81" s="71"/>
       <c r="O81" s="59"/>
       <c r="P81" s="21"/>
       <c r="Q81" s="5"/>
@@ -3812,7 +3819,7 @@
       <c r="K82" s="21"/>
       <c r="L82" s="21"/>
       <c r="M82" s="21"/>
-      <c r="N82" s="21"/>
+      <c r="N82" s="71"/>
       <c r="O82" s="59"/>
       <c r="P82" s="21"/>
       <c r="Q82" s="5"/>
@@ -3844,7 +3851,7 @@
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
       <c r="M83" s="21"/>
-      <c r="N83" s="21"/>
+      <c r="N83" s="71"/>
       <c r="O83" s="59"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="5"/>
@@ -3876,7 +3883,7 @@
       <c r="K84" s="21"/>
       <c r="L84" s="21"/>
       <c r="M84" s="21"/>
-      <c r="N84" s="21"/>
+      <c r="N84" s="71"/>
       <c r="O84" s="59"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="5"/>
@@ -3908,7 +3915,7 @@
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
       <c r="M85" s="21"/>
-      <c r="N85" s="21"/>
+      <c r="N85" s="71"/>
       <c r="O85" s="59"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="5"/>
@@ -3940,7 +3947,7 @@
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
       <c r="M86" s="21"/>
-      <c r="N86" s="21"/>
+      <c r="N86" s="71"/>
       <c r="O86" s="59"/>
       <c r="P86" s="21"/>
       <c r="Q86" s="5"/>
@@ -3972,7 +3979,7 @@
       <c r="K87" s="21"/>
       <c r="L87" s="21"/>
       <c r="M87" s="21"/>
-      <c r="N87" s="21"/>
+      <c r="N87" s="71"/>
       <c r="O87" s="59"/>
       <c r="P87" s="21"/>
       <c r="Q87" s="5"/>
@@ -4004,7 +4011,7 @@
       <c r="K88" s="21"/>
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
+      <c r="N88" s="71"/>
       <c r="O88" s="59"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="5"/>
@@ -4036,7 +4043,7 @@
       <c r="K89" s="21"/>
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
+      <c r="N89" s="71"/>
       <c r="O89" s="59"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="5"/>
@@ -4068,7 +4075,7 @@
       <c r="K90" s="21"/>
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
-      <c r="N90" s="21"/>
+      <c r="N90" s="71"/>
       <c r="O90" s="59"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="5"/>
@@ -4100,7 +4107,7 @@
       <c r="K91" s="21"/>
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
-      <c r="N91" s="21"/>
+      <c r="N91" s="71"/>
       <c r="O91" s="59"/>
       <c r="P91" s="21"/>
       <c r="Q91" s="5"/>
@@ -4132,7 +4139,7 @@
       <c r="K92" s="21"/>
       <c r="L92" s="21"/>
       <c r="M92" s="21"/>
-      <c r="N92" s="21"/>
+      <c r="N92" s="71"/>
       <c r="O92" s="59"/>
       <c r="P92" s="21"/>
       <c r="Q92" s="5"/>
@@ -4164,7 +4171,7 @@
       <c r="K93" s="21"/>
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
-      <c r="N93" s="21"/>
+      <c r="N93" s="71"/>
       <c r="O93" s="59"/>
       <c r="P93" s="21"/>
       <c r="Q93" s="5"/>
@@ -4196,7 +4203,7 @@
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
       <c r="M94" s="21"/>
-      <c r="N94" s="21"/>
+      <c r="N94" s="71"/>
       <c r="O94" s="59"/>
       <c r="P94" s="21"/>
       <c r="Q94" s="5"/>
@@ -4228,7 +4235,7 @@
       <c r="K95" s="21"/>
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
-      <c r="N95" s="21"/>
+      <c r="N95" s="71"/>
       <c r="O95" s="59"/>
       <c r="P95" s="21"/>
       <c r="Q95" s="5"/>
@@ -4260,7 +4267,7 @@
       <c r="K96" s="21"/>
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
-      <c r="N96" s="21"/>
+      <c r="N96" s="71"/>
       <c r="O96" s="59"/>
       <c r="P96" s="21"/>
       <c r="Q96" s="5"/>
@@ -4292,7 +4299,7 @@
       <c r="K97" s="21"/>
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
-      <c r="N97" s="21"/>
+      <c r="N97" s="71"/>
       <c r="O97" s="59"/>
       <c r="P97" s="21"/>
       <c r="Q97" s="5"/>
@@ -4324,7 +4331,7 @@
       <c r="K98" s="21"/>
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
-      <c r="N98" s="21"/>
+      <c r="N98" s="71"/>
       <c r="O98" s="59"/>
       <c r="P98" s="21"/>
       <c r="Q98" s="5"/>
@@ -4356,7 +4363,7 @@
       <c r="K99" s="21"/>
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
-      <c r="N99" s="21"/>
+      <c r="N99" s="71"/>
       <c r="O99" s="59"/>
       <c r="P99" s="21"/>
       <c r="Q99" s="5"/>
@@ -4388,7 +4395,7 @@
       <c r="K100" s="21"/>
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
-      <c r="N100" s="21"/>
+      <c r="N100" s="71"/>
       <c r="O100" s="59"/>
       <c r="P100" s="21"/>
       <c r="Q100" s="5"/>
@@ -4420,7 +4427,7 @@
       <c r="K101" s="21"/>
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
-      <c r="N101" s="21"/>
+      <c r="N101" s="71"/>
       <c r="O101" s="59"/>
       <c r="P101" s="21"/>
       <c r="Q101" s="5"/>
@@ -4452,7 +4459,7 @@
       <c r="K102" s="21"/>
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
-      <c r="N102" s="21"/>
+      <c r="N102" s="71"/>
       <c r="O102" s="59"/>
       <c r="P102" s="21"/>
       <c r="Q102" s="5"/>
@@ -4484,7 +4491,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
-      <c r="N103" s="21"/>
+      <c r="N103" s="71"/>
       <c r="O103" s="59"/>
       <c r="P103" s="21"/>
       <c r="Q103" s="5"/>
@@ -4516,7 +4523,7 @@
       <c r="K104" s="21"/>
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
-      <c r="N104" s="21"/>
+      <c r="N104" s="71"/>
       <c r="O104" s="59"/>
       <c r="P104" s="21"/>
       <c r="Q104" s="5"/>
@@ -4548,7 +4555,7 @@
       <c r="K105" s="21"/>
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
-      <c r="N105" s="21"/>
+      <c r="N105" s="71"/>
       <c r="O105" s="59"/>
       <c r="P105" s="21"/>
       <c r="Q105" s="5"/>
@@ -4580,7 +4587,7 @@
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
-      <c r="N106" s="21"/>
+      <c r="N106" s="71"/>
       <c r="O106" s="59"/>
       <c r="P106" s="21"/>
       <c r="Q106" s="5"/>
@@ -4612,7 +4619,7 @@
       <c r="K107" s="21"/>
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
-      <c r="N107" s="21"/>
+      <c r="N107" s="71"/>
       <c r="O107" s="59"/>
       <c r="P107" s="21"/>
       <c r="Q107" s="5"/>
@@ -4644,7 +4651,7 @@
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
-      <c r="N108" s="21"/>
+      <c r="N108" s="71"/>
       <c r="O108" s="59"/>
       <c r="P108" s="21"/>
       <c r="Q108" s="5"/>
@@ -4676,7 +4683,7 @@
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
-      <c r="N109" s="21"/>
+      <c r="N109" s="71"/>
       <c r="O109" s="59"/>
       <c r="P109" s="21"/>
       <c r="Q109" s="5"/>
@@ -4708,7 +4715,7 @@
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
-      <c r="N110" s="21"/>
+      <c r="N110" s="71"/>
       <c r="O110" s="59"/>
       <c r="P110" s="21"/>
       <c r="Q110" s="5"/>
@@ -4740,7 +4747,7 @@
       <c r="K111" s="21"/>
       <c r="L111" s="21"/>
       <c r="M111" s="21"/>
-      <c r="N111" s="21"/>
+      <c r="N111" s="71"/>
       <c r="O111" s="59"/>
       <c r="P111" s="21"/>
       <c r="Q111" s="5"/>
@@ -4772,7 +4779,7 @@
       <c r="K112" s="21"/>
       <c r="L112" s="21"/>
       <c r="M112" s="21"/>
-      <c r="N112" s="21"/>
+      <c r="N112" s="71"/>
       <c r="O112" s="59"/>
       <c r="P112" s="21"/>
       <c r="Q112" s="5"/>
@@ -4804,7 +4811,7 @@
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
       <c r="M113" s="21"/>
-      <c r="N113" s="21"/>
+      <c r="N113" s="71"/>
       <c r="O113" s="59"/>
       <c r="P113" s="21"/>
       <c r="Q113" s="5"/>
@@ -4836,7 +4843,7 @@
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
       <c r="M114" s="21"/>
-      <c r="N114" s="21"/>
+      <c r="N114" s="71"/>
       <c r="O114" s="59"/>
       <c r="P114" s="21"/>
       <c r="Q114" s="5"/>
@@ -4868,7 +4875,7 @@
       <c r="K115" s="21"/>
       <c r="L115" s="21"/>
       <c r="M115" s="21"/>
-      <c r="N115" s="21"/>
+      <c r="N115" s="71"/>
       <c r="O115" s="59"/>
       <c r="P115" s="21"/>
       <c r="Q115" s="5"/>
@@ -4900,7 +4907,7 @@
       <c r="K116" s="21"/>
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
-      <c r="N116" s="21"/>
+      <c r="N116" s="71"/>
       <c r="O116" s="59"/>
       <c r="P116" s="21"/>
       <c r="Q116" s="5"/>
@@ -4932,7 +4939,7 @@
       <c r="K117" s="21"/>
       <c r="L117" s="21"/>
       <c r="M117" s="21"/>
-      <c r="N117" s="21"/>
+      <c r="N117" s="71"/>
       <c r="O117" s="59"/>
       <c r="P117" s="21"/>
       <c r="Q117" s="5"/>
@@ -4964,7 +4971,7 @@
       <c r="K118" s="21"/>
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
-      <c r="N118" s="21"/>
+      <c r="N118" s="71"/>
       <c r="O118" s="59"/>
       <c r="P118" s="21"/>
       <c r="Q118" s="5"/>
@@ -4996,7 +5003,7 @@
       <c r="K119" s="21"/>
       <c r="L119" s="21"/>
       <c r="M119" s="21"/>
-      <c r="N119" s="21"/>
+      <c r="N119" s="71"/>
       <c r="O119" s="59"/>
       <c r="P119" s="21"/>
       <c r="Q119" s="5"/>
@@ -5028,7 +5035,7 @@
       <c r="K120" s="21"/>
       <c r="L120" s="21"/>
       <c r="M120" s="21"/>
-      <c r="N120" s="21"/>
+      <c r="N120" s="71"/>
       <c r="O120" s="59"/>
       <c r="P120" s="21"/>
       <c r="Q120" s="5"/>
@@ -5060,7 +5067,7 @@
       <c r="K121" s="21"/>
       <c r="L121" s="21"/>
       <c r="M121" s="21"/>
-      <c r="N121" s="21"/>
+      <c r="N121" s="71"/>
       <c r="O121" s="59"/>
       <c r="P121" s="21"/>
       <c r="Q121" s="5"/>
@@ -5092,7 +5099,7 @@
       <c r="K122" s="21"/>
       <c r="L122" s="21"/>
       <c r="M122" s="21"/>
-      <c r="N122" s="21"/>
+      <c r="N122" s="71"/>
       <c r="O122" s="59"/>
       <c r="P122" s="21"/>
       <c r="Q122" s="5"/>
@@ -5124,7 +5131,7 @@
       <c r="K123" s="21"/>
       <c r="L123" s="21"/>
       <c r="M123" s="21"/>
-      <c r="N123" s="21"/>
+      <c r="N123" s="71"/>
       <c r="O123" s="59"/>
       <c r="P123" s="21"/>
       <c r="Q123" s="5"/>
@@ -5156,7 +5163,7 @@
       <c r="K124" s="21"/>
       <c r="L124" s="21"/>
       <c r="M124" s="21"/>
-      <c r="N124" s="21"/>
+      <c r="N124" s="71"/>
       <c r="O124" s="59"/>
       <c r="P124" s="21"/>
       <c r="Q124" s="5"/>
@@ -5188,7 +5195,7 @@
       <c r="K125" s="21"/>
       <c r="L125" s="21"/>
       <c r="M125" s="21"/>
-      <c r="N125" s="21"/>
+      <c r="N125" s="71"/>
       <c r="O125" s="59"/>
       <c r="P125" s="21"/>
       <c r="Q125" s="5"/>
@@ -5220,7 +5227,7 @@
       <c r="K126" s="21"/>
       <c r="L126" s="21"/>
       <c r="M126" s="21"/>
-      <c r="N126" s="21"/>
+      <c r="N126" s="71"/>
       <c r="O126" s="59"/>
       <c r="P126" s="21"/>
       <c r="Q126" s="5"/>
@@ -5252,7 +5259,7 @@
       <c r="K127" s="21"/>
       <c r="L127" s="21"/>
       <c r="M127" s="21"/>
-      <c r="N127" s="21"/>
+      <c r="N127" s="71"/>
       <c r="O127" s="59"/>
       <c r="P127" s="21"/>
       <c r="Q127" s="5"/>
@@ -5284,7 +5291,7 @@
       <c r="K128" s="21"/>
       <c r="L128" s="21"/>
       <c r="M128" s="21"/>
-      <c r="N128" s="21"/>
+      <c r="N128" s="71"/>
       <c r="O128" s="59"/>
       <c r="P128" s="21"/>
       <c r="Q128" s="5"/>
@@ -5316,7 +5323,7 @@
       <c r="K129" s="21"/>
       <c r="L129" s="21"/>
       <c r="M129" s="21"/>
-      <c r="N129" s="21"/>
+      <c r="N129" s="71"/>
       <c r="O129" s="59"/>
       <c r="P129" s="21"/>
       <c r="Q129" s="5"/>
@@ -5348,7 +5355,7 @@
       <c r="K130" s="21"/>
       <c r="L130" s="21"/>
       <c r="M130" s="21"/>
-      <c r="N130" s="21"/>
+      <c r="N130" s="71"/>
       <c r="O130" s="59"/>
       <c r="P130" s="21"/>
       <c r="Q130" s="5"/>
@@ -5380,7 +5387,7 @@
       <c r="K131" s="21"/>
       <c r="L131" s="21"/>
       <c r="M131" s="21"/>
-      <c r="N131" s="21"/>
+      <c r="N131" s="71"/>
       <c r="O131" s="59"/>
       <c r="P131" s="21"/>
       <c r="Q131" s="5"/>
@@ -5412,7 +5419,7 @@
       <c r="K132" s="21"/>
       <c r="L132" s="21"/>
       <c r="M132" s="21"/>
-      <c r="N132" s="21"/>
+      <c r="N132" s="71"/>
       <c r="O132" s="59"/>
       <c r="P132" s="21"/>
       <c r="Q132" s="5"/>
@@ -5444,7 +5451,7 @@
       <c r="K133" s="21"/>
       <c r="L133" s="21"/>
       <c r="M133" s="21"/>
-      <c r="N133" s="21"/>
+      <c r="N133" s="71"/>
       <c r="O133" s="59"/>
       <c r="P133" s="21"/>
       <c r="Q133" s="5"/>
@@ -5476,7 +5483,7 @@
       <c r="K134" s="21"/>
       <c r="L134" s="21"/>
       <c r="M134" s="21"/>
-      <c r="N134" s="21"/>
+      <c r="N134" s="71"/>
       <c r="O134" s="59"/>
       <c r="P134" s="21"/>
       <c r="Q134" s="5"/>
@@ -5508,7 +5515,7 @@
       <c r="K135" s="21"/>
       <c r="L135" s="21"/>
       <c r="M135" s="21"/>
-      <c r="N135" s="21"/>
+      <c r="N135" s="71"/>
       <c r="O135" s="59"/>
       <c r="P135" s="21"/>
       <c r="Q135" s="5"/>
@@ -5540,7 +5547,7 @@
       <c r="K136" s="21"/>
       <c r="L136" s="21"/>
       <c r="M136" s="21"/>
-      <c r="N136" s="21"/>
+      <c r="N136" s="71"/>
       <c r="O136" s="59"/>
       <c r="P136" s="21"/>
       <c r="Q136" s="5"/>
@@ -5572,7 +5579,7 @@
       <c r="K137" s="21"/>
       <c r="L137" s="21"/>
       <c r="M137" s="21"/>
-      <c r="N137" s="21"/>
+      <c r="N137" s="71"/>
       <c r="O137" s="59"/>
       <c r="P137" s="21"/>
       <c r="Q137" s="5"/>
@@ -5604,7 +5611,7 @@
       <c r="K138" s="21"/>
       <c r="L138" s="21"/>
       <c r="M138" s="21"/>
-      <c r="N138" s="21"/>
+      <c r="N138" s="71"/>
       <c r="O138" s="59"/>
       <c r="P138" s="21"/>
       <c r="Q138" s="5"/>
@@ -5636,7 +5643,7 @@
       <c r="K139" s="21"/>
       <c r="L139" s="21"/>
       <c r="M139" s="21"/>
-      <c r="N139" s="21"/>
+      <c r="N139" s="71"/>
       <c r="O139" s="59"/>
       <c r="P139" s="21"/>
       <c r="Q139" s="5"/>
@@ -5668,7 +5675,7 @@
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
       <c r="M140" s="21"/>
-      <c r="N140" s="21"/>
+      <c r="N140" s="71"/>
       <c r="O140" s="59"/>
       <c r="P140" s="21"/>
       <c r="Q140" s="5"/>
@@ -5700,7 +5707,7 @@
       <c r="K141" s="21"/>
       <c r="L141" s="21"/>
       <c r="M141" s="21"/>
-      <c r="N141" s="21"/>
+      <c r="N141" s="71"/>
       <c r="O141" s="59"/>
       <c r="P141" s="21"/>
       <c r="Q141" s="5"/>
@@ -5732,7 +5739,7 @@
       <c r="K142" s="21"/>
       <c r="L142" s="21"/>
       <c r="M142" s="21"/>
-      <c r="N142" s="21"/>
+      <c r="N142" s="71"/>
       <c r="O142" s="59"/>
       <c r="P142" s="21"/>
       <c r="Q142" s="5"/>
@@ -5764,7 +5771,7 @@
       <c r="K143" s="21"/>
       <c r="L143" s="21"/>
       <c r="M143" s="21"/>
-      <c r="N143" s="21"/>
+      <c r="N143" s="71"/>
       <c r="O143" s="59"/>
       <c r="P143" s="21"/>
       <c r="Q143" s="5"/>
@@ -5796,7 +5803,7 @@
       <c r="K144" s="21"/>
       <c r="L144" s="21"/>
       <c r="M144" s="21"/>
-      <c r="N144" s="21"/>
+      <c r="N144" s="71"/>
       <c r="O144" s="59"/>
       <c r="P144" s="21"/>
       <c r="Q144" s="5"/>
@@ -5828,7 +5835,7 @@
       <c r="K145" s="21"/>
       <c r="L145" s="21"/>
       <c r="M145" s="21"/>
-      <c r="N145" s="21"/>
+      <c r="N145" s="71"/>
       <c r="O145" s="59"/>
       <c r="P145" s="21"/>
       <c r="Q145" s="5"/>
@@ -5860,7 +5867,7 @@
       <c r="K146" s="21"/>
       <c r="L146" s="21"/>
       <c r="M146" s="21"/>
-      <c r="N146" s="21"/>
+      <c r="N146" s="71"/>
       <c r="O146" s="59"/>
       <c r="P146" s="21"/>
       <c r="Q146" s="5"/>
@@ -5892,7 +5899,7 @@
       <c r="K147" s="21"/>
       <c r="L147" s="21"/>
       <c r="M147" s="21"/>
-      <c r="N147" s="21"/>
+      <c r="N147" s="71"/>
       <c r="O147" s="59"/>
       <c r="P147" s="21"/>
       <c r="Q147" s="5"/>
@@ -5924,7 +5931,7 @@
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
       <c r="M148" s="21"/>
-      <c r="N148" s="21"/>
+      <c r="N148" s="71"/>
       <c r="O148" s="59"/>
       <c r="P148" s="21"/>
       <c r="Q148" s="5"/>
@@ -5956,7 +5963,7 @@
       <c r="K149" s="21"/>
       <c r="L149" s="21"/>
       <c r="M149" s="21"/>
-      <c r="N149" s="21"/>
+      <c r="N149" s="71"/>
       <c r="O149" s="59"/>
       <c r="P149" s="21"/>
       <c r="Q149" s="5"/>
@@ -5988,7 +5995,7 @@
       <c r="K150" s="21"/>
       <c r="L150" s="21"/>
       <c r="M150" s="21"/>
-      <c r="N150" s="21"/>
+      <c r="N150" s="71"/>
       <c r="O150" s="59"/>
       <c r="P150" s="21"/>
       <c r="Q150" s="5"/>
@@ -6020,7 +6027,7 @@
       <c r="K151" s="21"/>
       <c r="L151" s="21"/>
       <c r="M151" s="21"/>
-      <c r="N151" s="21"/>
+      <c r="N151" s="71"/>
       <c r="O151" s="59"/>
       <c r="P151" s="21"/>
       <c r="Q151" s="5"/>
@@ -6052,7 +6059,7 @@
       <c r="K152" s="21"/>
       <c r="L152" s="21"/>
       <c r="M152" s="21"/>
-      <c r="N152" s="21"/>
+      <c r="N152" s="71"/>
       <c r="O152" s="59"/>
       <c r="P152" s="21"/>
       <c r="Q152" s="5"/>
@@ -6084,7 +6091,7 @@
       <c r="K153" s="21"/>
       <c r="L153" s="21"/>
       <c r="M153" s="21"/>
-      <c r="N153" s="21"/>
+      <c r="N153" s="71"/>
       <c r="O153" s="59"/>
       <c r="P153" s="21"/>
       <c r="Q153" s="5"/>
@@ -6116,7 +6123,7 @@
       <c r="K154" s="21"/>
       <c r="L154" s="21"/>
       <c r="M154" s="21"/>
-      <c r="N154" s="21"/>
+      <c r="N154" s="71"/>
       <c r="O154" s="59"/>
       <c r="P154" s="21"/>
       <c r="Q154" s="5"/>
@@ -6148,7 +6155,7 @@
       <c r="K155" s="21"/>
       <c r="L155" s="21"/>
       <c r="M155" s="21"/>
-      <c r="N155" s="21"/>
+      <c r="N155" s="71"/>
       <c r="O155" s="59"/>
       <c r="P155" s="21"/>
       <c r="Q155" s="5"/>
@@ -6180,7 +6187,7 @@
       <c r="K156" s="21"/>
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
-      <c r="N156" s="21"/>
+      <c r="N156" s="71"/>
       <c r="O156" s="59"/>
       <c r="P156" s="21"/>
       <c r="Q156" s="5"/>
@@ -6212,7 +6219,7 @@
       <c r="K157" s="21"/>
       <c r="L157" s="21"/>
       <c r="M157" s="21"/>
-      <c r="N157" s="21"/>
+      <c r="N157" s="71"/>
       <c r="O157" s="59"/>
       <c r="P157" s="21"/>
       <c r="Q157" s="5"/>
@@ -6244,7 +6251,7 @@
       <c r="K158" s="21"/>
       <c r="L158" s="21"/>
       <c r="M158" s="21"/>
-      <c r="N158" s="21"/>
+      <c r="N158" s="71"/>
       <c r="O158" s="59"/>
       <c r="P158" s="21"/>
       <c r="Q158" s="5"/>
@@ -6276,7 +6283,7 @@
       <c r="K159" s="21"/>
       <c r="L159" s="21"/>
       <c r="M159" s="21"/>
-      <c r="N159" s="21"/>
+      <c r="N159" s="71"/>
       <c r="O159" s="59"/>
       <c r="P159" s="21"/>
       <c r="Q159" s="5"/>
@@ -6308,7 +6315,7 @@
       <c r="K160" s="21"/>
       <c r="L160" s="21"/>
       <c r="M160" s="21"/>
-      <c r="N160" s="21"/>
+      <c r="N160" s="71"/>
       <c r="O160" s="59"/>
       <c r="P160" s="21"/>
       <c r="Q160" s="5"/>
@@ -6340,7 +6347,7 @@
       <c r="K161" s="21"/>
       <c r="L161" s="21"/>
       <c r="M161" s="21"/>
-      <c r="N161" s="21"/>
+      <c r="N161" s="71"/>
       <c r="O161" s="59"/>
       <c r="P161" s="21"/>
       <c r="Q161" s="5"/>
@@ -6372,7 +6379,7 @@
       <c r="K162" s="21"/>
       <c r="L162" s="21"/>
       <c r="M162" s="21"/>
-      <c r="N162" s="21"/>
+      <c r="N162" s="71"/>
       <c r="O162" s="59"/>
       <c r="P162" s="21"/>
       <c r="Q162" s="5"/>
@@ -6404,7 +6411,7 @@
       <c r="K163" s="21"/>
       <c r="L163" s="21"/>
       <c r="M163" s="21"/>
-      <c r="N163" s="21"/>
+      <c r="N163" s="71"/>
       <c r="O163" s="59"/>
       <c r="P163" s="21"/>
       <c r="Q163" s="5"/>
@@ -6436,7 +6443,7 @@
       <c r="K164" s="21"/>
       <c r="L164" s="21"/>
       <c r="M164" s="21"/>
-      <c r="N164" s="21"/>
+      <c r="N164" s="71"/>
       <c r="O164" s="59"/>
       <c r="P164" s="21"/>
       <c r="Q164" s="5"/>
@@ -6468,7 +6475,7 @@
       <c r="K165" s="21"/>
       <c r="L165" s="21"/>
       <c r="M165" s="21"/>
-      <c r="N165" s="21"/>
+      <c r="N165" s="71"/>
       <c r="O165" s="59"/>
       <c r="P165" s="21"/>
       <c r="Q165" s="5"/>
@@ -6500,7 +6507,7 @@
       <c r="K166" s="21"/>
       <c r="L166" s="21"/>
       <c r="M166" s="21"/>
-      <c r="N166" s="21"/>
+      <c r="N166" s="71"/>
       <c r="O166" s="59"/>
       <c r="P166" s="21"/>
       <c r="Q166" s="5"/>
@@ -6532,7 +6539,7 @@
       <c r="K167" s="21"/>
       <c r="L167" s="21"/>
       <c r="M167" s="21"/>
-      <c r="N167" s="21"/>
+      <c r="N167" s="71"/>
       <c r="O167" s="59"/>
       <c r="P167" s="21"/>
       <c r="Q167" s="5"/>
@@ -6564,7 +6571,7 @@
       <c r="K168" s="21"/>
       <c r="L168" s="21"/>
       <c r="M168" s="21"/>
-      <c r="N168" s="21"/>
+      <c r="N168" s="71"/>
       <c r="O168" s="59"/>
       <c r="P168" s="21"/>
       <c r="Q168" s="5"/>
@@ -6596,7 +6603,7 @@
       <c r="K169" s="21"/>
       <c r="L169" s="21"/>
       <c r="M169" s="21"/>
-      <c r="N169" s="21"/>
+      <c r="N169" s="71"/>
       <c r="O169" s="59"/>
       <c r="P169" s="21"/>
       <c r="Q169" s="5"/>
@@ -6628,7 +6635,7 @@
       <c r="K170" s="21"/>
       <c r="L170" s="21"/>
       <c r="M170" s="21"/>
-      <c r="N170" s="21"/>
+      <c r="N170" s="71"/>
       <c r="O170" s="59"/>
       <c r="P170" s="21"/>
       <c r="Q170" s="5"/>
@@ -6660,7 +6667,7 @@
       <c r="K171" s="21"/>
       <c r="L171" s="21"/>
       <c r="M171" s="21"/>
-      <c r="N171" s="21"/>
+      <c r="N171" s="71"/>
       <c r="O171" s="59"/>
       <c r="P171" s="21"/>
       <c r="Q171" s="5"/>
@@ -6692,7 +6699,7 @@
       <c r="K172" s="21"/>
       <c r="L172" s="21"/>
       <c r="M172" s="21"/>
-      <c r="N172" s="21"/>
+      <c r="N172" s="71"/>
       <c r="O172" s="59"/>
       <c r="P172" s="21"/>
       <c r="Q172" s="5"/>
@@ -6724,7 +6731,7 @@
       <c r="K173" s="21"/>
       <c r="L173" s="21"/>
       <c r="M173" s="21"/>
-      <c r="N173" s="21"/>
+      <c r="N173" s="71"/>
       <c r="O173" s="59"/>
       <c r="P173" s="21"/>
       <c r="Q173" s="5"/>
@@ -6756,7 +6763,7 @@
       <c r="K174" s="21"/>
       <c r="L174" s="21"/>
       <c r="M174" s="21"/>
-      <c r="N174" s="21"/>
+      <c r="N174" s="71"/>
       <c r="O174" s="59"/>
       <c r="P174" s="21"/>
       <c r="Q174" s="5"/>
@@ -6788,7 +6795,7 @@
       <c r="K175" s="21"/>
       <c r="L175" s="21"/>
       <c r="M175" s="21"/>
-      <c r="N175" s="21"/>
+      <c r="N175" s="71"/>
       <c r="O175" s="59"/>
       <c r="P175" s="21"/>
       <c r="Q175" s="5"/>
@@ -6820,7 +6827,7 @@
       <c r="K176" s="21"/>
       <c r="L176" s="21"/>
       <c r="M176" s="21"/>
-      <c r="N176" s="21"/>
+      <c r="N176" s="71"/>
       <c r="O176" s="59"/>
       <c r="P176" s="21"/>
       <c r="Q176" s="5"/>
@@ -6852,7 +6859,7 @@
       <c r="K177" s="21"/>
       <c r="L177" s="21"/>
       <c r="M177" s="21"/>
-      <c r="N177" s="21"/>
+      <c r="N177" s="71"/>
       <c r="O177" s="59"/>
       <c r="P177" s="21"/>
       <c r="Q177" s="5"/>
@@ -6884,7 +6891,7 @@
       <c r="K178" s="21"/>
       <c r="L178" s="21"/>
       <c r="M178" s="21"/>
-      <c r="N178" s="21"/>
+      <c r="N178" s="71"/>
       <c r="O178" s="59"/>
       <c r="P178" s="21"/>
       <c r="Q178" s="5"/>
@@ -6916,7 +6923,7 @@
       <c r="K179" s="21"/>
       <c r="L179" s="21"/>
       <c r="M179" s="21"/>
-      <c r="N179" s="21"/>
+      <c r="N179" s="71"/>
       <c r="O179" s="59"/>
       <c r="P179" s="21"/>
       <c r="Q179" s="5"/>
@@ -6948,7 +6955,7 @@
       <c r="K180" s="21"/>
       <c r="L180" s="21"/>
       <c r="M180" s="21"/>
-      <c r="N180" s="21"/>
+      <c r="N180" s="71"/>
       <c r="O180" s="59"/>
       <c r="P180" s="21"/>
       <c r="Q180" s="5"/>
@@ -6980,7 +6987,7 @@
       <c r="K181" s="21"/>
       <c r="L181" s="21"/>
       <c r="M181" s="21"/>
-      <c r="N181" s="21"/>
+      <c r="N181" s="71"/>
       <c r="O181" s="59"/>
       <c r="P181" s="21"/>
       <c r="Q181" s="5"/>
@@ -7012,7 +7019,7 @@
       <c r="K182" s="21"/>
       <c r="L182" s="21"/>
       <c r="M182" s="21"/>
-      <c r="N182" s="21"/>
+      <c r="N182" s="71"/>
       <c r="O182" s="59"/>
       <c r="P182" s="21"/>
       <c r="Q182" s="5"/>
@@ -7044,7 +7051,7 @@
       <c r="K183" s="21"/>
       <c r="L183" s="21"/>
       <c r="M183" s="21"/>
-      <c r="N183" s="21"/>
+      <c r="N183" s="71"/>
       <c r="O183" s="59"/>
       <c r="P183" s="21"/>
       <c r="Q183" s="5"/>
@@ -7076,7 +7083,7 @@
       <c r="K184" s="21"/>
       <c r="L184" s="21"/>
       <c r="M184" s="21"/>
-      <c r="N184" s="21"/>
+      <c r="N184" s="71"/>
       <c r="O184" s="59"/>
       <c r="P184" s="21"/>
       <c r="Q184" s="5"/>
@@ -7108,7 +7115,7 @@
       <c r="K185" s="21"/>
       <c r="L185" s="21"/>
       <c r="M185" s="21"/>
-      <c r="N185" s="21"/>
+      <c r="N185" s="71"/>
       <c r="O185" s="59"/>
       <c r="P185" s="21"/>
       <c r="Q185" s="5"/>
@@ -7140,7 +7147,7 @@
       <c r="K186" s="21"/>
       <c r="L186" s="21"/>
       <c r="M186" s="21"/>
-      <c r="N186" s="21"/>
+      <c r="N186" s="71"/>
       <c r="O186" s="59"/>
       <c r="P186" s="21"/>
       <c r="Q186" s="5"/>
@@ -7172,7 +7179,7 @@
       <c r="K187" s="21"/>
       <c r="L187" s="21"/>
       <c r="M187" s="21"/>
-      <c r="N187" s="21"/>
+      <c r="N187" s="71"/>
       <c r="O187" s="59"/>
       <c r="P187" s="21"/>
       <c r="Q187" s="5"/>
@@ -7204,7 +7211,7 @@
       <c r="K188" s="21"/>
       <c r="L188" s="21"/>
       <c r="M188" s="21"/>
-      <c r="N188" s="21"/>
+      <c r="N188" s="71"/>
       <c r="O188" s="59"/>
       <c r="P188" s="21"/>
       <c r="Q188" s="5"/>
@@ -7236,7 +7243,7 @@
       <c r="K189" s="21"/>
       <c r="L189" s="21"/>
       <c r="M189" s="21"/>
-      <c r="N189" s="21"/>
+      <c r="N189" s="71"/>
       <c r="O189" s="59"/>
       <c r="P189" s="21"/>
       <c r="Q189" s="5"/>
@@ -7268,7 +7275,7 @@
       <c r="K190" s="21"/>
       <c r="L190" s="21"/>
       <c r="M190" s="21"/>
-      <c r="N190" s="21"/>
+      <c r="N190" s="71"/>
       <c r="O190" s="59"/>
       <c r="P190" s="21"/>
       <c r="Q190" s="5"/>
@@ -7300,7 +7307,7 @@
       <c r="K191" s="21"/>
       <c r="L191" s="21"/>
       <c r="M191" s="21"/>
-      <c r="N191" s="21"/>
+      <c r="N191" s="71"/>
       <c r="O191" s="59"/>
       <c r="P191" s="21"/>
       <c r="Q191" s="5"/>
@@ -7332,7 +7339,7 @@
       <c r="K192" s="21"/>
       <c r="L192" s="21"/>
       <c r="M192" s="21"/>
-      <c r="N192" s="21"/>
+      <c r="N192" s="71"/>
       <c r="O192" s="59"/>
       <c r="P192" s="21"/>
       <c r="Q192" s="5"/>
@@ -7364,7 +7371,7 @@
       <c r="K193" s="21"/>
       <c r="L193" s="21"/>
       <c r="M193" s="21"/>
-      <c r="N193" s="21"/>
+      <c r="N193" s="71"/>
       <c r="O193" s="59"/>
       <c r="P193" s="21"/>
       <c r="Q193" s="5"/>
@@ -7396,7 +7403,7 @@
       <c r="K194" s="21"/>
       <c r="L194" s="21"/>
       <c r="M194" s="21"/>
-      <c r="N194" s="21"/>
+      <c r="N194" s="71"/>
       <c r="O194" s="59"/>
       <c r="P194" s="21"/>
       <c r="Q194" s="5"/>
@@ -7428,7 +7435,7 @@
       <c r="K195" s="21"/>
       <c r="L195" s="21"/>
       <c r="M195" s="21"/>
-      <c r="N195" s="21"/>
+      <c r="N195" s="71"/>
       <c r="O195" s="59"/>
       <c r="P195" s="21"/>
       <c r="Q195" s="5"/>
@@ -7460,7 +7467,7 @@
       <c r="K196" s="21"/>
       <c r="L196" s="21"/>
       <c r="M196" s="21"/>
-      <c r="N196" s="21"/>
+      <c r="N196" s="71"/>
       <c r="O196" s="59"/>
       <c r="P196" s="21"/>
       <c r="Q196" s="5"/>
@@ -7492,7 +7499,7 @@
       <c r="K197" s="21"/>
       <c r="L197" s="21"/>
       <c r="M197" s="21"/>
-      <c r="N197" s="21"/>
+      <c r="N197" s="71"/>
       <c r="O197" s="59"/>
       <c r="P197" s="21"/>
       <c r="Q197" s="5"/>
@@ -7524,7 +7531,7 @@
       <c r="K198" s="21"/>
       <c r="L198" s="21"/>
       <c r="M198" s="21"/>
-      <c r="N198" s="21"/>
+      <c r="N198" s="71"/>
       <c r="O198" s="59"/>
       <c r="P198" s="21"/>
       <c r="Q198" s="5"/>
@@ -7556,7 +7563,7 @@
       <c r="K199" s="21"/>
       <c r="L199" s="21"/>
       <c r="M199" s="21"/>
-      <c r="N199" s="21"/>
+      <c r="N199" s="71"/>
       <c r="O199" s="59"/>
       <c r="P199" s="21"/>
       <c r="Q199" s="5"/>
@@ -7588,7 +7595,7 @@
       <c r="K200" s="21"/>
       <c r="L200" s="21"/>
       <c r="M200" s="21"/>
-      <c r="N200" s="21"/>
+      <c r="N200" s="71"/>
       <c r="O200" s="59"/>
       <c r="P200" s="21"/>
       <c r="Q200" s="5"/>
@@ -7620,7 +7627,7 @@
       <c r="K201" s="21"/>
       <c r="L201" s="21"/>
       <c r="M201" s="21"/>
-      <c r="N201" s="21"/>
+      <c r="N201" s="71"/>
       <c r="O201" s="59"/>
       <c r="P201" s="21"/>
       <c r="Q201" s="5"/>
@@ -7652,7 +7659,7 @@
       <c r="K202" s="21"/>
       <c r="L202" s="21"/>
       <c r="M202" s="21"/>
-      <c r="N202" s="21"/>
+      <c r="N202" s="71"/>
       <c r="O202" s="59"/>
       <c r="P202" s="21"/>
       <c r="Q202" s="5"/>
@@ -7684,7 +7691,7 @@
       <c r="K203" s="21"/>
       <c r="L203" s="21"/>
       <c r="M203" s="21"/>
-      <c r="N203" s="21"/>
+      <c r="N203" s="71"/>
       <c r="O203" s="59"/>
       <c r="P203" s="21"/>
       <c r="Q203" s="5"/>
@@ -7716,7 +7723,7 @@
       <c r="K204" s="21"/>
       <c r="L204" s="21"/>
       <c r="M204" s="21"/>
-      <c r="N204" s="21"/>
+      <c r="N204" s="71"/>
       <c r="O204" s="59"/>
       <c r="P204" s="21"/>
       <c r="Q204" s="5"/>
@@ -7748,7 +7755,7 @@
       <c r="K205" s="21"/>
       <c r="L205" s="21"/>
       <c r="M205" s="21"/>
-      <c r="N205" s="21"/>
+      <c r="N205" s="71"/>
       <c r="O205" s="59"/>
       <c r="P205" s="21"/>
       <c r="Q205" s="5"/>
@@ -22321,12 +22328,6 @@
           </x14:formula1>
           <xm:sqref>M6:M205</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{92F9F262-03EE-4959-8C6E-8E4F7EA4F8ED}">
-          <x14:formula1>
-            <xm:f>'Lista desplegable '!$H$3:$H$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>N6:N205</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04BD9FEB-4C10-436A-88AB-9A55E8CC8C12}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$I$2:$I$9</xm:f>
@@ -22347,9 +22348,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B55B14E3-3394-46A7-A37D-9F1887CDE752}">
           <x14:formula1>
-            <xm:f>'Lista desplegable '!$B$2:$B$31</xm:f>
+            <xm:f>'Lista desplegable '!$B$2:$B$32</xm:f>
           </x14:formula1>
           <xm:sqref>E6:E205</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75DFC831-69B8-4651-B67E-D600FFD2B813}">
+          <x14:formula1>
+            <xm:f>'Lista desplegable '!$H$2:$H$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>N6:N205</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22362,7 +22369,7 @@
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22620,8 +22627,8 @@
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="65" t="s">
-        <v>14</v>
+      <c r="B12" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="25">
         <v>6</v>
@@ -22630,8 +22637,8 @@
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="66" t="s">
-        <v>67</v>
+      <c r="B13" s="65" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="25">
         <v>7</v>
@@ -22640,7 +22647,7 @@
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="25">
         <v>8</v>
@@ -22648,8 +22655,8 @@
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="65" t="s">
-        <v>15</v>
+      <c r="B15" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="F15" s="25">
         <v>10</v>
@@ -22658,7 +22665,7 @@
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="25">
         <v>11</v>
@@ -22667,7 +22674,7 @@
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="25">
         <v>15</v>
@@ -22676,7 +22683,7 @@
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="25">
         <v>20</v>
@@ -22685,7 +22692,7 @@
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="25">
         <v>33</v>
@@ -22694,7 +22701,7 @@
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="25">
         <v>35</v>
@@ -22703,7 +22710,7 @@
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="36"/>
       <c r="G21" s="46"/>
@@ -22712,15 +22719,15 @@
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="63" t="s">
-        <v>23</v>
+      <c r="B23" s="65" t="s">
+        <v>22</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="42"/>
@@ -22728,7 +22735,7 @@
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="42"/>
@@ -22736,7 +22743,7 @@
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42"/>
@@ -22744,7 +22751,7 @@
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="42"/>
@@ -22752,7 +22759,7 @@
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="42"/>
@@ -22760,7 +22767,7 @@
     <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="42"/>
@@ -22768,7 +22775,7 @@
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="42"/>
@@ -22776,20 +22783,22 @@
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+      <c r="B32" s="63" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -25686,4 +25695,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9239C9-6BF3-487F-80B7-62AA3CBF4872}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC40AD-2808-4414-996E-5AFC22A47200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C570B0A-DC61-47B0-BEDA-7091E825C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
-    <sheet name="Lista desplegable " sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId3"/>
+    <sheet name="INSTRUCCIONES" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista desplegable " sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -199,119 +199,6 @@
 NO APLICA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">1. LAS COLUMNAS EN VERDE SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Escribe el nombre de la materia prima </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>SIEMPRE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> empezando con letra mayúscula. Las demás letras deben ir en minúscula. 
-3. Si el nombre de la materia prima tiene dos o más palabras,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> SOLO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> debes poner en mayúscula la primera letra de la primera palabra.
-4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">. OBLIGATORIO: En la columna B, escribe la mercancia incluyendo NOMBRE + REFERENCIA O CARACTERÍSTICA QUE LO IDENTIFIQUE. EJ: Celular Samsung J40; Arroz Integral; Leche en Polvo.  Cada mercancia se registra UNA (1) SOLA VEZ. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t>. OBLIGATORIO: En la columna C, ESCRIBE EL INVENTARIO EN NÚMEROS. 
-6. OBLIGATORIO: En la columna D, ELIJE DE LA LISTA DESPLEGABLE, LA UNIDAD DE MEDIDA EN LA QUE REGISTRAS EL INVENTARIO DE TU MERCANCIA. 
-7. OBLIGATORIO: En la columna E, ESCRIBE EN NÚMEROS EL PRECIO DE COMPRA SIN IVA DE TU MATERIA PRIMA. 
-8. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU MERCANCIA. 
-9. OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU MERCANCIA.
-10.  OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN EN LA FUENTE APLICABLE A TU MERCANCIA.
-10.  OBLIGATORIO: En la columna I, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE IVA APLICABLE A TU MERCANCIA.
-10.  OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU MERCANCIA. 
-11. OBLIGATORIO: En la columna K, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU MERCANCIA.
-12. OBLIGATORIO: En la columna L, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU MERCANCIA INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.
-13. OBlIGATORIO: En la columna M, ESCRIBE LA FECHA DE VENCIMIENTO DE TU MATERIA PRIMA ASÍ: DIA/MES/AÑO. 
-14. En la columna N, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  
-15.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nunito Sans"/>
-      </rPr>
-      <t xml:space="preserve">En las columnas D, F, G, H, I,  J, K,, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.
-16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
-    </r>
-  </si>
-  <si>
     <t>Impuestos a bebidas azucaradas</t>
   </si>
   <si>
@@ -384,6 +271,60 @@
   <si>
     <t>Botella</t>
   </si>
+  <si>
+    <t xml:space="preserve">1. LAS COLUMNAS EN VERDE SON OBLIGATORIAS. DEBES DILIGENCIAR TODAS LAS COLUMNAS VERDES EN UN 100% PARA QUE PUEDAS HACER LA CARGA MASIVA DEL INVENTARIO EN EL SOFTWARE DE ECOPCIÓN. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Escribe el nombre de la materia prima SIEMPRE empezando con letra mayúscula. Las demás letras deben ir en minúscula. </t>
+  </si>
+  <si>
+    <t>3. Si el nombre de la materia prima tiene dos o más palabras, SOLO debes poner en mayúscula la primera letra de la primera palabra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. OBLIGATORIO: En la columna B, escribe la mercancia incluyendo NOMBRE + REFERENCIA O CARACTERÍSTICA QUE LO IDENTIFIQUE. EJ: Celular Samsung J40; Arroz Integral; Leche en Polvo.  Cada mercancia se registra UNA (1) SOLA VEZ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. OBLIGATORIO: En la columna C, ESCRIBE EL INVENTARIO EN NÚMEROS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. OBLIGATORIO: En la columna D, ELIJE DE LA LISTA DESPLEGABLE, LA UNIDAD DE MEDIDA EN LA QUE REGISTRAS EL INVENTARIO DE TU MERCANCIA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. OBLIGATORIO: En la columna E, ESCRIBE EN NÚMEROS EL PRECIO DE COMPRA SIN IVA DE TU MATERIA PRIMA. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. OBLIGATORIO: En la columna F, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IVA APLICABLE A TU MERCANCIA. </t>
+  </si>
+  <si>
+    <t>9. OBLIGATORIO: En la columna G, ELIGE DE LA LISTA DESPLEGABLE, EL PORCENTAJE DEL IMPUESTO AL CONSUMO APLICABLE A TU MERCANCIA.</t>
+  </si>
+  <si>
+    <t>10.  OBLIGATORIO: En la columna H, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN EN LA FUENTE APLICABLE A TU MERCANCIA.</t>
+  </si>
+  <si>
+    <t>10.  OBLIGATORIO: En la columna I, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE IVA APLICABLE A TU MERCANCIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.  OBLIGATORIO: En la columna J, ELIGE DE LA LISTA DESPLEGABLE, EL TIPO DE RETENCIÓN DE ICA APLICABLE A TU MERCANCIA. </t>
+  </si>
+  <si>
+    <t>11. OBLIGATORIO: En la columna K, ELIGE DE LA LISTA DESPLEGABLE, OTRO IMPUESTO APLICABLES A TU MERCANCIA.</t>
+  </si>
+  <si>
+    <t>12. OBLIGATORIO: En la columna L, ESCRIBE EN NÚMEROS EL PRECIO DE VENTA DE TU MERCANCIA INCLUYENDO TODOS LOS IMPUESTOS APLICABLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. OBlIGATORIO: En la columna M, ESCRIBE LA FECHA DE VENCIMIENTO DE TU MATERIA PRIMA ASÍ: DIA/MES/AÑO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. En la columna N, COPIA EL CÓDIGO DE BARRAS A MANO O CON EL LECTOR DE CÓDIGO, NO OMITAS NINGUNA LETRA O NÚMERO.  </t>
+  </si>
+  <si>
+    <t>15. En las columnas D, F, G, H, I,  J, K,, SELECCIONA LA RESPUESTA DE LA LISTA DESPLEGABLE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
+  </si>
 </sst>
 </file>
 
@@ -394,7 +335,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,12 +369,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Nunito Sans"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Nunito Sans"/>
@@ -651,18 +586,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -681,31 +616,31 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,28 +661,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -761,40 +696,40 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -825,10 +760,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -849,17 +784,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1132,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB689"/>
+  <dimension ref="A1:AB687"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,24 +1086,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1185,195 +1117,195 @@
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
     </row>
-    <row r="2" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" spans="1:28" ht="285" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" spans="1:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-    </row>
-    <row r="5" spans="1:28" ht="115.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1381,13 +1313,13 @@
       <c r="E6" s="20"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="54"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="58"/>
       <c r="J6" s="58"/>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="N6" s="71"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="59"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
@@ -1405,21 +1337,21 @@
     </row>
     <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="54"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="58"/>
       <c r="J7" s="58"/>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
-      <c r="N7" s="71"/>
+      <c r="N7" s="68"/>
       <c r="O7" s="59"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="5"/>
@@ -1437,7 +1369,7 @@
     </row>
     <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1451,7 +1383,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="71"/>
+      <c r="N8" s="68"/>
       <c r="O8" s="59"/>
       <c r="P8" s="21"/>
       <c r="Q8" s="5"/>
@@ -1469,10 +1401,10 @@
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>4</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="23"/>
@@ -1483,7 +1415,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
-      <c r="N9" s="71"/>
+      <c r="N9" s="68"/>
       <c r="O9" s="59"/>
       <c r="P9" s="21"/>
       <c r="Q9" s="5"/>
@@ -1501,7 +1433,7 @@
     </row>
     <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1515,7 +1447,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
-      <c r="N10" s="71"/>
+      <c r="N10" s="68"/>
       <c r="O10" s="59"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="5"/>
@@ -1533,7 +1465,7 @@
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1547,7 +1479,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
-      <c r="N11" s="71"/>
+      <c r="N11" s="68"/>
       <c r="O11" s="59"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="5"/>
@@ -1565,7 +1497,7 @@
     </row>
     <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1579,7 +1511,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="N12" s="71"/>
+      <c r="N12" s="68"/>
       <c r="O12" s="59"/>
       <c r="P12" s="21"/>
       <c r="Q12" s="5"/>
@@ -1597,7 +1529,7 @@
     </row>
     <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1611,7 +1543,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="71"/>
+      <c r="N13" s="68"/>
       <c r="O13" s="59"/>
       <c r="P13" s="21"/>
       <c r="Q13" s="5"/>
@@ -1629,7 +1561,7 @@
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1643,7 +1575,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="71"/>
+      <c r="N14" s="68"/>
       <c r="O14" s="59"/>
       <c r="P14" s="21"/>
       <c r="Q14" s="5"/>
@@ -1661,7 +1593,7 @@
     </row>
     <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1675,7 +1607,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
-      <c r="N15" s="71"/>
+      <c r="N15" s="68"/>
       <c r="O15" s="59"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="5"/>
@@ -1693,7 +1625,7 @@
     </row>
     <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1707,7 +1639,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
-      <c r="N16" s="71"/>
+      <c r="N16" s="68"/>
       <c r="O16" s="59"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="5"/>
@@ -1725,7 +1657,7 @@
     </row>
     <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -1739,7 +1671,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
-      <c r="N17" s="71"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="59"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="5"/>
@@ -1757,7 +1689,7 @@
     </row>
     <row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -1771,7 +1703,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="71"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="59"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="5"/>
@@ -1789,7 +1721,7 @@
     </row>
     <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -1803,7 +1735,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
-      <c r="N19" s="71"/>
+      <c r="N19" s="68"/>
       <c r="O19" s="59"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="5"/>
@@ -1821,7 +1753,7 @@
     </row>
     <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1835,7 +1767,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="71"/>
+      <c r="N20" s="68"/>
       <c r="O20" s="59"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="5"/>
@@ -1853,7 +1785,7 @@
     </row>
     <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1867,7 +1799,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
-      <c r="N21" s="71"/>
+      <c r="N21" s="68"/>
       <c r="O21" s="59"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="5"/>
@@ -1885,7 +1817,7 @@
     </row>
     <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1899,7 +1831,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
-      <c r="N22" s="71"/>
+      <c r="N22" s="68"/>
       <c r="O22" s="59"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="5"/>
@@ -1917,7 +1849,7 @@
     </row>
     <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1931,7 +1863,7 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="71"/>
+      <c r="N23" s="68"/>
       <c r="O23" s="59"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="5"/>
@@ -1949,7 +1881,7 @@
     </row>
     <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1963,7 +1895,7 @@
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="71"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="59"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="5"/>
@@ -1981,7 +1913,7 @@
     </row>
     <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1995,7 +1927,7 @@
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
-      <c r="N25" s="71"/>
+      <c r="N25" s="68"/>
       <c r="O25" s="59"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="5"/>
@@ -2013,7 +1945,7 @@
     </row>
     <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2027,7 +1959,7 @@
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="71"/>
+      <c r="N26" s="68"/>
       <c r="O26" s="59"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="5"/>
@@ -2045,7 +1977,7 @@
     </row>
     <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2059,7 +1991,7 @@
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
-      <c r="N27" s="71"/>
+      <c r="N27" s="68"/>
       <c r="O27" s="59"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="5"/>
@@ -2077,7 +2009,7 @@
     </row>
     <row r="28" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2091,7 +2023,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
-      <c r="N28" s="71"/>
+      <c r="N28" s="68"/>
       <c r="O28" s="59"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="5"/>
@@ -2109,7 +2041,7 @@
     </row>
     <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2123,7 +2055,7 @@
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
-      <c r="N29" s="71"/>
+      <c r="N29" s="68"/>
       <c r="O29" s="59"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="5"/>
@@ -2141,7 +2073,7 @@
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2155,7 +2087,7 @@
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
-      <c r="N30" s="71"/>
+      <c r="N30" s="68"/>
       <c r="O30" s="59"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="5"/>
@@ -2173,7 +2105,7 @@
     </row>
     <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2187,7 +2119,7 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
-      <c r="N31" s="71"/>
+      <c r="N31" s="68"/>
       <c r="O31" s="59"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="5"/>
@@ -2205,7 +2137,7 @@
     </row>
     <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2219,7 +2151,7 @@
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
-      <c r="N32" s="71"/>
+      <c r="N32" s="68"/>
       <c r="O32" s="59"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="5"/>
@@ -2237,7 +2169,7 @@
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2251,7 +2183,7 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="71"/>
+      <c r="N33" s="68"/>
       <c r="O33" s="59"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="5"/>
@@ -2269,7 +2201,7 @@
     </row>
     <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2283,7 +2215,7 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="71"/>
+      <c r="N34" s="68"/>
       <c r="O34" s="59"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="5"/>
@@ -2301,7 +2233,7 @@
     </row>
     <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2315,7 +2247,7 @@
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
-      <c r="N35" s="71"/>
+      <c r="N35" s="68"/>
       <c r="O35" s="59"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="5"/>
@@ -2333,7 +2265,7 @@
     </row>
     <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2347,7 +2279,7 @@
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
-      <c r="N36" s="71"/>
+      <c r="N36" s="68"/>
       <c r="O36" s="59"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="5"/>
@@ -2364,10 +2296,10 @@
       <c r="AB36" s="5"/>
     </row>
     <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>32</v>
-      </c>
-      <c r="B37" s="22"/>
+      <c r="A37" s="10">
+        <v>34</v>
+      </c>
+      <c r="B37" s="55"/>
       <c r="C37" s="22"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
@@ -2379,7 +2311,7 @@
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
-      <c r="N37" s="71"/>
+      <c r="N37" s="68"/>
       <c r="O37" s="59"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="5"/>
@@ -2396,10 +2328,10 @@
       <c r="AB37" s="5"/>
     </row>
     <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>33</v>
-      </c>
-      <c r="B38" s="22"/>
+      <c r="A38" s="1">
+        <v>35</v>
+      </c>
+      <c r="B38" s="56"/>
       <c r="C38" s="22"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
@@ -2411,7 +2343,7 @@
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
-      <c r="N38" s="71"/>
+      <c r="N38" s="68"/>
       <c r="O38" s="59"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="5"/>
@@ -2428,10 +2360,10 @@
       <c r="AB38" s="5"/>
     </row>
     <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>34</v>
-      </c>
-      <c r="B39" s="55"/>
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="56"/>
       <c r="C39" s="22"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
@@ -2443,7 +2375,7 @@
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
-      <c r="N39" s="71"/>
+      <c r="N39" s="68"/>
       <c r="O39" s="59"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="5"/>
@@ -2461,7 +2393,7 @@
     </row>
     <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B40" s="56"/>
       <c r="C40" s="22"/>
@@ -2475,7 +2407,7 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="71"/>
+      <c r="N40" s="68"/>
       <c r="O40" s="59"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="5"/>
@@ -2493,7 +2425,7 @@
     </row>
     <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B41" s="56"/>
       <c r="C41" s="22"/>
@@ -2507,7 +2439,7 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="71"/>
+      <c r="N41" s="68"/>
       <c r="O41" s="59"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="5"/>
@@ -2525,7 +2457,7 @@
     </row>
     <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="56"/>
       <c r="C42" s="22"/>
@@ -2539,7 +2471,7 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="71"/>
+      <c r="N42" s="68"/>
       <c r="O42" s="59"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="5"/>
@@ -2557,7 +2489,7 @@
     </row>
     <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" s="56"/>
       <c r="C43" s="22"/>
@@ -2571,7 +2503,7 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
-      <c r="N43" s="71"/>
+      <c r="N43" s="68"/>
       <c r="O43" s="59"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="5"/>
@@ -2589,7 +2521,7 @@
     </row>
     <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B44" s="56"/>
       <c r="C44" s="22"/>
@@ -2603,7 +2535,7 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="71"/>
+      <c r="N44" s="68"/>
       <c r="O44" s="59"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="5"/>
@@ -2621,7 +2553,7 @@
     </row>
     <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45" s="56"/>
       <c r="C45" s="22"/>
@@ -2635,7 +2567,7 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="71"/>
+      <c r="N45" s="68"/>
       <c r="O45" s="59"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="5"/>
@@ -2653,7 +2585,7 @@
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" s="56"/>
       <c r="C46" s="22"/>
@@ -2667,7 +2599,7 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="71"/>
+      <c r="N46" s="68"/>
       <c r="O46" s="59"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="5"/>
@@ -2685,7 +2617,7 @@
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B47" s="56"/>
       <c r="C47" s="22"/>
@@ -2699,7 +2631,7 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
-      <c r="N47" s="71"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="59"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="5"/>
@@ -2717,7 +2649,7 @@
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48" s="56"/>
       <c r="C48" s="22"/>
@@ -2731,7 +2663,7 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
-      <c r="N48" s="71"/>
+      <c r="N48" s="68"/>
       <c r="O48" s="59"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="5"/>
@@ -2749,7 +2681,7 @@
     </row>
     <row r="49" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="56"/>
       <c r="C49" s="22"/>
@@ -2763,7 +2695,7 @@
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-      <c r="N49" s="71"/>
+      <c r="N49" s="68"/>
       <c r="O49" s="59"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="5"/>
@@ -2781,7 +2713,7 @@
     </row>
     <row r="50" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B50" s="56"/>
       <c r="C50" s="22"/>
@@ -2795,7 +2727,7 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="71"/>
+      <c r="N50" s="68"/>
       <c r="O50" s="59"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="5"/>
@@ -2813,7 +2745,7 @@
     </row>
     <row r="51" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51" s="56"/>
       <c r="C51" s="22"/>
@@ -2827,7 +2759,7 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="71"/>
+      <c r="N51" s="68"/>
       <c r="O51" s="59"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="5"/>
@@ -2845,7 +2777,7 @@
     </row>
     <row r="52" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B52" s="56"/>
       <c r="C52" s="22"/>
@@ -2859,7 +2791,7 @@
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="71"/>
+      <c r="N52" s="68"/>
       <c r="O52" s="59"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="5"/>
@@ -2877,7 +2809,7 @@
     </row>
     <row r="53" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B53" s="56"/>
       <c r="C53" s="22"/>
@@ -2891,7 +2823,7 @@
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="71"/>
+      <c r="N53" s="68"/>
       <c r="O53" s="59"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="5"/>
@@ -2909,7 +2841,7 @@
     </row>
     <row r="54" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B54" s="56"/>
       <c r="C54" s="22"/>
@@ -2923,7 +2855,7 @@
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="71"/>
+      <c r="N54" s="68"/>
       <c r="O54" s="59"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="5"/>
@@ -2941,7 +2873,7 @@
     </row>
     <row r="55" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="56"/>
       <c r="C55" s="22"/>
@@ -2955,7 +2887,7 @@
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
-      <c r="N55" s="71"/>
+      <c r="N55" s="68"/>
       <c r="O55" s="59"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="5"/>
@@ -2973,7 +2905,7 @@
     </row>
     <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="56"/>
       <c r="C56" s="22"/>
@@ -2987,7 +2919,7 @@
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
-      <c r="N56" s="71"/>
+      <c r="N56" s="68"/>
       <c r="O56" s="59"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="5"/>
@@ -3005,7 +2937,7 @@
     </row>
     <row r="57" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="56"/>
       <c r="C57" s="22"/>
@@ -3019,7 +2951,7 @@
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
-      <c r="N57" s="71"/>
+      <c r="N57" s="68"/>
       <c r="O57" s="59"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="5"/>
@@ -3037,7 +2969,7 @@
     </row>
     <row r="58" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B58" s="56"/>
       <c r="C58" s="22"/>
@@ -3051,7 +2983,7 @@
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
-      <c r="N58" s="71"/>
+      <c r="N58" s="68"/>
       <c r="O58" s="59"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="5"/>
@@ -3069,7 +3001,7 @@
     </row>
     <row r="59" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B59" s="56"/>
       <c r="C59" s="22"/>
@@ -3083,7 +3015,7 @@
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
-      <c r="N59" s="71"/>
+      <c r="N59" s="68"/>
       <c r="O59" s="59"/>
       <c r="P59" s="21"/>
       <c r="Q59" s="5"/>
@@ -3101,7 +3033,7 @@
     </row>
     <row r="60" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="56"/>
       <c r="C60" s="22"/>
@@ -3115,7 +3047,7 @@
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
-      <c r="N60" s="71"/>
+      <c r="N60" s="68"/>
       <c r="O60" s="59"/>
       <c r="P60" s="21"/>
       <c r="Q60" s="5"/>
@@ -3133,7 +3065,7 @@
     </row>
     <row r="61" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B61" s="56"/>
       <c r="C61" s="22"/>
@@ -3147,7 +3079,7 @@
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
-      <c r="N61" s="71"/>
+      <c r="N61" s="68"/>
       <c r="O61" s="59"/>
       <c r="P61" s="21"/>
       <c r="Q61" s="5"/>
@@ -3165,7 +3097,7 @@
     </row>
     <row r="62" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B62" s="56"/>
       <c r="C62" s="22"/>
@@ -3179,7 +3111,7 @@
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
-      <c r="N62" s="71"/>
+      <c r="N62" s="68"/>
       <c r="O62" s="59"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="5"/>
@@ -3197,7 +3129,7 @@
     </row>
     <row r="63" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="56"/>
       <c r="C63" s="22"/>
@@ -3211,7 +3143,7 @@
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
-      <c r="N63" s="71"/>
+      <c r="N63" s="68"/>
       <c r="O63" s="59"/>
       <c r="P63" s="21"/>
       <c r="Q63" s="5"/>
@@ -3229,7 +3161,7 @@
     </row>
     <row r="64" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="56"/>
       <c r="C64" s="22"/>
@@ -3243,7 +3175,7 @@
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
       <c r="M64" s="21"/>
-      <c r="N64" s="71"/>
+      <c r="N64" s="68"/>
       <c r="O64" s="59"/>
       <c r="P64" s="21"/>
       <c r="Q64" s="5"/>
@@ -3261,7 +3193,7 @@
     </row>
     <row r="65" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="56"/>
       <c r="C65" s="22"/>
@@ -3275,7 +3207,7 @@
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
       <c r="M65" s="21"/>
-      <c r="N65" s="71"/>
+      <c r="N65" s="68"/>
       <c r="O65" s="59"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="5"/>
@@ -3293,7 +3225,7 @@
     </row>
     <row r="66" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="56"/>
       <c r="C66" s="22"/>
@@ -3307,7 +3239,7 @@
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="21"/>
-      <c r="N66" s="71"/>
+      <c r="N66" s="68"/>
       <c r="O66" s="59"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="5"/>
@@ -3325,7 +3257,7 @@
     </row>
     <row r="67" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="56"/>
       <c r="C67" s="22"/>
@@ -3339,7 +3271,7 @@
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="21"/>
-      <c r="N67" s="71"/>
+      <c r="N67" s="68"/>
       <c r="O67" s="59"/>
       <c r="P67" s="21"/>
       <c r="Q67" s="5"/>
@@ -3357,7 +3289,7 @@
     </row>
     <row r="68" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="22"/>
@@ -3371,7 +3303,7 @@
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
       <c r="M68" s="21"/>
-      <c r="N68" s="71"/>
+      <c r="N68" s="68"/>
       <c r="O68" s="59"/>
       <c r="P68" s="21"/>
       <c r="Q68" s="5"/>
@@ -3389,7 +3321,7 @@
     </row>
     <row r="69" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="22"/>
@@ -3403,7 +3335,7 @@
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
       <c r="M69" s="21"/>
-      <c r="N69" s="71"/>
+      <c r="N69" s="68"/>
       <c r="O69" s="59"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="5"/>
@@ -3421,7 +3353,7 @@
     </row>
     <row r="70" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="22"/>
@@ -3435,7 +3367,7 @@
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
       <c r="M70" s="21"/>
-      <c r="N70" s="71"/>
+      <c r="N70" s="68"/>
       <c r="O70" s="59"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="5"/>
@@ -3453,7 +3385,7 @@
     </row>
     <row r="71" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="22"/>
@@ -3467,7 +3399,7 @@
       <c r="K71" s="21"/>
       <c r="L71" s="21"/>
       <c r="M71" s="21"/>
-      <c r="N71" s="71"/>
+      <c r="N71" s="68"/>
       <c r="O71" s="59"/>
       <c r="P71" s="21"/>
       <c r="Q71" s="5"/>
@@ -3485,7 +3417,7 @@
     </row>
     <row r="72" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="56"/>
       <c r="C72" s="22"/>
@@ -3499,7 +3431,7 @@
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
       <c r="M72" s="21"/>
-      <c r="N72" s="71"/>
+      <c r="N72" s="68"/>
       <c r="O72" s="59"/>
       <c r="P72" s="21"/>
       <c r="Q72" s="5"/>
@@ -3517,7 +3449,7 @@
     </row>
     <row r="73" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="56"/>
       <c r="C73" s="22"/>
@@ -3531,7 +3463,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="21"/>
-      <c r="N73" s="71"/>
+      <c r="N73" s="68"/>
       <c r="O73" s="59"/>
       <c r="P73" s="21"/>
       <c r="Q73" s="5"/>
@@ -3549,7 +3481,7 @@
     </row>
     <row r="74" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B74" s="56"/>
       <c r="C74" s="22"/>
@@ -3563,7 +3495,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
       <c r="M74" s="21"/>
-      <c r="N74" s="71"/>
+      <c r="N74" s="68"/>
       <c r="O74" s="59"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="5"/>
@@ -3581,7 +3513,7 @@
     </row>
     <row r="75" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="22"/>
@@ -3595,7 +3527,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="21"/>
-      <c r="N75" s="71"/>
+      <c r="N75" s="68"/>
       <c r="O75" s="59"/>
       <c r="P75" s="21"/>
       <c r="Q75" s="5"/>
@@ -3613,7 +3545,7 @@
     </row>
     <row r="76" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B76" s="56"/>
       <c r="C76" s="22"/>
@@ -3627,7 +3559,7 @@
       <c r="K76" s="21"/>
       <c r="L76" s="21"/>
       <c r="M76" s="21"/>
-      <c r="N76" s="71"/>
+      <c r="N76" s="68"/>
       <c r="O76" s="59"/>
       <c r="P76" s="21"/>
       <c r="Q76" s="5"/>
@@ -3645,7 +3577,7 @@
     </row>
     <row r="77" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" s="56"/>
       <c r="C77" s="22"/>
@@ -3659,7 +3591,7 @@
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
       <c r="M77" s="21"/>
-      <c r="N77" s="71"/>
+      <c r="N77" s="68"/>
       <c r="O77" s="59"/>
       <c r="P77" s="21"/>
       <c r="Q77" s="5"/>
@@ -3677,7 +3609,7 @@
     </row>
     <row r="78" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B78" s="56"/>
       <c r="C78" s="22"/>
@@ -3691,7 +3623,7 @@
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
       <c r="M78" s="21"/>
-      <c r="N78" s="71"/>
+      <c r="N78" s="68"/>
       <c r="O78" s="59"/>
       <c r="P78" s="21"/>
       <c r="Q78" s="5"/>
@@ -3709,7 +3641,7 @@
     </row>
     <row r="79" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B79" s="56"/>
       <c r="C79" s="22"/>
@@ -3723,7 +3655,7 @@
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
       <c r="M79" s="21"/>
-      <c r="N79" s="71"/>
+      <c r="N79" s="68"/>
       <c r="O79" s="59"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="5"/>
@@ -3741,7 +3673,7 @@
     </row>
     <row r="80" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" s="56"/>
       <c r="C80" s="22"/>
@@ -3755,7 +3687,7 @@
       <c r="K80" s="21"/>
       <c r="L80" s="21"/>
       <c r="M80" s="21"/>
-      <c r="N80" s="71"/>
+      <c r="N80" s="68"/>
       <c r="O80" s="59"/>
       <c r="P80" s="21"/>
       <c r="Q80" s="5"/>
@@ -3773,7 +3705,7 @@
     </row>
     <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B81" s="56"/>
       <c r="C81" s="22"/>
@@ -3787,7 +3719,7 @@
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
       <c r="M81" s="21"/>
-      <c r="N81" s="71"/>
+      <c r="N81" s="68"/>
       <c r="O81" s="59"/>
       <c r="P81" s="21"/>
       <c r="Q81" s="5"/>
@@ -3805,7 +3737,7 @@
     </row>
     <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="56"/>
       <c r="C82" s="22"/>
@@ -3819,7 +3751,7 @@
       <c r="K82" s="21"/>
       <c r="L82" s="21"/>
       <c r="M82" s="21"/>
-      <c r="N82" s="71"/>
+      <c r="N82" s="68"/>
       <c r="O82" s="59"/>
       <c r="P82" s="21"/>
       <c r="Q82" s="5"/>
@@ -3837,7 +3769,7 @@
     </row>
     <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="56"/>
       <c r="C83" s="22"/>
@@ -3851,7 +3783,7 @@
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
       <c r="M83" s="21"/>
-      <c r="N83" s="71"/>
+      <c r="N83" s="68"/>
       <c r="O83" s="59"/>
       <c r="P83" s="21"/>
       <c r="Q83" s="5"/>
@@ -3869,7 +3801,7 @@
     </row>
     <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B84" s="56"/>
       <c r="C84" s="22"/>
@@ -3883,7 +3815,7 @@
       <c r="K84" s="21"/>
       <c r="L84" s="21"/>
       <c r="M84" s="21"/>
-      <c r="N84" s="71"/>
+      <c r="N84" s="68"/>
       <c r="O84" s="59"/>
       <c r="P84" s="21"/>
       <c r="Q84" s="5"/>
@@ -3901,7 +3833,7 @@
     </row>
     <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B85" s="56"/>
       <c r="C85" s="22"/>
@@ -3915,7 +3847,7 @@
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
       <c r="M85" s="21"/>
-      <c r="N85" s="71"/>
+      <c r="N85" s="68"/>
       <c r="O85" s="59"/>
       <c r="P85" s="21"/>
       <c r="Q85" s="5"/>
@@ -3933,7 +3865,7 @@
     </row>
     <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B86" s="56"/>
       <c r="C86" s="22"/>
@@ -3947,7 +3879,7 @@
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
       <c r="M86" s="21"/>
-      <c r="N86" s="71"/>
+      <c r="N86" s="68"/>
       <c r="O86" s="59"/>
       <c r="P86" s="21"/>
       <c r="Q86" s="5"/>
@@ -3965,7 +3897,7 @@
     </row>
     <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="56"/>
       <c r="C87" s="22"/>
@@ -3979,7 +3911,7 @@
       <c r="K87" s="21"/>
       <c r="L87" s="21"/>
       <c r="M87" s="21"/>
-      <c r="N87" s="71"/>
+      <c r="N87" s="68"/>
       <c r="O87" s="59"/>
       <c r="P87" s="21"/>
       <c r="Q87" s="5"/>
@@ -3997,7 +3929,7 @@
     </row>
     <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B88" s="56"/>
       <c r="C88" s="22"/>
@@ -4011,7 +3943,7 @@
       <c r="K88" s="21"/>
       <c r="L88" s="21"/>
       <c r="M88" s="21"/>
-      <c r="N88" s="71"/>
+      <c r="N88" s="68"/>
       <c r="O88" s="59"/>
       <c r="P88" s="21"/>
       <c r="Q88" s="5"/>
@@ -4029,7 +3961,7 @@
     </row>
     <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B89" s="56"/>
       <c r="C89" s="22"/>
@@ -4043,7 +3975,7 @@
       <c r="K89" s="21"/>
       <c r="L89" s="21"/>
       <c r="M89" s="21"/>
-      <c r="N89" s="71"/>
+      <c r="N89" s="68"/>
       <c r="O89" s="59"/>
       <c r="P89" s="21"/>
       <c r="Q89" s="5"/>
@@ -4061,7 +3993,7 @@
     </row>
     <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B90" s="56"/>
       <c r="C90" s="22"/>
@@ -4075,7 +4007,7 @@
       <c r="K90" s="21"/>
       <c r="L90" s="21"/>
       <c r="M90" s="21"/>
-      <c r="N90" s="71"/>
+      <c r="N90" s="68"/>
       <c r="O90" s="59"/>
       <c r="P90" s="21"/>
       <c r="Q90" s="5"/>
@@ -4093,7 +4025,7 @@
     </row>
     <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B91" s="56"/>
       <c r="C91" s="22"/>
@@ -4107,7 +4039,7 @@
       <c r="K91" s="21"/>
       <c r="L91" s="21"/>
       <c r="M91" s="21"/>
-      <c r="N91" s="71"/>
+      <c r="N91" s="68"/>
       <c r="O91" s="59"/>
       <c r="P91" s="21"/>
       <c r="Q91" s="5"/>
@@ -4125,7 +4057,7 @@
     </row>
     <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B92" s="56"/>
       <c r="C92" s="22"/>
@@ -4139,7 +4071,7 @@
       <c r="K92" s="21"/>
       <c r="L92" s="21"/>
       <c r="M92" s="21"/>
-      <c r="N92" s="71"/>
+      <c r="N92" s="68"/>
       <c r="O92" s="59"/>
       <c r="P92" s="21"/>
       <c r="Q92" s="5"/>
@@ -4157,7 +4089,7 @@
     </row>
     <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B93" s="56"/>
       <c r="C93" s="22"/>
@@ -4171,7 +4103,7 @@
       <c r="K93" s="21"/>
       <c r="L93" s="21"/>
       <c r="M93" s="21"/>
-      <c r="N93" s="71"/>
+      <c r="N93" s="68"/>
       <c r="O93" s="59"/>
       <c r="P93" s="21"/>
       <c r="Q93" s="5"/>
@@ -4189,7 +4121,7 @@
     </row>
     <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B94" s="56"/>
       <c r="C94" s="22"/>
@@ -4203,7 +4135,7 @@
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
       <c r="M94" s="21"/>
-      <c r="N94" s="71"/>
+      <c r="N94" s="68"/>
       <c r="O94" s="59"/>
       <c r="P94" s="21"/>
       <c r="Q94" s="5"/>
@@ -4221,7 +4153,7 @@
     </row>
     <row r="95" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B95" s="56"/>
       <c r="C95" s="22"/>
@@ -4235,7 +4167,7 @@
       <c r="K95" s="21"/>
       <c r="L95" s="21"/>
       <c r="M95" s="21"/>
-      <c r="N95" s="71"/>
+      <c r="N95" s="68"/>
       <c r="O95" s="59"/>
       <c r="P95" s="21"/>
       <c r="Q95" s="5"/>
@@ -4253,7 +4185,7 @@
     </row>
     <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B96" s="56"/>
       <c r="C96" s="22"/>
@@ -4267,7 +4199,7 @@
       <c r="K96" s="21"/>
       <c r="L96" s="21"/>
       <c r="M96" s="21"/>
-      <c r="N96" s="71"/>
+      <c r="N96" s="68"/>
       <c r="O96" s="59"/>
       <c r="P96" s="21"/>
       <c r="Q96" s="5"/>
@@ -4285,7 +4217,7 @@
     </row>
     <row r="97" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B97" s="56"/>
       <c r="C97" s="22"/>
@@ -4299,7 +4231,7 @@
       <c r="K97" s="21"/>
       <c r="L97" s="21"/>
       <c r="M97" s="21"/>
-      <c r="N97" s="71"/>
+      <c r="N97" s="68"/>
       <c r="O97" s="59"/>
       <c r="P97" s="21"/>
       <c r="Q97" s="5"/>
@@ -4317,7 +4249,7 @@
     </row>
     <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="56"/>
       <c r="C98" s="22"/>
@@ -4331,7 +4263,7 @@
       <c r="K98" s="21"/>
       <c r="L98" s="21"/>
       <c r="M98" s="21"/>
-      <c r="N98" s="71"/>
+      <c r="N98" s="68"/>
       <c r="O98" s="59"/>
       <c r="P98" s="21"/>
       <c r="Q98" s="5"/>
@@ -4349,7 +4281,7 @@
     </row>
     <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="56"/>
       <c r="C99" s="22"/>
@@ -4363,7 +4295,7 @@
       <c r="K99" s="21"/>
       <c r="L99" s="21"/>
       <c r="M99" s="21"/>
-      <c r="N99" s="71"/>
+      <c r="N99" s="68"/>
       <c r="O99" s="59"/>
       <c r="P99" s="21"/>
       <c r="Q99" s="5"/>
@@ -4381,7 +4313,7 @@
     </row>
     <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B100" s="56"/>
       <c r="C100" s="22"/>
@@ -4395,7 +4327,7 @@
       <c r="K100" s="21"/>
       <c r="L100" s="21"/>
       <c r="M100" s="21"/>
-      <c r="N100" s="71"/>
+      <c r="N100" s="68"/>
       <c r="O100" s="59"/>
       <c r="P100" s="21"/>
       <c r="Q100" s="5"/>
@@ -4413,7 +4345,7 @@
     </row>
     <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="56"/>
       <c r="C101" s="22"/>
@@ -4427,7 +4359,7 @@
       <c r="K101" s="21"/>
       <c r="L101" s="21"/>
       <c r="M101" s="21"/>
-      <c r="N101" s="71"/>
+      <c r="N101" s="68"/>
       <c r="O101" s="59"/>
       <c r="P101" s="21"/>
       <c r="Q101" s="5"/>
@@ -4445,7 +4377,7 @@
     </row>
     <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B102" s="56"/>
       <c r="C102" s="22"/>
@@ -4459,7 +4391,7 @@
       <c r="K102" s="21"/>
       <c r="L102" s="21"/>
       <c r="M102" s="21"/>
-      <c r="N102" s="71"/>
+      <c r="N102" s="68"/>
       <c r="O102" s="59"/>
       <c r="P102" s="21"/>
       <c r="Q102" s="5"/>
@@ -4477,7 +4409,7 @@
     </row>
     <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B103" s="56"/>
       <c r="C103" s="22"/>
@@ -4491,7 +4423,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="21"/>
       <c r="M103" s="21"/>
-      <c r="N103" s="71"/>
+      <c r="N103" s="68"/>
       <c r="O103" s="59"/>
       <c r="P103" s="21"/>
       <c r="Q103" s="5"/>
@@ -4509,7 +4441,7 @@
     </row>
     <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="56"/>
       <c r="C104" s="22"/>
@@ -4523,7 +4455,7 @@
       <c r="K104" s="21"/>
       <c r="L104" s="21"/>
       <c r="M104" s="21"/>
-      <c r="N104" s="71"/>
+      <c r="N104" s="68"/>
       <c r="O104" s="59"/>
       <c r="P104" s="21"/>
       <c r="Q104" s="5"/>
@@ -4541,7 +4473,7 @@
     </row>
     <row r="105" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="56"/>
       <c r="C105" s="22"/>
@@ -4555,7 +4487,7 @@
       <c r="K105" s="21"/>
       <c r="L105" s="21"/>
       <c r="M105" s="21"/>
-      <c r="N105" s="71"/>
+      <c r="N105" s="68"/>
       <c r="O105" s="59"/>
       <c r="P105" s="21"/>
       <c r="Q105" s="5"/>
@@ -4573,7 +4505,7 @@
     </row>
     <row r="106" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="56"/>
       <c r="C106" s="22"/>
@@ -4587,7 +4519,7 @@
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
       <c r="M106" s="21"/>
-      <c r="N106" s="71"/>
+      <c r="N106" s="68"/>
       <c r="O106" s="59"/>
       <c r="P106" s="21"/>
       <c r="Q106" s="5"/>
@@ -4605,7 +4537,7 @@
     </row>
     <row r="107" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B107" s="56"/>
       <c r="C107" s="22"/>
@@ -4619,7 +4551,7 @@
       <c r="K107" s="21"/>
       <c r="L107" s="21"/>
       <c r="M107" s="21"/>
-      <c r="N107" s="71"/>
+      <c r="N107" s="68"/>
       <c r="O107" s="59"/>
       <c r="P107" s="21"/>
       <c r="Q107" s="5"/>
@@ -4637,7 +4569,7 @@
     </row>
     <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="56"/>
       <c r="C108" s="22"/>
@@ -4651,7 +4583,7 @@
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
-      <c r="N108" s="71"/>
+      <c r="N108" s="68"/>
       <c r="O108" s="59"/>
       <c r="P108" s="21"/>
       <c r="Q108" s="5"/>
@@ -4669,7 +4601,7 @@
     </row>
     <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B109" s="56"/>
       <c r="C109" s="22"/>
@@ -4683,7 +4615,7 @@
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
       <c r="M109" s="21"/>
-      <c r="N109" s="71"/>
+      <c r="N109" s="68"/>
       <c r="O109" s="59"/>
       <c r="P109" s="21"/>
       <c r="Q109" s="5"/>
@@ -4701,7 +4633,7 @@
     </row>
     <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="56"/>
       <c r="C110" s="22"/>
@@ -4715,7 +4647,7 @@
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
       <c r="M110" s="21"/>
-      <c r="N110" s="71"/>
+      <c r="N110" s="68"/>
       <c r="O110" s="59"/>
       <c r="P110" s="21"/>
       <c r="Q110" s="5"/>
@@ -4733,7 +4665,7 @@
     </row>
     <row r="111" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B111" s="56"/>
       <c r="C111" s="22"/>
@@ -4747,7 +4679,7 @@
       <c r="K111" s="21"/>
       <c r="L111" s="21"/>
       <c r="M111" s="21"/>
-      <c r="N111" s="71"/>
+      <c r="N111" s="68"/>
       <c r="O111" s="59"/>
       <c r="P111" s="21"/>
       <c r="Q111" s="5"/>
@@ -4765,7 +4697,7 @@
     </row>
     <row r="112" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B112" s="56"/>
       <c r="C112" s="22"/>
@@ -4779,7 +4711,7 @@
       <c r="K112" s="21"/>
       <c r="L112" s="21"/>
       <c r="M112" s="21"/>
-      <c r="N112" s="71"/>
+      <c r="N112" s="68"/>
       <c r="O112" s="59"/>
       <c r="P112" s="21"/>
       <c r="Q112" s="5"/>
@@ -4797,7 +4729,7 @@
     </row>
     <row r="113" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B113" s="56"/>
       <c r="C113" s="22"/>
@@ -4811,7 +4743,7 @@
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
       <c r="M113" s="21"/>
-      <c r="N113" s="71"/>
+      <c r="N113" s="68"/>
       <c r="O113" s="59"/>
       <c r="P113" s="21"/>
       <c r="Q113" s="5"/>
@@ -4829,7 +4761,7 @@
     </row>
     <row r="114" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B114" s="56"/>
       <c r="C114" s="22"/>
@@ -4843,7 +4775,7 @@
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
       <c r="M114" s="21"/>
-      <c r="N114" s="71"/>
+      <c r="N114" s="68"/>
       <c r="O114" s="59"/>
       <c r="P114" s="21"/>
       <c r="Q114" s="5"/>
@@ -4861,7 +4793,7 @@
     </row>
     <row r="115" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B115" s="56"/>
       <c r="C115" s="22"/>
@@ -4875,7 +4807,7 @@
       <c r="K115" s="21"/>
       <c r="L115" s="21"/>
       <c r="M115" s="21"/>
-      <c r="N115" s="71"/>
+      <c r="N115" s="68"/>
       <c r="O115" s="59"/>
       <c r="P115" s="21"/>
       <c r="Q115" s="5"/>
@@ -4893,7 +4825,7 @@
     </row>
     <row r="116" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="56"/>
       <c r="C116" s="22"/>
@@ -4907,7 +4839,7 @@
       <c r="K116" s="21"/>
       <c r="L116" s="21"/>
       <c r="M116" s="21"/>
-      <c r="N116" s="71"/>
+      <c r="N116" s="68"/>
       <c r="O116" s="59"/>
       <c r="P116" s="21"/>
       <c r="Q116" s="5"/>
@@ -4925,7 +4857,7 @@
     </row>
     <row r="117" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="56"/>
       <c r="C117" s="22"/>
@@ -4939,7 +4871,7 @@
       <c r="K117" s="21"/>
       <c r="L117" s="21"/>
       <c r="M117" s="21"/>
-      <c r="N117" s="71"/>
+      <c r="N117" s="68"/>
       <c r="O117" s="59"/>
       <c r="P117" s="21"/>
       <c r="Q117" s="5"/>
@@ -4957,7 +4889,7 @@
     </row>
     <row r="118" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="56"/>
       <c r="C118" s="22"/>
@@ -4971,7 +4903,7 @@
       <c r="K118" s="21"/>
       <c r="L118" s="21"/>
       <c r="M118" s="21"/>
-      <c r="N118" s="71"/>
+      <c r="N118" s="68"/>
       <c r="O118" s="59"/>
       <c r="P118" s="21"/>
       <c r="Q118" s="5"/>
@@ -4989,7 +4921,7 @@
     </row>
     <row r="119" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="56"/>
       <c r="C119" s="22"/>
@@ -5003,7 +4935,7 @@
       <c r="K119" s="21"/>
       <c r="L119" s="21"/>
       <c r="M119" s="21"/>
-      <c r="N119" s="71"/>
+      <c r="N119" s="68"/>
       <c r="O119" s="59"/>
       <c r="P119" s="21"/>
       <c r="Q119" s="5"/>
@@ -5021,7 +4953,7 @@
     </row>
     <row r="120" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="56"/>
       <c r="C120" s="22"/>
@@ -5035,7 +4967,7 @@
       <c r="K120" s="21"/>
       <c r="L120" s="21"/>
       <c r="M120" s="21"/>
-      <c r="N120" s="71"/>
+      <c r="N120" s="68"/>
       <c r="O120" s="59"/>
       <c r="P120" s="21"/>
       <c r="Q120" s="5"/>
@@ -5053,7 +4985,7 @@
     </row>
     <row r="121" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="56"/>
       <c r="C121" s="22"/>
@@ -5067,7 +4999,7 @@
       <c r="K121" s="21"/>
       <c r="L121" s="21"/>
       <c r="M121" s="21"/>
-      <c r="N121" s="71"/>
+      <c r="N121" s="68"/>
       <c r="O121" s="59"/>
       <c r="P121" s="21"/>
       <c r="Q121" s="5"/>
@@ -5085,7 +5017,7 @@
     </row>
     <row r="122" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B122" s="56"/>
       <c r="C122" s="22"/>
@@ -5099,7 +5031,7 @@
       <c r="K122" s="21"/>
       <c r="L122" s="21"/>
       <c r="M122" s="21"/>
-      <c r="N122" s="71"/>
+      <c r="N122" s="68"/>
       <c r="O122" s="59"/>
       <c r="P122" s="21"/>
       <c r="Q122" s="5"/>
@@ -5117,7 +5049,7 @@
     </row>
     <row r="123" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B123" s="56"/>
       <c r="C123" s="22"/>
@@ -5131,7 +5063,7 @@
       <c r="K123" s="21"/>
       <c r="L123" s="21"/>
       <c r="M123" s="21"/>
-      <c r="N123" s="71"/>
+      <c r="N123" s="68"/>
       <c r="O123" s="59"/>
       <c r="P123" s="21"/>
       <c r="Q123" s="5"/>
@@ -5149,7 +5081,7 @@
     </row>
     <row r="124" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="56"/>
       <c r="C124" s="22"/>
@@ -5163,7 +5095,7 @@
       <c r="K124" s="21"/>
       <c r="L124" s="21"/>
       <c r="M124" s="21"/>
-      <c r="N124" s="71"/>
+      <c r="N124" s="68"/>
       <c r="O124" s="59"/>
       <c r="P124" s="21"/>
       <c r="Q124" s="5"/>
@@ -5181,7 +5113,7 @@
     </row>
     <row r="125" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B125" s="56"/>
       <c r="C125" s="22"/>
@@ -5195,7 +5127,7 @@
       <c r="K125" s="21"/>
       <c r="L125" s="21"/>
       <c r="M125" s="21"/>
-      <c r="N125" s="71"/>
+      <c r="N125" s="68"/>
       <c r="O125" s="59"/>
       <c r="P125" s="21"/>
       <c r="Q125" s="5"/>
@@ -5213,7 +5145,7 @@
     </row>
     <row r="126" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B126" s="56"/>
       <c r="C126" s="22"/>
@@ -5227,7 +5159,7 @@
       <c r="K126" s="21"/>
       <c r="L126" s="21"/>
       <c r="M126" s="21"/>
-      <c r="N126" s="71"/>
+      <c r="N126" s="68"/>
       <c r="O126" s="59"/>
       <c r="P126" s="21"/>
       <c r="Q126" s="5"/>
@@ -5245,7 +5177,7 @@
     </row>
     <row r="127" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B127" s="56"/>
       <c r="C127" s="22"/>
@@ -5259,7 +5191,7 @@
       <c r="K127" s="21"/>
       <c r="L127" s="21"/>
       <c r="M127" s="21"/>
-      <c r="N127" s="71"/>
+      <c r="N127" s="68"/>
       <c r="O127" s="59"/>
       <c r="P127" s="21"/>
       <c r="Q127" s="5"/>
@@ -5277,7 +5209,7 @@
     </row>
     <row r="128" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B128" s="56"/>
       <c r="C128" s="22"/>
@@ -5291,7 +5223,7 @@
       <c r="K128" s="21"/>
       <c r="L128" s="21"/>
       <c r="M128" s="21"/>
-      <c r="N128" s="71"/>
+      <c r="N128" s="68"/>
       <c r="O128" s="59"/>
       <c r="P128" s="21"/>
       <c r="Q128" s="5"/>
@@ -5309,7 +5241,7 @@
     </row>
     <row r="129" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B129" s="56"/>
       <c r="C129" s="22"/>
@@ -5323,7 +5255,7 @@
       <c r="K129" s="21"/>
       <c r="L129" s="21"/>
       <c r="M129" s="21"/>
-      <c r="N129" s="71"/>
+      <c r="N129" s="68"/>
       <c r="O129" s="59"/>
       <c r="P129" s="21"/>
       <c r="Q129" s="5"/>
@@ -5341,7 +5273,7 @@
     </row>
     <row r="130" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B130" s="56"/>
       <c r="C130" s="22"/>
@@ -5355,7 +5287,7 @@
       <c r="K130" s="21"/>
       <c r="L130" s="21"/>
       <c r="M130" s="21"/>
-      <c r="N130" s="71"/>
+      <c r="N130" s="68"/>
       <c r="O130" s="59"/>
       <c r="P130" s="21"/>
       <c r="Q130" s="5"/>
@@ -5373,7 +5305,7 @@
     </row>
     <row r="131" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B131" s="56"/>
       <c r="C131" s="22"/>
@@ -5387,7 +5319,7 @@
       <c r="K131" s="21"/>
       <c r="L131" s="21"/>
       <c r="M131" s="21"/>
-      <c r="N131" s="71"/>
+      <c r="N131" s="68"/>
       <c r="O131" s="59"/>
       <c r="P131" s="21"/>
       <c r="Q131" s="5"/>
@@ -5405,7 +5337,7 @@
     </row>
     <row r="132" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B132" s="56"/>
       <c r="C132" s="22"/>
@@ -5419,7 +5351,7 @@
       <c r="K132" s="21"/>
       <c r="L132" s="21"/>
       <c r="M132" s="21"/>
-      <c r="N132" s="71"/>
+      <c r="N132" s="68"/>
       <c r="O132" s="59"/>
       <c r="P132" s="21"/>
       <c r="Q132" s="5"/>
@@ -5437,7 +5369,7 @@
     </row>
     <row r="133" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" s="56"/>
       <c r="C133" s="22"/>
@@ -5451,7 +5383,7 @@
       <c r="K133" s="21"/>
       <c r="L133" s="21"/>
       <c r="M133" s="21"/>
-      <c r="N133" s="71"/>
+      <c r="N133" s="68"/>
       <c r="O133" s="59"/>
       <c r="P133" s="21"/>
       <c r="Q133" s="5"/>
@@ -5469,7 +5401,7 @@
     </row>
     <row r="134" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" s="56"/>
       <c r="C134" s="22"/>
@@ -5483,7 +5415,7 @@
       <c r="K134" s="21"/>
       <c r="L134" s="21"/>
       <c r="M134" s="21"/>
-      <c r="N134" s="71"/>
+      <c r="N134" s="68"/>
       <c r="O134" s="59"/>
       <c r="P134" s="21"/>
       <c r="Q134" s="5"/>
@@ -5501,7 +5433,7 @@
     </row>
     <row r="135" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" s="56"/>
       <c r="C135" s="22"/>
@@ -5515,7 +5447,7 @@
       <c r="K135" s="21"/>
       <c r="L135" s="21"/>
       <c r="M135" s="21"/>
-      <c r="N135" s="71"/>
+      <c r="N135" s="68"/>
       <c r="O135" s="59"/>
       <c r="P135" s="21"/>
       <c r="Q135" s="5"/>
@@ -5533,7 +5465,7 @@
     </row>
     <row r="136" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="56"/>
       <c r="C136" s="22"/>
@@ -5547,7 +5479,7 @@
       <c r="K136" s="21"/>
       <c r="L136" s="21"/>
       <c r="M136" s="21"/>
-      <c r="N136" s="71"/>
+      <c r="N136" s="68"/>
       <c r="O136" s="59"/>
       <c r="P136" s="21"/>
       <c r="Q136" s="5"/>
@@ -5565,7 +5497,7 @@
     </row>
     <row r="137" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B137" s="56"/>
       <c r="C137" s="22"/>
@@ -5579,7 +5511,7 @@
       <c r="K137" s="21"/>
       <c r="L137" s="21"/>
       <c r="M137" s="21"/>
-      <c r="N137" s="71"/>
+      <c r="N137" s="68"/>
       <c r="O137" s="59"/>
       <c r="P137" s="21"/>
       <c r="Q137" s="5"/>
@@ -5597,7 +5529,7 @@
     </row>
     <row r="138" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="56"/>
       <c r="C138" s="22"/>
@@ -5611,7 +5543,7 @@
       <c r="K138" s="21"/>
       <c r="L138" s="21"/>
       <c r="M138" s="21"/>
-      <c r="N138" s="71"/>
+      <c r="N138" s="68"/>
       <c r="O138" s="59"/>
       <c r="P138" s="21"/>
       <c r="Q138" s="5"/>
@@ -5629,7 +5561,7 @@
     </row>
     <row r="139" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B139" s="56"/>
       <c r="C139" s="22"/>
@@ -5643,7 +5575,7 @@
       <c r="K139" s="21"/>
       <c r="L139" s="21"/>
       <c r="M139" s="21"/>
-      <c r="N139" s="71"/>
+      <c r="N139" s="68"/>
       <c r="O139" s="59"/>
       <c r="P139" s="21"/>
       <c r="Q139" s="5"/>
@@ -5661,7 +5593,7 @@
     </row>
     <row r="140" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="56"/>
       <c r="C140" s="22"/>
@@ -5675,7 +5607,7 @@
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
       <c r="M140" s="21"/>
-      <c r="N140" s="71"/>
+      <c r="N140" s="68"/>
       <c r="O140" s="59"/>
       <c r="P140" s="21"/>
       <c r="Q140" s="5"/>
@@ -5693,7 +5625,7 @@
     </row>
     <row r="141" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B141" s="56"/>
       <c r="C141" s="22"/>
@@ -5707,7 +5639,7 @@
       <c r="K141" s="21"/>
       <c r="L141" s="21"/>
       <c r="M141" s="21"/>
-      <c r="N141" s="71"/>
+      <c r="N141" s="68"/>
       <c r="O141" s="59"/>
       <c r="P141" s="21"/>
       <c r="Q141" s="5"/>
@@ -5725,7 +5657,7 @@
     </row>
     <row r="142" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B142" s="56"/>
       <c r="C142" s="22"/>
@@ -5739,7 +5671,7 @@
       <c r="K142" s="21"/>
       <c r="L142" s="21"/>
       <c r="M142" s="21"/>
-      <c r="N142" s="71"/>
+      <c r="N142" s="68"/>
       <c r="O142" s="59"/>
       <c r="P142" s="21"/>
       <c r="Q142" s="5"/>
@@ -5757,7 +5689,7 @@
     </row>
     <row r="143" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="56"/>
       <c r="C143" s="22"/>
@@ -5771,7 +5703,7 @@
       <c r="K143" s="21"/>
       <c r="L143" s="21"/>
       <c r="M143" s="21"/>
-      <c r="N143" s="71"/>
+      <c r="N143" s="68"/>
       <c r="O143" s="59"/>
       <c r="P143" s="21"/>
       <c r="Q143" s="5"/>
@@ -5789,7 +5721,7 @@
     </row>
     <row r="144" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B144" s="56"/>
       <c r="C144" s="22"/>
@@ -5803,7 +5735,7 @@
       <c r="K144" s="21"/>
       <c r="L144" s="21"/>
       <c r="M144" s="21"/>
-      <c r="N144" s="71"/>
+      <c r="N144" s="68"/>
       <c r="O144" s="59"/>
       <c r="P144" s="21"/>
       <c r="Q144" s="5"/>
@@ -5821,7 +5753,7 @@
     </row>
     <row r="145" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B145" s="56"/>
       <c r="C145" s="22"/>
@@ -5835,7 +5767,7 @@
       <c r="K145" s="21"/>
       <c r="L145" s="21"/>
       <c r="M145" s="21"/>
-      <c r="N145" s="71"/>
+      <c r="N145" s="68"/>
       <c r="O145" s="59"/>
       <c r="P145" s="21"/>
       <c r="Q145" s="5"/>
@@ -5853,7 +5785,7 @@
     </row>
     <row r="146" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="56"/>
       <c r="C146" s="22"/>
@@ -5867,7 +5799,7 @@
       <c r="K146" s="21"/>
       <c r="L146" s="21"/>
       <c r="M146" s="21"/>
-      <c r="N146" s="71"/>
+      <c r="N146" s="68"/>
       <c r="O146" s="59"/>
       <c r="P146" s="21"/>
       <c r="Q146" s="5"/>
@@ -5885,7 +5817,7 @@
     </row>
     <row r="147" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B147" s="56"/>
       <c r="C147" s="22"/>
@@ -5899,7 +5831,7 @@
       <c r="K147" s="21"/>
       <c r="L147" s="21"/>
       <c r="M147" s="21"/>
-      <c r="N147" s="71"/>
+      <c r="N147" s="68"/>
       <c r="O147" s="59"/>
       <c r="P147" s="21"/>
       <c r="Q147" s="5"/>
@@ -5917,7 +5849,7 @@
     </row>
     <row r="148" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B148" s="56"/>
       <c r="C148" s="22"/>
@@ -5931,7 +5863,7 @@
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
       <c r="M148" s="21"/>
-      <c r="N148" s="71"/>
+      <c r="N148" s="68"/>
       <c r="O148" s="59"/>
       <c r="P148" s="21"/>
       <c r="Q148" s="5"/>
@@ -5949,7 +5881,7 @@
     </row>
     <row r="149" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B149" s="56"/>
       <c r="C149" s="22"/>
@@ -5963,7 +5895,7 @@
       <c r="K149" s="21"/>
       <c r="L149" s="21"/>
       <c r="M149" s="21"/>
-      <c r="N149" s="71"/>
+      <c r="N149" s="68"/>
       <c r="O149" s="59"/>
       <c r="P149" s="21"/>
       <c r="Q149" s="5"/>
@@ -5981,7 +5913,7 @@
     </row>
     <row r="150" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B150" s="56"/>
       <c r="C150" s="22"/>
@@ -5995,7 +5927,7 @@
       <c r="K150" s="21"/>
       <c r="L150" s="21"/>
       <c r="M150" s="21"/>
-      <c r="N150" s="71"/>
+      <c r="N150" s="68"/>
       <c r="O150" s="59"/>
       <c r="P150" s="21"/>
       <c r="Q150" s="5"/>
@@ -6013,7 +5945,7 @@
     </row>
     <row r="151" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="56"/>
       <c r="C151" s="22"/>
@@ -6027,7 +5959,7 @@
       <c r="K151" s="21"/>
       <c r="L151" s="21"/>
       <c r="M151" s="21"/>
-      <c r="N151" s="71"/>
+      <c r="N151" s="68"/>
       <c r="O151" s="59"/>
       <c r="P151" s="21"/>
       <c r="Q151" s="5"/>
@@ -6045,7 +5977,7 @@
     </row>
     <row r="152" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B152" s="56"/>
       <c r="C152" s="22"/>
@@ -6059,7 +5991,7 @@
       <c r="K152" s="21"/>
       <c r="L152" s="21"/>
       <c r="M152" s="21"/>
-      <c r="N152" s="71"/>
+      <c r="N152" s="68"/>
       <c r="O152" s="59"/>
       <c r="P152" s="21"/>
       <c r="Q152" s="5"/>
@@ -6077,7 +6009,7 @@
     </row>
     <row r="153" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="56"/>
       <c r="C153" s="22"/>
@@ -6091,7 +6023,7 @@
       <c r="K153" s="21"/>
       <c r="L153" s="21"/>
       <c r="M153" s="21"/>
-      <c r="N153" s="71"/>
+      <c r="N153" s="68"/>
       <c r="O153" s="59"/>
       <c r="P153" s="21"/>
       <c r="Q153" s="5"/>
@@ -6109,7 +6041,7 @@
     </row>
     <row r="154" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="56"/>
       <c r="C154" s="22"/>
@@ -6123,7 +6055,7 @@
       <c r="K154" s="21"/>
       <c r="L154" s="21"/>
       <c r="M154" s="21"/>
-      <c r="N154" s="71"/>
+      <c r="N154" s="68"/>
       <c r="O154" s="59"/>
       <c r="P154" s="21"/>
       <c r="Q154" s="5"/>
@@ -6141,7 +6073,7 @@
     </row>
     <row r="155" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="56"/>
       <c r="C155" s="22"/>
@@ -6155,7 +6087,7 @@
       <c r="K155" s="21"/>
       <c r="L155" s="21"/>
       <c r="M155" s="21"/>
-      <c r="N155" s="71"/>
+      <c r="N155" s="68"/>
       <c r="O155" s="59"/>
       <c r="P155" s="21"/>
       <c r="Q155" s="5"/>
@@ -6173,7 +6105,7 @@
     </row>
     <row r="156" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="56"/>
       <c r="C156" s="22"/>
@@ -6187,7 +6119,7 @@
       <c r="K156" s="21"/>
       <c r="L156" s="21"/>
       <c r="M156" s="21"/>
-      <c r="N156" s="71"/>
+      <c r="N156" s="68"/>
       <c r="O156" s="59"/>
       <c r="P156" s="21"/>
       <c r="Q156" s="5"/>
@@ -6205,7 +6137,7 @@
     </row>
     <row r="157" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B157" s="56"/>
       <c r="C157" s="22"/>
@@ -6219,7 +6151,7 @@
       <c r="K157" s="21"/>
       <c r="L157" s="21"/>
       <c r="M157" s="21"/>
-      <c r="N157" s="71"/>
+      <c r="N157" s="68"/>
       <c r="O157" s="59"/>
       <c r="P157" s="21"/>
       <c r="Q157" s="5"/>
@@ -6237,7 +6169,7 @@
     </row>
     <row r="158" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B158" s="56"/>
       <c r="C158" s="22"/>
@@ -6251,7 +6183,7 @@
       <c r="K158" s="21"/>
       <c r="L158" s="21"/>
       <c r="M158" s="21"/>
-      <c r="N158" s="71"/>
+      <c r="N158" s="68"/>
       <c r="O158" s="59"/>
       <c r="P158" s="21"/>
       <c r="Q158" s="5"/>
@@ -6269,7 +6201,7 @@
     </row>
     <row r="159" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B159" s="56"/>
       <c r="C159" s="22"/>
@@ -6283,7 +6215,7 @@
       <c r="K159" s="21"/>
       <c r="L159" s="21"/>
       <c r="M159" s="21"/>
-      <c r="N159" s="71"/>
+      <c r="N159" s="68"/>
       <c r="O159" s="59"/>
       <c r="P159" s="21"/>
       <c r="Q159" s="5"/>
@@ -6301,7 +6233,7 @@
     </row>
     <row r="160" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B160" s="56"/>
       <c r="C160" s="22"/>
@@ -6315,7 +6247,7 @@
       <c r="K160" s="21"/>
       <c r="L160" s="21"/>
       <c r="M160" s="21"/>
-      <c r="N160" s="71"/>
+      <c r="N160" s="68"/>
       <c r="O160" s="59"/>
       <c r="P160" s="21"/>
       <c r="Q160" s="5"/>
@@ -6333,7 +6265,7 @@
     </row>
     <row r="161" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B161" s="56"/>
       <c r="C161" s="22"/>
@@ -6347,7 +6279,7 @@
       <c r="K161" s="21"/>
       <c r="L161" s="21"/>
       <c r="M161" s="21"/>
-      <c r="N161" s="71"/>
+      <c r="N161" s="68"/>
       <c r="O161" s="59"/>
       <c r="P161" s="21"/>
       <c r="Q161" s="5"/>
@@ -6365,7 +6297,7 @@
     </row>
     <row r="162" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B162" s="56"/>
       <c r="C162" s="22"/>
@@ -6379,7 +6311,7 @@
       <c r="K162" s="21"/>
       <c r="L162" s="21"/>
       <c r="M162" s="21"/>
-      <c r="N162" s="71"/>
+      <c r="N162" s="68"/>
       <c r="O162" s="59"/>
       <c r="P162" s="21"/>
       <c r="Q162" s="5"/>
@@ -6397,7 +6329,7 @@
     </row>
     <row r="163" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B163" s="56"/>
       <c r="C163" s="22"/>
@@ -6411,7 +6343,7 @@
       <c r="K163" s="21"/>
       <c r="L163" s="21"/>
       <c r="M163" s="21"/>
-      <c r="N163" s="71"/>
+      <c r="N163" s="68"/>
       <c r="O163" s="59"/>
       <c r="P163" s="21"/>
       <c r="Q163" s="5"/>
@@ -6429,7 +6361,7 @@
     </row>
     <row r="164" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B164" s="56"/>
       <c r="C164" s="22"/>
@@ -6443,7 +6375,7 @@
       <c r="K164" s="21"/>
       <c r="L164" s="21"/>
       <c r="M164" s="21"/>
-      <c r="N164" s="71"/>
+      <c r="N164" s="68"/>
       <c r="O164" s="59"/>
       <c r="P164" s="21"/>
       <c r="Q164" s="5"/>
@@ -6461,7 +6393,7 @@
     </row>
     <row r="165" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165" s="56"/>
       <c r="C165" s="22"/>
@@ -6475,7 +6407,7 @@
       <c r="K165" s="21"/>
       <c r="L165" s="21"/>
       <c r="M165" s="21"/>
-      <c r="N165" s="71"/>
+      <c r="N165" s="68"/>
       <c r="O165" s="59"/>
       <c r="P165" s="21"/>
       <c r="Q165" s="5"/>
@@ -6493,7 +6425,7 @@
     </row>
     <row r="166" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B166" s="56"/>
       <c r="C166" s="22"/>
@@ -6507,7 +6439,7 @@
       <c r="K166" s="21"/>
       <c r="L166" s="21"/>
       <c r="M166" s="21"/>
-      <c r="N166" s="71"/>
+      <c r="N166" s="68"/>
       <c r="O166" s="59"/>
       <c r="P166" s="21"/>
       <c r="Q166" s="5"/>
@@ -6525,7 +6457,7 @@
     </row>
     <row r="167" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B167" s="56"/>
       <c r="C167" s="22"/>
@@ -6539,7 +6471,7 @@
       <c r="K167" s="21"/>
       <c r="L167" s="21"/>
       <c r="M167" s="21"/>
-      <c r="N167" s="71"/>
+      <c r="N167" s="68"/>
       <c r="O167" s="59"/>
       <c r="P167" s="21"/>
       <c r="Q167" s="5"/>
@@ -6557,7 +6489,7 @@
     </row>
     <row r="168" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B168" s="56"/>
       <c r="C168" s="22"/>
@@ -6571,7 +6503,7 @@
       <c r="K168" s="21"/>
       <c r="L168" s="21"/>
       <c r="M168" s="21"/>
-      <c r="N168" s="71"/>
+      <c r="N168" s="68"/>
       <c r="O168" s="59"/>
       <c r="P168" s="21"/>
       <c r="Q168" s="5"/>
@@ -6589,7 +6521,7 @@
     </row>
     <row r="169" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B169" s="56"/>
       <c r="C169" s="22"/>
@@ -6603,7 +6535,7 @@
       <c r="K169" s="21"/>
       <c r="L169" s="21"/>
       <c r="M169" s="21"/>
-      <c r="N169" s="71"/>
+      <c r="N169" s="68"/>
       <c r="O169" s="59"/>
       <c r="P169" s="21"/>
       <c r="Q169" s="5"/>
@@ -6621,7 +6553,7 @@
     </row>
     <row r="170" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B170" s="56"/>
       <c r="C170" s="22"/>
@@ -6635,7 +6567,7 @@
       <c r="K170" s="21"/>
       <c r="L170" s="21"/>
       <c r="M170" s="21"/>
-      <c r="N170" s="71"/>
+      <c r="N170" s="68"/>
       <c r="O170" s="59"/>
       <c r="P170" s="21"/>
       <c r="Q170" s="5"/>
@@ -6653,7 +6585,7 @@
     </row>
     <row r="171" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B171" s="56"/>
       <c r="C171" s="22"/>
@@ -6667,7 +6599,7 @@
       <c r="K171" s="21"/>
       <c r="L171" s="21"/>
       <c r="M171" s="21"/>
-      <c r="N171" s="71"/>
+      <c r="N171" s="68"/>
       <c r="O171" s="59"/>
       <c r="P171" s="21"/>
       <c r="Q171" s="5"/>
@@ -6685,7 +6617,7 @@
     </row>
     <row r="172" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B172" s="56"/>
       <c r="C172" s="22"/>
@@ -6699,7 +6631,7 @@
       <c r="K172" s="21"/>
       <c r="L172" s="21"/>
       <c r="M172" s="21"/>
-      <c r="N172" s="71"/>
+      <c r="N172" s="68"/>
       <c r="O172" s="59"/>
       <c r="P172" s="21"/>
       <c r="Q172" s="5"/>
@@ -6717,7 +6649,7 @@
     </row>
     <row r="173" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B173" s="56"/>
       <c r="C173" s="22"/>
@@ -6731,7 +6663,7 @@
       <c r="K173" s="21"/>
       <c r="L173" s="21"/>
       <c r="M173" s="21"/>
-      <c r="N173" s="71"/>
+      <c r="N173" s="68"/>
       <c r="O173" s="59"/>
       <c r="P173" s="21"/>
       <c r="Q173" s="5"/>
@@ -6749,7 +6681,7 @@
     </row>
     <row r="174" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B174" s="56"/>
       <c r="C174" s="22"/>
@@ -6763,7 +6695,7 @@
       <c r="K174" s="21"/>
       <c r="L174" s="21"/>
       <c r="M174" s="21"/>
-      <c r="N174" s="71"/>
+      <c r="N174" s="68"/>
       <c r="O174" s="59"/>
       <c r="P174" s="21"/>
       <c r="Q174" s="5"/>
@@ -6781,7 +6713,7 @@
     </row>
     <row r="175" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B175" s="56"/>
       <c r="C175" s="22"/>
@@ -6795,7 +6727,7 @@
       <c r="K175" s="21"/>
       <c r="L175" s="21"/>
       <c r="M175" s="21"/>
-      <c r="N175" s="71"/>
+      <c r="N175" s="68"/>
       <c r="O175" s="59"/>
       <c r="P175" s="21"/>
       <c r="Q175" s="5"/>
@@ -6813,7 +6745,7 @@
     </row>
     <row r="176" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B176" s="56"/>
       <c r="C176" s="22"/>
@@ -6827,7 +6759,7 @@
       <c r="K176" s="21"/>
       <c r="L176" s="21"/>
       <c r="M176" s="21"/>
-      <c r="N176" s="71"/>
+      <c r="N176" s="68"/>
       <c r="O176" s="59"/>
       <c r="P176" s="21"/>
       <c r="Q176" s="5"/>
@@ -6845,7 +6777,7 @@
     </row>
     <row r="177" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B177" s="56"/>
       <c r="C177" s="22"/>
@@ -6859,7 +6791,7 @@
       <c r="K177" s="21"/>
       <c r="L177" s="21"/>
       <c r="M177" s="21"/>
-      <c r="N177" s="71"/>
+      <c r="N177" s="68"/>
       <c r="O177" s="59"/>
       <c r="P177" s="21"/>
       <c r="Q177" s="5"/>
@@ -6877,7 +6809,7 @@
     </row>
     <row r="178" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B178" s="56"/>
       <c r="C178" s="22"/>
@@ -6891,7 +6823,7 @@
       <c r="K178" s="21"/>
       <c r="L178" s="21"/>
       <c r="M178" s="21"/>
-      <c r="N178" s="71"/>
+      <c r="N178" s="68"/>
       <c r="O178" s="59"/>
       <c r="P178" s="21"/>
       <c r="Q178" s="5"/>
@@ -6909,7 +6841,7 @@
     </row>
     <row r="179" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B179" s="56"/>
       <c r="C179" s="22"/>
@@ -6923,7 +6855,7 @@
       <c r="K179" s="21"/>
       <c r="L179" s="21"/>
       <c r="M179" s="21"/>
-      <c r="N179" s="71"/>
+      <c r="N179" s="68"/>
       <c r="O179" s="59"/>
       <c r="P179" s="21"/>
       <c r="Q179" s="5"/>
@@ -6941,7 +6873,7 @@
     </row>
     <row r="180" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B180" s="56"/>
       <c r="C180" s="22"/>
@@ -6955,7 +6887,7 @@
       <c r="K180" s="21"/>
       <c r="L180" s="21"/>
       <c r="M180" s="21"/>
-      <c r="N180" s="71"/>
+      <c r="N180" s="68"/>
       <c r="O180" s="59"/>
       <c r="P180" s="21"/>
       <c r="Q180" s="5"/>
@@ -6973,7 +6905,7 @@
     </row>
     <row r="181" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B181" s="56"/>
       <c r="C181" s="22"/>
@@ -6987,7 +6919,7 @@
       <c r="K181" s="21"/>
       <c r="L181" s="21"/>
       <c r="M181" s="21"/>
-      <c r="N181" s="71"/>
+      <c r="N181" s="68"/>
       <c r="O181" s="59"/>
       <c r="P181" s="21"/>
       <c r="Q181" s="5"/>
@@ -7005,7 +6937,7 @@
     </row>
     <row r="182" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B182" s="56"/>
       <c r="C182" s="22"/>
@@ -7019,7 +6951,7 @@
       <c r="K182" s="21"/>
       <c r="L182" s="21"/>
       <c r="M182" s="21"/>
-      <c r="N182" s="71"/>
+      <c r="N182" s="68"/>
       <c r="O182" s="59"/>
       <c r="P182" s="21"/>
       <c r="Q182" s="5"/>
@@ -7037,7 +6969,7 @@
     </row>
     <row r="183" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B183" s="56"/>
       <c r="C183" s="22"/>
@@ -7051,7 +6983,7 @@
       <c r="K183" s="21"/>
       <c r="L183" s="21"/>
       <c r="M183" s="21"/>
-      <c r="N183" s="71"/>
+      <c r="N183" s="68"/>
       <c r="O183" s="59"/>
       <c r="P183" s="21"/>
       <c r="Q183" s="5"/>
@@ -7069,7 +7001,7 @@
     </row>
     <row r="184" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B184" s="56"/>
       <c r="C184" s="22"/>
@@ -7083,7 +7015,7 @@
       <c r="K184" s="21"/>
       <c r="L184" s="21"/>
       <c r="M184" s="21"/>
-      <c r="N184" s="71"/>
+      <c r="N184" s="68"/>
       <c r="O184" s="59"/>
       <c r="P184" s="21"/>
       <c r="Q184" s="5"/>
@@ -7101,7 +7033,7 @@
     </row>
     <row r="185" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B185" s="56"/>
       <c r="C185" s="22"/>
@@ -7115,7 +7047,7 @@
       <c r="K185" s="21"/>
       <c r="L185" s="21"/>
       <c r="M185" s="21"/>
-      <c r="N185" s="71"/>
+      <c r="N185" s="68"/>
       <c r="O185" s="59"/>
       <c r="P185" s="21"/>
       <c r="Q185" s="5"/>
@@ -7133,7 +7065,7 @@
     </row>
     <row r="186" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B186" s="56"/>
       <c r="C186" s="22"/>
@@ -7147,7 +7079,7 @@
       <c r="K186" s="21"/>
       <c r="L186" s="21"/>
       <c r="M186" s="21"/>
-      <c r="N186" s="71"/>
+      <c r="N186" s="68"/>
       <c r="O186" s="59"/>
       <c r="P186" s="21"/>
       <c r="Q186" s="5"/>
@@ -7165,7 +7097,7 @@
     </row>
     <row r="187" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B187" s="56"/>
       <c r="C187" s="22"/>
@@ -7179,7 +7111,7 @@
       <c r="K187" s="21"/>
       <c r="L187" s="21"/>
       <c r="M187" s="21"/>
-      <c r="N187" s="71"/>
+      <c r="N187" s="68"/>
       <c r="O187" s="59"/>
       <c r="P187" s="21"/>
       <c r="Q187" s="5"/>
@@ -7197,7 +7129,7 @@
     </row>
     <row r="188" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B188" s="56"/>
       <c r="C188" s="22"/>
@@ -7211,7 +7143,7 @@
       <c r="K188" s="21"/>
       <c r="L188" s="21"/>
       <c r="M188" s="21"/>
-      <c r="N188" s="71"/>
+      <c r="N188" s="68"/>
       <c r="O188" s="59"/>
       <c r="P188" s="21"/>
       <c r="Q188" s="5"/>
@@ -7229,7 +7161,7 @@
     </row>
     <row r="189" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B189" s="56"/>
       <c r="C189" s="22"/>
@@ -7243,7 +7175,7 @@
       <c r="K189" s="21"/>
       <c r="L189" s="21"/>
       <c r="M189" s="21"/>
-      <c r="N189" s="71"/>
+      <c r="N189" s="68"/>
       <c r="O189" s="59"/>
       <c r="P189" s="21"/>
       <c r="Q189" s="5"/>
@@ -7261,7 +7193,7 @@
     </row>
     <row r="190" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="56"/>
       <c r="C190" s="22"/>
@@ -7275,7 +7207,7 @@
       <c r="K190" s="21"/>
       <c r="L190" s="21"/>
       <c r="M190" s="21"/>
-      <c r="N190" s="71"/>
+      <c r="N190" s="68"/>
       <c r="O190" s="59"/>
       <c r="P190" s="21"/>
       <c r="Q190" s="5"/>
@@ -7293,7 +7225,7 @@
     </row>
     <row r="191" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B191" s="56"/>
       <c r="C191" s="22"/>
@@ -7307,7 +7239,7 @@
       <c r="K191" s="21"/>
       <c r="L191" s="21"/>
       <c r="M191" s="21"/>
-      <c r="N191" s="71"/>
+      <c r="N191" s="68"/>
       <c r="O191" s="59"/>
       <c r="P191" s="21"/>
       <c r="Q191" s="5"/>
@@ -7325,7 +7257,7 @@
     </row>
     <row r="192" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B192" s="56"/>
       <c r="C192" s="22"/>
@@ -7339,7 +7271,7 @@
       <c r="K192" s="21"/>
       <c r="L192" s="21"/>
       <c r="M192" s="21"/>
-      <c r="N192" s="71"/>
+      <c r="N192" s="68"/>
       <c r="O192" s="59"/>
       <c r="P192" s="21"/>
       <c r="Q192" s="5"/>
@@ -7357,7 +7289,7 @@
     </row>
     <row r="193" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B193" s="56"/>
       <c r="C193" s="22"/>
@@ -7371,7 +7303,7 @@
       <c r="K193" s="21"/>
       <c r="L193" s="21"/>
       <c r="M193" s="21"/>
-      <c r="N193" s="71"/>
+      <c r="N193" s="68"/>
       <c r="O193" s="59"/>
       <c r="P193" s="21"/>
       <c r="Q193" s="5"/>
@@ -7389,7 +7321,7 @@
     </row>
     <row r="194" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B194" s="56"/>
       <c r="C194" s="22"/>
@@ -7403,7 +7335,7 @@
       <c r="K194" s="21"/>
       <c r="L194" s="21"/>
       <c r="M194" s="21"/>
-      <c r="N194" s="71"/>
+      <c r="N194" s="68"/>
       <c r="O194" s="59"/>
       <c r="P194" s="21"/>
       <c r="Q194" s="5"/>
@@ -7421,7 +7353,7 @@
     </row>
     <row r="195" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B195" s="56"/>
       <c r="C195" s="22"/>
@@ -7435,7 +7367,7 @@
       <c r="K195" s="21"/>
       <c r="L195" s="21"/>
       <c r="M195" s="21"/>
-      <c r="N195" s="71"/>
+      <c r="N195" s="68"/>
       <c r="O195" s="59"/>
       <c r="P195" s="21"/>
       <c r="Q195" s="5"/>
@@ -7453,7 +7385,7 @@
     </row>
     <row r="196" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B196" s="56"/>
       <c r="C196" s="22"/>
@@ -7467,7 +7399,7 @@
       <c r="K196" s="21"/>
       <c r="L196" s="21"/>
       <c r="M196" s="21"/>
-      <c r="N196" s="71"/>
+      <c r="N196" s="68"/>
       <c r="O196" s="59"/>
       <c r="P196" s="21"/>
       <c r="Q196" s="5"/>
@@ -7485,7 +7417,7 @@
     </row>
     <row r="197" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B197" s="56"/>
       <c r="C197" s="22"/>
@@ -7499,7 +7431,7 @@
       <c r="K197" s="21"/>
       <c r="L197" s="21"/>
       <c r="M197" s="21"/>
-      <c r="N197" s="71"/>
+      <c r="N197" s="68"/>
       <c r="O197" s="59"/>
       <c r="P197" s="21"/>
       <c r="Q197" s="5"/>
@@ -7517,7 +7449,7 @@
     </row>
     <row r="198" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B198" s="56"/>
       <c r="C198" s="22"/>
@@ -7531,7 +7463,7 @@
       <c r="K198" s="21"/>
       <c r="L198" s="21"/>
       <c r="M198" s="21"/>
-      <c r="N198" s="71"/>
+      <c r="N198" s="68"/>
       <c r="O198" s="59"/>
       <c r="P198" s="21"/>
       <c r="Q198" s="5"/>
@@ -7549,7 +7481,7 @@
     </row>
     <row r="199" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B199" s="56"/>
       <c r="C199" s="22"/>
@@ -7563,7 +7495,7 @@
       <c r="K199" s="21"/>
       <c r="L199" s="21"/>
       <c r="M199" s="21"/>
-      <c r="N199" s="71"/>
+      <c r="N199" s="68"/>
       <c r="O199" s="59"/>
       <c r="P199" s="21"/>
       <c r="Q199" s="5"/>
@@ -7581,7 +7513,7 @@
     </row>
     <row r="200" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B200" s="56"/>
       <c r="C200" s="22"/>
@@ -7595,7 +7527,7 @@
       <c r="K200" s="21"/>
       <c r="L200" s="21"/>
       <c r="M200" s="21"/>
-      <c r="N200" s="71"/>
+      <c r="N200" s="68"/>
       <c r="O200" s="59"/>
       <c r="P200" s="21"/>
       <c r="Q200" s="5"/>
@@ -7613,7 +7545,7 @@
     </row>
     <row r="201" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B201" s="56"/>
       <c r="C201" s="22"/>
@@ -7627,7 +7559,7 @@
       <c r="K201" s="21"/>
       <c r="L201" s="21"/>
       <c r="M201" s="21"/>
-      <c r="N201" s="71"/>
+      <c r="N201" s="68"/>
       <c r="O201" s="59"/>
       <c r="P201" s="21"/>
       <c r="Q201" s="5"/>
@@ -7645,7 +7577,7 @@
     </row>
     <row r="202" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202" s="56"/>
       <c r="C202" s="22"/>
@@ -7659,7 +7591,7 @@
       <c r="K202" s="21"/>
       <c r="L202" s="21"/>
       <c r="M202" s="21"/>
-      <c r="N202" s="71"/>
+      <c r="N202" s="68"/>
       <c r="O202" s="59"/>
       <c r="P202" s="21"/>
       <c r="Q202" s="5"/>
@@ -7677,7 +7609,7 @@
     </row>
     <row r="203" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203" s="56"/>
       <c r="C203" s="22"/>
@@ -7691,7 +7623,7 @@
       <c r="K203" s="21"/>
       <c r="L203" s="21"/>
       <c r="M203" s="21"/>
-      <c r="N203" s="71"/>
+      <c r="N203" s="68"/>
       <c r="O203" s="59"/>
       <c r="P203" s="21"/>
       <c r="Q203" s="5"/>
@@ -7708,24 +7640,22 @@
       <c r="AB203" s="5"/>
     </row>
     <row r="204" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>199</v>
-      </c>
-      <c r="B204" s="56"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="23"/>
-      <c r="G204" s="23"/>
-      <c r="H204" s="23"/>
-      <c r="I204" s="58"/>
-      <c r="J204" s="58"/>
-      <c r="K204" s="21"/>
-      <c r="L204" s="21"/>
-      <c r="M204" s="21"/>
-      <c r="N204" s="71"/>
-      <c r="O204" s="59"/>
-      <c r="P204" s="21"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="7"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="7"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="7"/>
+      <c r="O204" s="7"/>
+      <c r="P204" s="7"/>
       <c r="Q204" s="5"/>
       <c r="R204" s="5"/>
       <c r="S204" s="5"/>
@@ -7740,24 +7670,22 @@
       <c r="AB204" s="5"/>
     </row>
     <row r="205" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>200</v>
-      </c>
-      <c r="B205" s="56"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="20"/>
-      <c r="E205" s="20"/>
-      <c r="F205" s="23"/>
-      <c r="G205" s="23"/>
-      <c r="H205" s="23"/>
-      <c r="I205" s="58"/>
-      <c r="J205" s="58"/>
-      <c r="K205" s="21"/>
-      <c r="L205" s="21"/>
-      <c r="M205" s="21"/>
-      <c r="N205" s="71"/>
-      <c r="O205" s="59"/>
-      <c r="P205" s="21"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="7"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="8"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="7"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="7"/>
+      <c r="N205" s="7"/>
+      <c r="O205" s="7"/>
+      <c r="P205" s="7"/>
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
       <c r="S205" s="5"/>
@@ -22231,73 +22159,11 @@
       <c r="AA687" s="5"/>
       <c r="AB687" s="5"/>
     </row>
-    <row r="688" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="2"/>
-      <c r="B688" s="7"/>
-      <c r="C688" s="7"/>
-      <c r="D688" s="8"/>
-      <c r="E688" s="7"/>
-      <c r="F688" s="9"/>
-      <c r="G688" s="9"/>
-      <c r="H688" s="9"/>
-      <c r="I688" s="7"/>
-      <c r="J688" s="7"/>
-      <c r="K688" s="7"/>
-      <c r="L688" s="7"/>
-      <c r="M688" s="7"/>
-      <c r="N688" s="7"/>
-      <c r="O688" s="7"/>
-      <c r="P688" s="7"/>
-      <c r="Q688" s="5"/>
-      <c r="R688" s="5"/>
-      <c r="S688" s="5"/>
-      <c r="T688" s="5"/>
-      <c r="U688" s="5"/>
-      <c r="V688" s="5"/>
-      <c r="W688" s="5"/>
-      <c r="X688" s="5"/>
-      <c r="Y688" s="5"/>
-      <c r="Z688" s="5"/>
-      <c r="AA688" s="5"/>
-      <c r="AB688" s="5"/>
-    </row>
-    <row r="689" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="2"/>
-      <c r="B689" s="7"/>
-      <c r="C689" s="7"/>
-      <c r="D689" s="8"/>
-      <c r="E689" s="7"/>
-      <c r="F689" s="9"/>
-      <c r="G689" s="9"/>
-      <c r="H689" s="9"/>
-      <c r="I689" s="7"/>
-      <c r="J689" s="7"/>
-      <c r="K689" s="7"/>
-      <c r="L689" s="7"/>
-      <c r="M689" s="7"/>
-      <c r="N689" s="7"/>
-      <c r="O689" s="7"/>
-      <c r="P689" s="7"/>
-      <c r="Q689" s="5"/>
-      <c r="R689" s="5"/>
-      <c r="S689" s="5"/>
-      <c r="T689" s="5"/>
-      <c r="U689" s="5"/>
-      <c r="V689" s="5"/>
-      <c r="W689" s="5"/>
-      <c r="X689" s="5"/>
-      <c r="Y689" s="5"/>
-      <c r="Z689" s="5"/>
-      <c r="AA689" s="5"/>
-      <c r="AB689" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -22308,55 +22174,55 @@
           <x14:formula1>
             <xm:f>'Lista desplegable '!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I205</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C400254-1A25-4ED6-BC7A-9D417B8FE589}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J205</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{11882FBB-127B-476C-8983-468A8F38D10D}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L205</xm:sqref>
+          <xm:sqref>L4:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F9CFCED5-4D7D-4AAC-8D54-18F17D499980}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M6:M205</xm:sqref>
+          <xm:sqref>M4:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04BD9FEB-4C10-436A-88AB-9A55E8CC8C12}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>O6:O205</xm:sqref>
+          <xm:sqref>O4:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3068EBCB-08B2-4F4C-B896-6519DD143CED}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>P6:P205</xm:sqref>
+          <xm:sqref>P4:P203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CED81C9-3252-4E04-B5EF-D4B7F844F127}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K205</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B55B14E3-3394-46A7-A37D-9F1887CDE752}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$B$2:$B$32</xm:f>
           </x14:formula1>
-          <xm:sqref>E6:E205</xm:sqref>
+          <xm:sqref>E4:E203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{75DFC831-69B8-4651-B67E-D600FFD2B813}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N205</xm:sqref>
+          <xm:sqref>N4:N203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22365,11 +22231,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9239C9-6BF3-487F-80B7-62AA3CBF4872}">
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1001"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22395,13 +22401,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" s="43" t="s">
         <v>44</v>
@@ -22410,10 +22416,10 @@
         <v>45</v>
       </c>
       <c r="I1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>50</v>
       </c>
       <c r="K1" s="31"/>
     </row>
@@ -22423,28 +22429,28 @@
         <v>8</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -22459,7 +22465,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="25">
         <v>0.1</v>
@@ -22489,7 +22495,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="25">
         <v>0.5</v>
@@ -22519,7 +22525,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="25">
         <v>1</v>
@@ -22540,7 +22546,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="25">
         <v>1.5</v>
@@ -22558,7 +22564,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="25">
         <v>2</v>
@@ -22616,7 +22622,7 @@
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="25">
         <v>4</v>
@@ -22628,7 +22634,7 @@
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="25">
         <v>6</v>
@@ -22647,7 +22653,7 @@
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="25">
         <v>8</v>
@@ -22656,7 +22662,7 @@
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="25">
         <v>10</v>
@@ -25695,16 +25701,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9239C9-6BF3-487F-80B7-62AA3CBF4872}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Mario\Desktop\Ecopcion Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C570B0A-DC61-47B0-BEDA-7091E825C288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F808F-E94F-4E38-A8FC-4B48BF783953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB687"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22234,8 +22234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9239C9-6BF3-487F-80B7-62AA3CBF4872}">
   <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5F808F-E94F-4E38-A8FC-4B48BF783953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15890B42-8D35-4886-B4C3-C34D104734C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11235" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t xml:space="preserve">16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
+  </si>
+  <si>
+    <t>8b78dfh78fcgh78c</t>
+  </si>
+  <si>
+    <t>dfb5fxcb54fg5h</t>
+  </si>
+  <si>
+    <t>ARROZ</t>
+  </si>
+  <si>
+    <t>PANELA</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1079,7 @@
   <dimension ref="A1:AB687"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1243,21 +1255,51 @@
       <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="21"/>
+      <c r="B4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="20">
+        <v>200</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="23">
+        <v>1900</v>
+      </c>
+      <c r="G4" s="23">
+        <v>2300</v>
+      </c>
+      <c r="H4" s="54">
+        <v>45657</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -1275,21 +1317,51 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="20">
+        <v>100</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2200</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3000</v>
+      </c>
+      <c r="H5" s="54">
+        <v>45657</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -22174,43 +22246,43 @@
           <x14:formula1>
             <xm:f>'Lista desplegable '!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I203</xm:sqref>
+          <xm:sqref>I4:I203 J4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C400254-1A25-4ED6-BC7A-9D417B8FE589}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J203</xm:sqref>
+          <xm:sqref>J6:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{11882FBB-127B-476C-8983-468A8F38D10D}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$F$2:$F$20</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L203</xm:sqref>
+          <xm:sqref>L6:L203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F9CFCED5-4D7D-4AAC-8D54-18F17D499980}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M4:M203</xm:sqref>
+          <xm:sqref>M6:M203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04BD9FEB-4C10-436A-88AB-9A55E8CC8C12}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>O4:O203</xm:sqref>
+          <xm:sqref>O6:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3068EBCB-08B2-4F4C-B896-6519DD143CED}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>P4:P203</xm:sqref>
+          <xm:sqref>P6:P203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CED81C9-3252-4E04-B5EF-D4B7F844F127}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K203</xm:sqref>
+          <xm:sqref>K6:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B55B14E3-3394-46A7-A37D-9F1887CDE752}">
           <x14:formula1>
@@ -22222,7 +22294,7 @@
           <x14:formula1>
             <xm:f>'Lista desplegable '!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>N4:N203</xm:sqref>
+          <xm:sqref>N6:N203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15890B42-8D35-4886-B4C3-C34D104734C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027A05A-4D45-44E1-9A0A-EF50C6E5D94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t xml:space="preserve">INVENTARIO DE MERCANCIAS </t>
   </si>
@@ -324,18 +324,6 @@
   </si>
   <si>
     <t xml:space="preserve">16. En las columnas C, L, M, y N, ESCRIBE SOLO EL NÚMERO. </t>
-  </si>
-  <si>
-    <t>8b78dfh78fcgh78c</t>
-  </si>
-  <si>
-    <t>dfb5fxcb54fg5h</t>
-  </si>
-  <si>
-    <t>ARROZ</t>
-  </si>
-  <si>
-    <t>PANELA</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1067,7 @@
   <dimension ref="A1:AB687"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,51 +1243,21 @@
       <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="20">
-        <v>200</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="23">
-        <v>1900</v>
-      </c>
-      <c r="G4" s="23">
-        <v>2300</v>
-      </c>
-      <c r="H4" s="54">
-        <v>45657</v>
-      </c>
-      <c r="I4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -1317,51 +1275,21 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="20">
-        <v>100</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="23">
-        <v>2200</v>
-      </c>
-      <c r="G5" s="23">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="54">
-        <v>45657</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>64</v>
-      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>

--- a/public/DownloadExcels/Mercancias.xlsx
+++ b/public/DownloadExcels/Mercancias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\CARLOS\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Reyes\OneDrive - Top Drive Group\Escritorio\Carlos\Desarrollo\ecopFront-Desarrollo\public\DownloadExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027A05A-4D45-44E1-9A0A-EF50C6E5D94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AC2E9-78C1-4C63-B7F7-75F43B29E6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INVENTARIO DE MERCANCIAS" sheetId="1" r:id="rId1"/>
@@ -589,7 +589,7 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,9 +647,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,9 +754,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -783,9 +777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1067,7 +1058,7 @@
   <dimension ref="A1:AB687"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1086,24 +1077,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1190,7 +1181,7 @@
       <c r="D3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="58" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -1243,21 +1234,21 @@
       <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -1275,21 +1266,21 @@
       <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -1307,21 +1298,21 @@
       <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -1343,17 +1334,17 @@
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -1371,21 +1362,21 @@
       <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -1403,21 +1394,21 @@
       <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
@@ -1435,21 +1426,21 @@
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
@@ -1467,21 +1458,21 @@
       <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -1499,21 +1490,21 @@
       <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -1531,21 +1522,21 @@
       <c r="A13" s="15">
         <v>10</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -1563,21 +1554,21 @@
       <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
@@ -1595,21 +1586,21 @@
       <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -1627,21 +1618,21 @@
       <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -1659,21 +1650,21 @@
       <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -1691,21 +1682,21 @@
       <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -1723,21 +1714,21 @@
       <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1755,21 +1746,21 @@
       <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -1787,21 +1778,21 @@
       <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
@@ -1819,21 +1810,21 @@
       <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -1851,21 +1842,21 @@
       <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
@@ -1883,21 +1874,21 @@
       <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
@@ -1915,21 +1906,21 @@
       <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -1947,21 +1938,21 @@
       <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -1979,21 +1970,21 @@
       <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -2011,21 +2002,21 @@
       <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -2043,21 +2034,21 @@
       <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
@@ -2075,21 +2066,21 @@
       <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
@@ -2107,21 +2098,21 @@
       <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -2139,21 +2130,21 @@
       <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
@@ -2171,21 +2162,21 @@
       <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
@@ -2203,21 +2194,21 @@
       <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
@@ -2235,21 +2226,21 @@
       <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
@@ -2267,21 +2258,21 @@
       <c r="A36" s="15">
         <v>33</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
@@ -2299,21 +2290,21 @@
       <c r="A37" s="10">
         <v>34</v>
       </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
@@ -2331,21 +2322,21 @@
       <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
@@ -2363,21 +2354,21 @@
       <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
@@ -2395,21 +2386,21 @@
       <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
@@ -2427,21 +2418,21 @@
       <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="22"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
@@ -2459,21 +2450,21 @@
       <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
@@ -2491,21 +2482,21 @@
       <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="22"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
@@ -2523,21 +2514,21 @@
       <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="22"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
@@ -2555,21 +2546,21 @@
       <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
@@ -2587,21 +2578,21 @@
       <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
@@ -2619,21 +2610,21 @@
       <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
@@ -2651,21 +2642,21 @@
       <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="22"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -2683,21 +2674,21 @@
       <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="22"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -2715,21 +2706,21 @@
       <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
@@ -2747,21 +2738,21 @@
       <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
@@ -2779,21 +2770,21 @@
       <c r="A52" s="1">
         <v>49</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="22"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
@@ -2811,21 +2802,21 @@
       <c r="A53" s="1">
         <v>50</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
@@ -2843,21 +2834,21 @@
       <c r="A54" s="1">
         <v>51</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
@@ -2875,21 +2866,21 @@
       <c r="A55" s="1">
         <v>52</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="22"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -2907,21 +2898,21 @@
       <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
@@ -2939,21 +2930,21 @@
       <c r="A57" s="1">
         <v>54</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="22"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
@@ -2971,21 +2962,21 @@
       <c r="A58" s="1">
         <v>55</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
@@ -3003,21 +2994,21 @@
       <c r="A59" s="1">
         <v>56</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
@@ -3035,21 +3026,21 @@
       <c r="A60" s="1">
         <v>57</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
@@ -3067,21 +3058,21 @@
       <c r="A61" s="1">
         <v>58</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="22"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
@@ -3099,21 +3090,21 @@
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="22"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
@@ -3131,21 +3122,21 @@
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="68"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
@@ -3163,21 +3154,21 @@
       <c r="A64" s="1">
         <v>61</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
@@ -3195,21 +3186,21 @@
       <c r="A65" s="1">
         <v>62</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="22"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
@@ -3227,21 +3218,21 @@
       <c r="A66" s="1">
         <v>63</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="22"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
@@ -3259,21 +3250,21 @@
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="22"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="68"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -3291,21 +3282,21 @@
       <c r="A68" s="1">
         <v>65</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="22"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -3323,21 +3314,21 @@
       <c r="A69" s="1">
         <v>66</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="22"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="21"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -3355,21 +3346,21 @@
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="22"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="21"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
+      <c r="P70" s="22"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
@@ -3387,21 +3378,21 @@
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="22"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="21"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
@@ -3419,21 +3410,21 @@
       <c r="A72" s="1">
         <v>69</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="22"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="21"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -3451,21 +3442,21 @@
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="22"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="21"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="57"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
@@ -3483,21 +3474,21 @@
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="22"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="21"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -3515,21 +3506,21 @@
       <c r="A75" s="1">
         <v>72</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="22"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="68"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="21"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
@@ -3547,21 +3538,21 @@
       <c r="A76" s="1">
         <v>73</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="22"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="68"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="21"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
@@ -3579,21 +3570,21 @@
       <c r="A77" s="1">
         <v>74</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="22"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="68"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="21"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
@@ -3611,21 +3602,21 @@
       <c r="A78" s="1">
         <v>75</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="22"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="68"/>
-      <c r="O78" s="59"/>
-      <c r="P78" s="21"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
@@ -3643,21 +3634,21 @@
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="22"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="58"/>
-      <c r="J79" s="58"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="59"/>
-      <c r="P79" s="21"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="22"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
@@ -3675,21 +3666,21 @@
       <c r="A80" s="1">
         <v>77</v>
       </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="22"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="58"/>
-      <c r="J80" s="58"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="21"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
@@ -3707,21 +3698,21 @@
       <c r="A81" s="1">
         <v>78</v>
       </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-      <c r="N81" s="68"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="21"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="22"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
@@ -3739,21 +3730,21 @@
       <c r="A82" s="1">
         <v>79</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="22"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="21"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
@@ -3771,21 +3762,21 @@
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="22"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="59"/>
-      <c r="P83" s="21"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
@@ -3803,21 +3794,21 @@
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="22"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="59"/>
-      <c r="P84" s="21"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
@@ -3835,21 +3826,21 @@
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="56"/>
-      <c r="C85" s="22"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="58"/>
-      <c r="J85" s="58"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="68"/>
-      <c r="O85" s="59"/>
-      <c r="P85" s="21"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
@@ -3867,21 +3858,21 @@
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="22"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="58"/>
-      <c r="J86" s="58"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="59"/>
-      <c r="P86" s="21"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
       <c r="S86" s="5"/>
@@ -3899,21 +3890,21 @@
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="22"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="58"/>
-      <c r="J87" s="58"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
-      <c r="N87" s="68"/>
-      <c r="O87" s="59"/>
-      <c r="P87" s="21"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
       <c r="S87" s="5"/>
@@ -3931,21 +3922,21 @@
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="22"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="58"/>
-      <c r="J88" s="58"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="59"/>
-      <c r="P88" s="21"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="57"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="22"/>
+      <c r="P88" s="22"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
@@ -3963,21 +3954,21 @@
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="22"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="68"/>
-      <c r="O89" s="59"/>
-      <c r="P89" s="21"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
@@ -3995,21 +3986,21 @@
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="56"/>
-      <c r="C90" s="22"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
-      <c r="N90" s="68"/>
-      <c r="O90" s="59"/>
-      <c r="P90" s="21"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="57"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="22"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
@@ -4027,21 +4018,21 @@
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="56"/>
-      <c r="C91" s="22"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
-      <c r="N91" s="68"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="21"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5"/>
@@ -4059,21 +4050,21 @@
       <c r="A92" s="1">
         <v>89</v>
       </c>
-      <c r="B92" s="56"/>
-      <c r="C92" s="22"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="68"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="21"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5"/>
@@ -4091,21 +4082,21 @@
       <c r="A93" s="1">
         <v>90</v>
       </c>
-      <c r="B93" s="56"/>
-      <c r="C93" s="22"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
-      <c r="N93" s="68"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="21"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
@@ -4123,21 +4114,21 @@
       <c r="A94" s="1">
         <v>91</v>
       </c>
-      <c r="B94" s="56"/>
-      <c r="C94" s="22"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
-      <c r="N94" s="68"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="21"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
@@ -4155,21 +4146,21 @@
       <c r="A95" s="1">
         <v>92</v>
       </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="22"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
-      <c r="N95" s="68"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="21"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
@@ -4187,21 +4178,21 @@
       <c r="A96" s="1">
         <v>93</v>
       </c>
-      <c r="B96" s="56"/>
-      <c r="C96" s="22"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
-      <c r="N96" s="68"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="21"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="22"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
@@ -4219,21 +4210,21 @@
       <c r="A97" s="1">
         <v>94</v>
       </c>
-      <c r="B97" s="56"/>
-      <c r="C97" s="22"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="20"/>
       <c r="E97" s="20"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
-      <c r="N97" s="68"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="21"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
@@ -4251,21 +4242,21 @@
       <c r="A98" s="1">
         <v>95</v>
       </c>
-      <c r="B98" s="56"/>
-      <c r="C98" s="22"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
-      <c r="N98" s="68"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="21"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="57"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
@@ -4283,21 +4274,21 @@
       <c r="A99" s="1">
         <v>96</v>
       </c>
-      <c r="B99" s="56"/>
-      <c r="C99" s="22"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="68"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="21"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
@@ -4315,21 +4306,21 @@
       <c r="A100" s="1">
         <v>97</v>
       </c>
-      <c r="B100" s="56"/>
-      <c r="C100" s="22"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="20"/>
       <c r="E100" s="20"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="68"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="21"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="57"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5"/>
@@ -4347,21 +4338,21 @@
       <c r="A101" s="1">
         <v>98</v>
       </c>
-      <c r="B101" s="56"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="68"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
@@ -4379,21 +4370,21 @@
       <c r="A102" s="1">
         <v>99</v>
       </c>
-      <c r="B102" s="56"/>
-      <c r="C102" s="22"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="21"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5"/>
@@ -4411,21 +4402,21 @@
       <c r="A103" s="1">
         <v>100</v>
       </c>
-      <c r="B103" s="56"/>
-      <c r="C103" s="22"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="21"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="68"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="21"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
@@ -4443,21 +4434,21 @@
       <c r="A104" s="1">
         <v>101</v>
       </c>
-      <c r="B104" s="56"/>
-      <c r="C104" s="22"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="68"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
@@ -4475,21 +4466,21 @@
       <c r="A105" s="1">
         <v>102</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="22"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
-      <c r="N105" s="68"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="21"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
@@ -4507,21 +4498,21 @@
       <c r="A106" s="1">
         <v>103</v>
       </c>
-      <c r="B106" s="56"/>
-      <c r="C106" s="22"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="20"/>
       <c r="E106" s="20"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-      <c r="N106" s="68"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="21"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
       <c r="S106" s="5"/>
@@ -4539,21 +4530,21 @@
       <c r="A107" s="1">
         <v>104</v>
       </c>
-      <c r="B107" s="56"/>
-      <c r="C107" s="22"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
-      <c r="N107" s="68"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="21"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
@@ -4571,21 +4562,21 @@
       <c r="A108" s="1">
         <v>105</v>
       </c>
-      <c r="B108" s="56"/>
-      <c r="C108" s="22"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
-      <c r="N108" s="68"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="21"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="S108" s="5"/>
@@ -4603,21 +4594,21 @@
       <c r="A109" s="1">
         <v>106</v>
       </c>
-      <c r="B109" s="56"/>
-      <c r="C109" s="22"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="20"/>
       <c r="E109" s="20"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="58"/>
-      <c r="J109" s="58"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
-      <c r="N109" s="68"/>
-      <c r="O109" s="59"/>
-      <c r="P109" s="21"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
       <c r="S109" s="5"/>
@@ -4635,21 +4626,21 @@
       <c r="A110" s="1">
         <v>107</v>
       </c>
-      <c r="B110" s="56"/>
-      <c r="C110" s="22"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="20"/>
       <c r="E110" s="20"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="58"/>
-      <c r="J110" s="58"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="21"/>
-      <c r="N110" s="68"/>
-      <c r="O110" s="59"/>
-      <c r="P110" s="21"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
       <c r="S110" s="5"/>
@@ -4667,21 +4658,21 @@
       <c r="A111" s="1">
         <v>108</v>
       </c>
-      <c r="B111" s="56"/>
-      <c r="C111" s="22"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="21"/>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="58"/>
-      <c r="J111" s="58"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
-      <c r="N111" s="68"/>
-      <c r="O111" s="59"/>
-      <c r="P111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
@@ -4699,21 +4690,21 @@
       <c r="A112" s="1">
         <v>109</v>
       </c>
-      <c r="B112" s="56"/>
-      <c r="C112" s="22"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="20"/>
       <c r="E112" s="20"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="58"/>
-      <c r="J112" s="58"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="21"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="59"/>
-      <c r="P112" s="21"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
@@ -4731,21 +4722,21 @@
       <c r="A113" s="1">
         <v>110</v>
       </c>
-      <c r="B113" s="56"/>
-      <c r="C113" s="22"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="21"/>
       <c r="D113" s="20"/>
       <c r="E113" s="20"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="58"/>
-      <c r="J113" s="58"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="68"/>
-      <c r="O113" s="59"/>
-      <c r="P113" s="21"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="57"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5"/>
@@ -4763,21 +4754,21 @@
       <c r="A114" s="1">
         <v>111</v>
       </c>
-      <c r="B114" s="56"/>
-      <c r="C114" s="22"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="21"/>
       <c r="D114" s="20"/>
       <c r="E114" s="20"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="58"/>
-      <c r="J114" s="58"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="21"/>
-      <c r="M114" s="21"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="59"/>
-      <c r="P114" s="21"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
       <c r="S114" s="5"/>
@@ -4795,21 +4786,21 @@
       <c r="A115" s="1">
         <v>112</v>
       </c>
-      <c r="B115" s="56"/>
-      <c r="C115" s="22"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="21"/>
       <c r="D115" s="20"/>
       <c r="E115" s="20"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="58"/>
-      <c r="J115" s="58"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="68"/>
-      <c r="O115" s="59"/>
-      <c r="P115" s="21"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
@@ -4827,21 +4818,21 @@
       <c r="A116" s="1">
         <v>113</v>
       </c>
-      <c r="B116" s="56"/>
-      <c r="C116" s="22"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="21"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="58"/>
-      <c r="J116" s="58"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="21"/>
-      <c r="N116" s="68"/>
-      <c r="O116" s="59"/>
-      <c r="P116" s="21"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
       <c r="S116" s="5"/>
@@ -4859,21 +4850,21 @@
       <c r="A117" s="1">
         <v>114</v>
       </c>
-      <c r="B117" s="56"/>
-      <c r="C117" s="22"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="58"/>
-      <c r="J117" s="58"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
-      <c r="N117" s="68"/>
-      <c r="O117" s="59"/>
-      <c r="P117" s="21"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="57"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
       <c r="S117" s="5"/>
@@ -4891,21 +4882,21 @@
       <c r="A118" s="1">
         <v>115</v>
       </c>
-      <c r="B118" s="56"/>
-      <c r="C118" s="22"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="21"/>
       <c r="D118" s="20"/>
       <c r="E118" s="20"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
-      <c r="N118" s="68"/>
-      <c r="O118" s="59"/>
-      <c r="P118" s="21"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="57"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5"/>
@@ -4923,21 +4914,21 @@
       <c r="A119" s="1">
         <v>116</v>
       </c>
-      <c r="B119" s="56"/>
-      <c r="C119" s="22"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="20"/>
       <c r="E119" s="20"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="58"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="68"/>
-      <c r="O119" s="59"/>
-      <c r="P119" s="21"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
@@ -4955,21 +4946,21 @@
       <c r="A120" s="1">
         <v>117</v>
       </c>
-      <c r="B120" s="56"/>
-      <c r="C120" s="22"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="21"/>
-      <c r="M120" s="21"/>
-      <c r="N120" s="68"/>
-      <c r="O120" s="59"/>
-      <c r="P120" s="21"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="57"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
@@ -4987,21 +4978,21 @@
       <c r="A121" s="1">
         <v>118</v>
       </c>
-      <c r="B121" s="56"/>
-      <c r="C121" s="22"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="21"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="58"/>
-      <c r="J121" s="58"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
-      <c r="N121" s="68"/>
-      <c r="O121" s="59"/>
-      <c r="P121" s="21"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
       <c r="S121" s="5"/>
@@ -5019,21 +5010,21 @@
       <c r="A122" s="1">
         <v>119</v>
       </c>
-      <c r="B122" s="56"/>
-      <c r="C122" s="22"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="21"/>
       <c r="D122" s="20"/>
       <c r="E122" s="20"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="58"/>
-      <c r="J122" s="58"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="68"/>
-      <c r="O122" s="59"/>
-      <c r="P122" s="21"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="57"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
@@ -5051,21 +5042,21 @@
       <c r="A123" s="1">
         <v>120</v>
       </c>
-      <c r="B123" s="56"/>
-      <c r="C123" s="22"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="21"/>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="58"/>
-      <c r="J123" s="58"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="59"/>
-      <c r="P123" s="21"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="57"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
@@ -5083,21 +5074,21 @@
       <c r="A124" s="1">
         <v>121</v>
       </c>
-      <c r="B124" s="56"/>
-      <c r="C124" s="22"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="21"/>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
-      <c r="F124" s="23"/>
-      <c r="G124" s="23"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="58"/>
-      <c r="J124" s="58"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="59"/>
-      <c r="P124" s="21"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
       <c r="S124" s="5"/>
@@ -5115,21 +5106,21 @@
       <c r="A125" s="1">
         <v>122</v>
       </c>
-      <c r="B125" s="56"/>
-      <c r="C125" s="22"/>
+      <c r="B125" s="55"/>
+      <c r="C125" s="21"/>
       <c r="D125" s="20"/>
       <c r="E125" s="20"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="58"/>
-      <c r="J125" s="58"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
-      <c r="N125" s="68"/>
-      <c r="O125" s="59"/>
-      <c r="P125" s="21"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="57"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
       <c r="S125" s="5"/>
@@ -5147,21 +5138,21 @@
       <c r="A126" s="1">
         <v>123</v>
       </c>
-      <c r="B126" s="56"/>
-      <c r="C126" s="22"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="21"/>
       <c r="D126" s="20"/>
       <c r="E126" s="20"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="58"/>
-      <c r="J126" s="58"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="21"/>
-      <c r="N126" s="68"/>
-      <c r="O126" s="59"/>
-      <c r="P126" s="21"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="22"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
       <c r="S126" s="5"/>
@@ -5179,21 +5170,21 @@
       <c r="A127" s="1">
         <v>124</v>
       </c>
-      <c r="B127" s="56"/>
-      <c r="C127" s="22"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="21"/>
       <c r="D127" s="20"/>
       <c r="E127" s="20"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
-      <c r="N127" s="68"/>
-      <c r="O127" s="59"/>
-      <c r="P127" s="21"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="57"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
       <c r="S127" s="5"/>
@@ -5211,21 +5202,21 @@
       <c r="A128" s="1">
         <v>125</v>
       </c>
-      <c r="B128" s="56"/>
-      <c r="C128" s="22"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="21"/>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="58"/>
-      <c r="J128" s="58"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
-      <c r="N128" s="68"/>
-      <c r="O128" s="59"/>
-      <c r="P128" s="21"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="22"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
       <c r="S128" s="5"/>
@@ -5243,21 +5234,21 @@
       <c r="A129" s="1">
         <v>126</v>
       </c>
-      <c r="B129" s="56"/>
-      <c r="C129" s="22"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="21"/>
       <c r="D129" s="20"/>
       <c r="E129" s="20"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="58"/>
-      <c r="J129" s="58"/>
-      <c r="K129" s="21"/>
-      <c r="L129" s="21"/>
-      <c r="M129" s="21"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="59"/>
-      <c r="P129" s="21"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="57"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="22"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
       <c r="S129" s="5"/>
@@ -5275,21 +5266,21 @@
       <c r="A130" s="1">
         <v>127</v>
       </c>
-      <c r="B130" s="56"/>
-      <c r="C130" s="22"/>
+      <c r="B130" s="55"/>
+      <c r="C130" s="21"/>
       <c r="D130" s="20"/>
       <c r="E130" s="20"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="21"/>
-      <c r="N130" s="68"/>
-      <c r="O130" s="59"/>
-      <c r="P130" s="21"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="22"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="22"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
       <c r="S130" s="5"/>
@@ -5307,21 +5298,21 @@
       <c r="A131" s="1">
         <v>128</v>
       </c>
-      <c r="B131" s="56"/>
-      <c r="C131" s="22"/>
+      <c r="B131" s="55"/>
+      <c r="C131" s="21"/>
       <c r="D131" s="20"/>
       <c r="E131" s="20"/>
-      <c r="F131" s="23"/>
-      <c r="G131" s="23"/>
-      <c r="H131" s="23"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
-      <c r="N131" s="68"/>
-      <c r="O131" s="59"/>
-      <c r="P131" s="21"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="22"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="22"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
       <c r="S131" s="5"/>
@@ -5339,21 +5330,21 @@
       <c r="A132" s="1">
         <v>129</v>
       </c>
-      <c r="B132" s="56"/>
-      <c r="C132" s="22"/>
+      <c r="B132" s="55"/>
+      <c r="C132" s="21"/>
       <c r="D132" s="20"/>
       <c r="E132" s="20"/>
-      <c r="F132" s="23"/>
-      <c r="G132" s="23"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="58"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
-      <c r="N132" s="68"/>
-      <c r="O132" s="59"/>
-      <c r="P132" s="21"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="22"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="22"/>
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
       <c r="S132" s="5"/>
@@ -5371,21 +5362,21 @@
       <c r="A133" s="1">
         <v>130</v>
       </c>
-      <c r="B133" s="56"/>
-      <c r="C133" s="22"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="21"/>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
-      <c r="F133" s="23"/>
-      <c r="G133" s="23"/>
-      <c r="H133" s="23"/>
-      <c r="I133" s="58"/>
-      <c r="J133" s="58"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
-      <c r="N133" s="68"/>
-      <c r="O133" s="59"/>
-      <c r="P133" s="21"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="22"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="22"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
       <c r="S133" s="5"/>
@@ -5403,21 +5394,21 @@
       <c r="A134" s="1">
         <v>131</v>
       </c>
-      <c r="B134" s="56"/>
-      <c r="C134" s="22"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="21"/>
       <c r="D134" s="20"/>
       <c r="E134" s="20"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="58"/>
-      <c r="J134" s="58"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="68"/>
-      <c r="O134" s="59"/>
-      <c r="P134" s="21"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
       <c r="S134" s="5"/>
@@ -5435,21 +5426,21 @@
       <c r="A135" s="1">
         <v>132</v>
       </c>
-      <c r="B135" s="56"/>
-      <c r="C135" s="22"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="21"/>
       <c r="D135" s="20"/>
       <c r="E135" s="20"/>
-      <c r="F135" s="23"/>
-      <c r="G135" s="23"/>
-      <c r="H135" s="23"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="21"/>
-      <c r="L135" s="21"/>
-      <c r="M135" s="21"/>
-      <c r="N135" s="68"/>
-      <c r="O135" s="59"/>
-      <c r="P135" s="21"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="22"/>
+      <c r="H135" s="22"/>
+      <c r="I135" s="57"/>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="22"/>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
       <c r="S135" s="5"/>
@@ -5467,21 +5458,21 @@
       <c r="A136" s="1">
         <v>133</v>
       </c>
-      <c r="B136" s="56"/>
-      <c r="C136" s="22"/>
+      <c r="B136" s="55"/>
+      <c r="C136" s="21"/>
       <c r="D136" s="20"/>
       <c r="E136" s="20"/>
-      <c r="F136" s="23"/>
-      <c r="G136" s="23"/>
-      <c r="H136" s="23"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
-      <c r="N136" s="68"/>
-      <c r="O136" s="59"/>
-      <c r="P136" s="21"/>
+      <c r="F136" s="22"/>
+      <c r="G136" s="22"/>
+      <c r="H136" s="22"/>
+      <c r="I136" s="57"/>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
       <c r="S136" s="5"/>
@@ -5499,21 +5490,21 @@
       <c r="A137" s="1">
         <v>134</v>
       </c>
-      <c r="B137" s="56"/>
-      <c r="C137" s="22"/>
+      <c r="B137" s="55"/>
+      <c r="C137" s="21"/>
       <c r="D137" s="20"/>
       <c r="E137" s="20"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="58"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="21"/>
-      <c r="N137" s="68"/>
-      <c r="O137" s="59"/>
-      <c r="P137" s="21"/>
+      <c r="F137" s="22"/>
+      <c r="G137" s="22"/>
+      <c r="H137" s="22"/>
+      <c r="I137" s="57"/>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="22"/>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
       <c r="S137" s="5"/>
@@ -5531,21 +5522,21 @@
       <c r="A138" s="1">
         <v>135</v>
       </c>
-      <c r="B138" s="56"/>
-      <c r="C138" s="22"/>
+      <c r="B138" s="55"/>
+      <c r="C138" s="21"/>
       <c r="D138" s="20"/>
       <c r="E138" s="20"/>
-      <c r="F138" s="23"/>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="21"/>
-      <c r="N138" s="68"/>
-      <c r="O138" s="59"/>
-      <c r="P138" s="21"/>
+      <c r="F138" s="22"/>
+      <c r="G138" s="22"/>
+      <c r="H138" s="22"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="22"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="22"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="22"/>
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
       <c r="S138" s="5"/>
@@ -5563,21 +5554,21 @@
       <c r="A139" s="1">
         <v>136</v>
       </c>
-      <c r="B139" s="56"/>
-      <c r="C139" s="22"/>
+      <c r="B139" s="55"/>
+      <c r="C139" s="21"/>
       <c r="D139" s="20"/>
       <c r="E139" s="20"/>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="21"/>
-      <c r="N139" s="68"/>
-      <c r="O139" s="59"/>
-      <c r="P139" s="21"/>
+      <c r="F139" s="22"/>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="22"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="22"/>
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
       <c r="S139" s="5"/>
@@ -5595,21 +5586,21 @@
       <c r="A140" s="1">
         <v>137</v>
       </c>
-      <c r="B140" s="56"/>
-      <c r="C140" s="22"/>
+      <c r="B140" s="55"/>
+      <c r="C140" s="21"/>
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="58"/>
-      <c r="J140" s="58"/>
-      <c r="K140" s="21"/>
-      <c r="L140" s="21"/>
-      <c r="M140" s="21"/>
-      <c r="N140" s="68"/>
-      <c r="O140" s="59"/>
-      <c r="P140" s="21"/>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
+      <c r="H140" s="22"/>
+      <c r="I140" s="57"/>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
       <c r="S140" s="5"/>
@@ -5627,21 +5618,21 @@
       <c r="A141" s="1">
         <v>138</v>
       </c>
-      <c r="B141" s="56"/>
-      <c r="C141" s="22"/>
+      <c r="B141" s="55"/>
+      <c r="C141" s="21"/>
       <c r="D141" s="20"/>
       <c r="E141" s="20"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="21"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="59"/>
-      <c r="P141" s="21"/>
+      <c r="F141" s="22"/>
+      <c r="G141" s="22"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="22"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
       <c r="S141" s="5"/>
@@ -5659,21 +5650,21 @@
       <c r="A142" s="1">
         <v>139</v>
       </c>
-      <c r="B142" s="56"/>
-      <c r="C142" s="22"/>
+      <c r="B142" s="55"/>
+      <c r="C142" s="21"/>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="58"/>
-      <c r="J142" s="58"/>
-      <c r="K142" s="21"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="21"/>
-      <c r="N142" s="68"/>
-      <c r="O142" s="59"/>
-      <c r="P142" s="21"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="22"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
       <c r="S142" s="5"/>
@@ -5691,21 +5682,21 @@
       <c r="A143" s="1">
         <v>140</v>
       </c>
-      <c r="B143" s="56"/>
-      <c r="C143" s="22"/>
+      <c r="B143" s="55"/>
+      <c r="C143" s="21"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
-      <c r="F143" s="23"/>
-      <c r="G143" s="23"/>
-      <c r="H143" s="23"/>
-      <c r="I143" s="58"/>
-      <c r="J143" s="58"/>
-      <c r="K143" s="21"/>
-      <c r="L143" s="21"/>
-      <c r="M143" s="21"/>
-      <c r="N143" s="68"/>
-      <c r="O143" s="59"/>
-      <c r="P143" s="21"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="22"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
       <c r="S143" s="5"/>
@@ -5723,21 +5714,21 @@
       <c r="A144" s="1">
         <v>141</v>
       </c>
-      <c r="B144" s="56"/>
-      <c r="C144" s="22"/>
+      <c r="B144" s="55"/>
+      <c r="C144" s="21"/>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="58"/>
-      <c r="J144" s="58"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="21"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="59"/>
-      <c r="P144" s="21"/>
+      <c r="F144" s="22"/>
+      <c r="G144" s="22"/>
+      <c r="H144" s="22"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="22"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
       <c r="S144" s="5"/>
@@ -5755,21 +5746,21 @@
       <c r="A145" s="1">
         <v>142</v>
       </c>
-      <c r="B145" s="56"/>
-      <c r="C145" s="22"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="21"/>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="23"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
-      <c r="M145" s="21"/>
-      <c r="N145" s="68"/>
-      <c r="O145" s="59"/>
-      <c r="P145" s="21"/>
+      <c r="F145" s="22"/>
+      <c r="G145" s="22"/>
+      <c r="H145" s="22"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="22"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
       <c r="S145" s="5"/>
@@ -5787,21 +5778,21 @@
       <c r="A146" s="1">
         <v>143</v>
       </c>
-      <c r="B146" s="56"/>
-      <c r="C146" s="22"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="21"/>
       <c r="D146" s="20"/>
       <c r="E146" s="20"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="58"/>
-      <c r="J146" s="58"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
-      <c r="N146" s="68"/>
-      <c r="O146" s="59"/>
-      <c r="P146" s="21"/>
+      <c r="F146" s="22"/>
+      <c r="G146" s="22"/>
+      <c r="H146" s="22"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
       <c r="S146" s="5"/>
@@ -5819,21 +5810,21 @@
       <c r="A147" s="1">
         <v>144</v>
       </c>
-      <c r="B147" s="56"/>
-      <c r="C147" s="22"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="21"/>
       <c r="D147" s="20"/>
       <c r="E147" s="20"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="58"/>
-      <c r="J147" s="58"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
-      <c r="M147" s="21"/>
-      <c r="N147" s="68"/>
-      <c r="O147" s="59"/>
-      <c r="P147" s="21"/>
+      <c r="F147" s="22"/>
+      <c r="G147" s="22"/>
+      <c r="H147" s="22"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="22"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
       <c r="S147" s="5"/>
@@ -5851,21 +5842,21 @@
       <c r="A148" s="1">
         <v>145</v>
       </c>
-      <c r="B148" s="56"/>
-      <c r="C148" s="22"/>
+      <c r="B148" s="55"/>
+      <c r="C148" s="21"/>
       <c r="D148" s="20"/>
       <c r="E148" s="20"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="58"/>
-      <c r="J148" s="58"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="21"/>
-      <c r="N148" s="68"/>
-      <c r="O148" s="59"/>
-      <c r="P148" s="21"/>
+      <c r="F148" s="22"/>
+      <c r="G148" s="22"/>
+      <c r="H148" s="22"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="22"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="22"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
       <c r="S148" s="5"/>
@@ -5883,21 +5874,21 @@
       <c r="A149" s="1">
         <v>146</v>
       </c>
-      <c r="B149" s="56"/>
-      <c r="C149" s="22"/>
+      <c r="B149" s="55"/>
+      <c r="C149" s="21"/>
       <c r="D149" s="20"/>
       <c r="E149" s="20"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="58"/>
-      <c r="J149" s="58"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
-      <c r="M149" s="21"/>
-      <c r="N149" s="68"/>
-      <c r="O149" s="59"/>
-      <c r="P149" s="21"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="22"/>
+      <c r="H149" s="22"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="22"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="22"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
       <c r="S149" s="5"/>
@@ -5915,21 +5906,21 @@
       <c r="A150" s="1">
         <v>147</v>
       </c>
-      <c r="B150" s="56"/>
-      <c r="C150" s="22"/>
+      <c r="B150" s="55"/>
+      <c r="C150" s="21"/>
       <c r="D150" s="20"/>
       <c r="E150" s="20"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="58"/>
-      <c r="J150" s="58"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="68"/>
-      <c r="O150" s="59"/>
-      <c r="P150" s="21"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="22"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="22"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="22"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="22"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
       <c r="S150" s="5"/>
@@ -5947,21 +5938,21 @@
       <c r="A151" s="1">
         <v>148</v>
       </c>
-      <c r="B151" s="56"/>
-      <c r="C151" s="22"/>
+      <c r="B151" s="55"/>
+      <c r="C151" s="21"/>
       <c r="D151" s="20"/>
       <c r="E151" s="20"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="58"/>
-      <c r="J151" s="58"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="21"/>
-      <c r="N151" s="68"/>
-      <c r="O151" s="59"/>
-      <c r="P151" s="21"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="22"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="22"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
       <c r="S151" s="5"/>
@@ -5979,21 +5970,21 @@
       <c r="A152" s="1">
         <v>149</v>
       </c>
-      <c r="B152" s="56"/>
-      <c r="C152" s="22"/>
+      <c r="B152" s="55"/>
+      <c r="C152" s="21"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="23"/>
-      <c r="I152" s="58"/>
-      <c r="J152" s="58"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
-      <c r="N152" s="68"/>
-      <c r="O152" s="59"/>
-      <c r="P152" s="21"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="22"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="22"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
       <c r="S152" s="5"/>
@@ -6011,21 +6002,21 @@
       <c r="A153" s="1">
         <v>150</v>
       </c>
-      <c r="B153" s="56"/>
-      <c r="C153" s="22"/>
+      <c r="B153" s="55"/>
+      <c r="C153" s="21"/>
       <c r="D153" s="20"/>
       <c r="E153" s="20"/>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="58"/>
-      <c r="J153" s="58"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="68"/>
-      <c r="O153" s="59"/>
-      <c r="P153" s="21"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="22"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
       <c r="S153" s="5"/>
@@ -6043,21 +6034,21 @@
       <c r="A154" s="1">
         <v>151</v>
       </c>
-      <c r="B154" s="56"/>
-      <c r="C154" s="22"/>
+      <c r="B154" s="55"/>
+      <c r="C154" s="21"/>
       <c r="D154" s="20"/>
       <c r="E154" s="20"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="58"/>
-      <c r="J154" s="58"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
-      <c r="N154" s="68"/>
-      <c r="O154" s="59"/>
-      <c r="P154" s="21"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="22"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="22"/>
+      <c r="P154" s="22"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
       <c r="S154" s="5"/>
@@ -6075,21 +6066,21 @@
       <c r="A155" s="1">
         <v>152</v>
       </c>
-      <c r="B155" s="56"/>
-      <c r="C155" s="22"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="21"/>
       <c r="D155" s="20"/>
       <c r="E155" s="20"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="23"/>
-      <c r="I155" s="58"/>
-      <c r="J155" s="58"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="21"/>
-      <c r="M155" s="21"/>
-      <c r="N155" s="68"/>
-      <c r="O155" s="59"/>
-      <c r="P155" s="21"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="22"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
       <c r="S155" s="5"/>
@@ -6107,21 +6098,21 @@
       <c r="A156" s="1">
         <v>153</v>
       </c>
-      <c r="B156" s="56"/>
-      <c r="C156" s="22"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="21"/>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="58"/>
-      <c r="J156" s="58"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="21"/>
-      <c r="N156" s="68"/>
-      <c r="O156" s="59"/>
-      <c r="P156" s="21"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="22"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
       <c r="S156" s="5"/>
@@ -6139,21 +6130,21 @@
       <c r="A157" s="1">
         <v>154</v>
       </c>
-      <c r="B157" s="56"/>
-      <c r="C157" s="22"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="21"/>
       <c r="D157" s="20"/>
       <c r="E157" s="20"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="21"/>
-      <c r="N157" s="68"/>
-      <c r="O157" s="59"/>
-      <c r="P157" s="21"/>
+      <c r="F157" s="22"/>
+      <c r="G157" s="22"/>
+      <c r="H157" s="22"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="22"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="22"/>
+      <c r="P157" s="22"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
       <c r="S157" s="5"/>
@@ -6171,21 +6162,21 @@
       <c r="A158" s="1">
         <v>155</v>
       </c>
-      <c r="B158" s="56"/>
-      <c r="C158" s="22"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="21"/>
       <c r="D158" s="20"/>
       <c r="E158" s="20"/>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="58"/>
-      <c r="J158" s="58"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
-      <c r="N158" s="68"/>
-      <c r="O158" s="59"/>
-      <c r="P158" s="21"/>
+      <c r="F158" s="22"/>
+      <c r="G158" s="22"/>
+      <c r="H158" s="22"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="22"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="22"/>
+      <c r="P158" s="22"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
       <c r="S158" s="5"/>
@@ -6203,21 +6194,21 @@
       <c r="A159" s="1">
         <v>156</v>
       </c>
-      <c r="B159" s="56"/>
-      <c r="C159" s="22"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="21"/>
       <c r="D159" s="20"/>
       <c r="E159" s="20"/>
-      <c r="F159" s="23"/>
-      <c r="G159" s="23"/>
-      <c r="H159" s="23"/>
-      <c r="I159" s="58"/>
-      <c r="J159" s="58"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
-      <c r="M159" s="21"/>
-      <c r="N159" s="68"/>
-      <c r="O159" s="59"/>
-      <c r="P159" s="21"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="22"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="22"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="22"/>
+      <c r="P159" s="22"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
       <c r="S159" s="5"/>
@@ -6235,21 +6226,21 @@
       <c r="A160" s="1">
         <v>157</v>
       </c>
-      <c r="B160" s="56"/>
-      <c r="C160" s="22"/>
+      <c r="B160" s="55"/>
+      <c r="C160" s="21"/>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="23"/>
-      <c r="H160" s="23"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="68"/>
-      <c r="O160" s="59"/>
-      <c r="P160" s="21"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="22"/>
+      <c r="H160" s="22"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="22"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
       <c r="S160" s="5"/>
@@ -6267,21 +6258,21 @@
       <c r="A161" s="1">
         <v>158</v>
       </c>
-      <c r="B161" s="56"/>
-      <c r="C161" s="22"/>
+      <c r="B161" s="55"/>
+      <c r="C161" s="21"/>
       <c r="D161" s="20"/>
       <c r="E161" s="20"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="21"/>
-      <c r="N161" s="68"/>
-      <c r="O161" s="59"/>
-      <c r="P161" s="21"/>
+      <c r="F161" s="22"/>
+      <c r="G161" s="22"/>
+      <c r="H161" s="22"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="22"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="22"/>
+      <c r="N161" s="22"/>
+      <c r="O161" s="22"/>
+      <c r="P161" s="22"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
       <c r="S161" s="5"/>
@@ -6299,21 +6290,21 @@
       <c r="A162" s="1">
         <v>159</v>
       </c>
-      <c r="B162" s="56"/>
-      <c r="C162" s="22"/>
+      <c r="B162" s="55"/>
+      <c r="C162" s="21"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="21"/>
-      <c r="N162" s="68"/>
-      <c r="O162" s="59"/>
-      <c r="P162" s="21"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="22"/>
+      <c r="H162" s="22"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="22"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="22"/>
+      <c r="O162" s="22"/>
+      <c r="P162" s="22"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
       <c r="S162" s="5"/>
@@ -6331,21 +6322,21 @@
       <c r="A163" s="1">
         <v>160</v>
       </c>
-      <c r="B163" s="56"/>
-      <c r="C163" s="22"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="21"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="23"/>
-      <c r="H163" s="23"/>
-      <c r="I163" s="58"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="21"/>
-      <c r="L163" s="21"/>
-      <c r="M163" s="21"/>
-      <c r="N163" s="68"/>
-      <c r="O163" s="59"/>
-      <c r="P163" s="21"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="22"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="22"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="22"/>
+      <c r="N163" s="22"/>
+      <c r="O163" s="22"/>
+      <c r="P163" s="22"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
       <c r="S163" s="5"/>
@@ -6363,21 +6354,21 @@
       <c r="A164" s="1">
         <v>161</v>
       </c>
-      <c r="B164" s="56"/>
-      <c r="C164" s="22"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="21"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
-      <c r="F164" s="23"/>
-      <c r="G164" s="23"/>
-      <c r="H164" s="23"/>
-      <c r="I164" s="58"/>
-      <c r="J164" s="58"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="21"/>
-      <c r="M164" s="21"/>
-      <c r="N164" s="68"/>
-      <c r="O164" s="59"/>
-      <c r="P164" s="21"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="22"/>
+      <c r="H164" s="22"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="22"/>
+      <c r="N164" s="22"/>
+      <c r="O164" s="22"/>
+      <c r="P164" s="22"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
       <c r="S164" s="5"/>
@@ -6395,21 +6386,21 @@
       <c r="A165" s="1">
         <v>162</v>
       </c>
-      <c r="B165" s="56"/>
-      <c r="C165" s="22"/>
+      <c r="B165" s="55"/>
+      <c r="C165" s="21"/>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
-      <c r="F165" s="23"/>
-      <c r="G165" s="23"/>
-      <c r="H165" s="23"/>
-      <c r="I165" s="58"/>
-      <c r="J165" s="58"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="21"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="68"/>
-      <c r="O165" s="59"/>
-      <c r="P165" s="21"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="57"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="22"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
@@ -6427,21 +6418,21 @@
       <c r="A166" s="1">
         <v>163</v>
       </c>
-      <c r="B166" s="56"/>
-      <c r="C166" s="22"/>
+      <c r="B166" s="55"/>
+      <c r="C166" s="21"/>
       <c r="D166" s="20"/>
       <c r="E166" s="20"/>
-      <c r="F166" s="23"/>
-      <c r="G166" s="23"/>
-      <c r="H166" s="23"/>
-      <c r="I166" s="58"/>
-      <c r="J166" s="58"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="21"/>
-      <c r="M166" s="21"/>
-      <c r="N166" s="68"/>
-      <c r="O166" s="59"/>
-      <c r="P166" s="21"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="22"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="22"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="22"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
@@ -6459,21 +6450,21 @@
       <c r="A167" s="1">
         <v>164</v>
       </c>
-      <c r="B167" s="56"/>
-      <c r="C167" s="22"/>
+      <c r="B167" s="55"/>
+      <c r="C167" s="21"/>
       <c r="D167" s="20"/>
       <c r="E167" s="20"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="23"/>
-      <c r="H167" s="23"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="21"/>
-      <c r="N167" s="68"/>
-      <c r="O167" s="59"/>
-      <c r="P167" s="21"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="22"/>
+      <c r="H167" s="22"/>
+      <c r="I167" s="57"/>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="22"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
       <c r="S167" s="5"/>
@@ -6491,21 +6482,21 @@
       <c r="A168" s="1">
         <v>165</v>
       </c>
-      <c r="B168" s="56"/>
-      <c r="C168" s="22"/>
+      <c r="B168" s="55"/>
+      <c r="C168" s="21"/>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
-      <c r="I168" s="58"/>
-      <c r="J168" s="58"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="21"/>
-      <c r="M168" s="21"/>
-      <c r="N168" s="68"/>
-      <c r="O168" s="59"/>
-      <c r="P168" s="21"/>
+      <c r="F168" s="22"/>
+      <c r="G168" s="22"/>
+      <c r="H168" s="22"/>
+      <c r="I168" s="57"/>
+      <c r="J168" s="22"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="22"/>
+      <c r="N168" s="22"/>
+      <c r="O168" s="22"/>
+      <c r="P168" s="22"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
       <c r="S168" s="5"/>
@@ -6523,21 +6514,21 @@
       <c r="A169" s="1">
         <v>166</v>
       </c>
-      <c r="B169" s="56"/>
-      <c r="C169" s="22"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="21"/>
       <c r="D169" s="20"/>
       <c r="E169" s="20"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="23"/>
-      <c r="H169" s="23"/>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="21"/>
-      <c r="M169" s="21"/>
-      <c r="N169" s="68"/>
-      <c r="O169" s="59"/>
-      <c r="P169" s="21"/>
+      <c r="F169" s="22"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="22"/>
+      <c r="I169" s="57"/>
+      <c r="J169" s="22"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="22"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="22"/>
+      <c r="P169" s="22"/>
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
       <c r="S169" s="5"/>
@@ -6555,21 +6546,21 @@
       <c r="A170" s="1">
         <v>167</v>
       </c>
-      <c r="B170" s="56"/>
-      <c r="C170" s="22"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="21"/>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="58"/>
-      <c r="J170" s="58"/>
-      <c r="K170" s="21"/>
-      <c r="L170" s="21"/>
-      <c r="M170" s="21"/>
-      <c r="N170" s="68"/>
-      <c r="O170" s="59"/>
-      <c r="P170" s="21"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="22"/>
+      <c r="H170" s="22"/>
+      <c r="I170" s="57"/>
+      <c r="J170" s="22"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="22"/>
+      <c r="N170" s="22"/>
+      <c r="O170" s="22"/>
+      <c r="P170" s="22"/>
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
       <c r="S170" s="5"/>
@@ -6587,21 +6578,21 @@
       <c r="A171" s="1">
         <v>168</v>
       </c>
-      <c r="B171" s="56"/>
-      <c r="C171" s="22"/>
+      <c r="B171" s="55"/>
+      <c r="C171" s="21"/>
       <c r="D171" s="20"/>
       <c r="E171" s="20"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="23"/>
-      <c r="H171" s="23"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="21"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="68"/>
-      <c r="O171" s="59"/>
-      <c r="P171" s="21"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="22"/>
+      <c r="H171" s="22"/>
+      <c r="I171" s="57"/>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="22"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="22"/>
+      <c r="P171" s="22"/>
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
       <c r="S171" s="5"/>
@@ -6619,21 +6610,21 @@
       <c r="A172" s="1">
         <v>169</v>
       </c>
-      <c r="B172" s="56"/>
-      <c r="C172" s="22"/>
+      <c r="B172" s="55"/>
+      <c r="C172" s="21"/>
       <c r="D172" s="20"/>
       <c r="E172" s="20"/>
-      <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="23"/>
-      <c r="I172" s="58"/>
-      <c r="J172" s="58"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="21"/>
-      <c r="N172" s="68"/>
-      <c r="O172" s="59"/>
-      <c r="P172" s="21"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="22"/>
+      <c r="H172" s="22"/>
+      <c r="I172" s="57"/>
+      <c r="J172" s="22"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="22"/>
+      <c r="M172" s="22"/>
+      <c r="N172" s="22"/>
+      <c r="O172" s="22"/>
+      <c r="P172" s="22"/>
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
       <c r="S172" s="5"/>
@@ -6651,21 +6642,21 @@
       <c r="A173" s="1">
         <v>170</v>
       </c>
-      <c r="B173" s="56"/>
-      <c r="C173" s="22"/>
+      <c r="B173" s="55"/>
+      <c r="C173" s="21"/>
       <c r="D173" s="20"/>
       <c r="E173" s="20"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
-      <c r="I173" s="58"/>
-      <c r="J173" s="58"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
-      <c r="N173" s="68"/>
-      <c r="O173" s="59"/>
-      <c r="P173" s="21"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="22"/>
+      <c r="H173" s="22"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="22"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="22"/>
+      <c r="M173" s="22"/>
+      <c r="N173" s="22"/>
+      <c r="O173" s="22"/>
+      <c r="P173" s="22"/>
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
       <c r="S173" s="5"/>
@@ -6683,21 +6674,21 @@
       <c r="A174" s="1">
         <v>171</v>
       </c>
-      <c r="B174" s="56"/>
-      <c r="C174" s="22"/>
+      <c r="B174" s="55"/>
+      <c r="C174" s="21"/>
       <c r="D174" s="20"/>
       <c r="E174" s="20"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
-      <c r="I174" s="58"/>
-      <c r="J174" s="58"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
-      <c r="N174" s="68"/>
-      <c r="O174" s="59"/>
-      <c r="P174" s="21"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="57"/>
+      <c r="J174" s="22"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="22"/>
+      <c r="N174" s="22"/>
+      <c r="O174" s="22"/>
+      <c r="P174" s="22"/>
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
       <c r="S174" s="5"/>
@@ -6715,21 +6706,21 @@
       <c r="A175" s="1">
         <v>172</v>
       </c>
-      <c r="B175" s="56"/>
-      <c r="C175" s="22"/>
+      <c r="B175" s="55"/>
+      <c r="C175" s="21"/>
       <c r="D175" s="20"/>
       <c r="E175" s="20"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="23"/>
-      <c r="H175" s="23"/>
-      <c r="I175" s="58"/>
-      <c r="J175" s="58"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="21"/>
-      <c r="M175" s="21"/>
-      <c r="N175" s="68"/>
-      <c r="O175" s="59"/>
-      <c r="P175" s="21"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="22"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="22"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="22"/>
+      <c r="M175" s="22"/>
+      <c r="N175" s="22"/>
+      <c r="O175" s="22"/>
+      <c r="P175" s="22"/>
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
       <c r="S175" s="5"/>
@@ -6747,21 +6738,21 @@
       <c r="A176" s="1">
         <v>173</v>
       </c>
-      <c r="B176" s="56"/>
-      <c r="C176" s="22"/>
+      <c r="B176" s="55"/>
+      <c r="C176" s="21"/>
       <c r="D176" s="20"/>
       <c r="E176" s="20"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="23"/>
-      <c r="H176" s="23"/>
-      <c r="I176" s="58"/>
-      <c r="J176" s="58"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="21"/>
-      <c r="N176" s="68"/>
-      <c r="O176" s="59"/>
-      <c r="P176" s="21"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="22"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="22"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="22"/>
+      <c r="N176" s="22"/>
+      <c r="O176" s="22"/>
+      <c r="P176" s="22"/>
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
       <c r="S176" s="5"/>
@@ -6779,21 +6770,21 @@
       <c r="A177" s="1">
         <v>174</v>
       </c>
-      <c r="B177" s="56"/>
-      <c r="C177" s="22"/>
+      <c r="B177" s="55"/>
+      <c r="C177" s="21"/>
       <c r="D177" s="20"/>
       <c r="E177" s="20"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="23"/>
-      <c r="H177" s="23"/>
-      <c r="I177" s="58"/>
-      <c r="J177" s="58"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="21"/>
-      <c r="N177" s="68"/>
-      <c r="O177" s="59"/>
-      <c r="P177" s="21"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="22"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="22"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="22"/>
+      <c r="N177" s="22"/>
+      <c r="O177" s="22"/>
+      <c r="P177" s="22"/>
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
       <c r="S177" s="5"/>
@@ -6811,21 +6802,21 @@
       <c r="A178" s="1">
         <v>175</v>
       </c>
-      <c r="B178" s="56"/>
-      <c r="C178" s="22"/>
+      <c r="B178" s="55"/>
+      <c r="C178" s="21"/>
       <c r="D178" s="20"/>
       <c r="E178" s="20"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="21"/>
-      <c r="M178" s="21"/>
-      <c r="N178" s="68"/>
-      <c r="O178" s="59"/>
-      <c r="P178" s="21"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="22"/>
+      <c r="H178" s="22"/>
+      <c r="I178" s="57"/>
+      <c r="J178" s="22"/>
+      <c r="K178" s="22"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="22"/>
+      <c r="N178" s="22"/>
+      <c r="O178" s="22"/>
+      <c r="P178" s="22"/>
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
       <c r="S178" s="5"/>
@@ -6843,21 +6834,21 @@
       <c r="A179" s="1">
         <v>176</v>
       </c>
-      <c r="B179" s="56"/>
-      <c r="C179" s="22"/>
+      <c r="B179" s="55"/>
+      <c r="C179" s="21"/>
       <c r="D179" s="20"/>
       <c r="E179" s="20"/>
-      <c r="F179" s="23"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="23"/>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="21"/>
-      <c r="N179" s="68"/>
-      <c r="O179" s="59"/>
-      <c r="P179" s="21"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="22"/>
+      <c r="H179" s="22"/>
+      <c r="I179" s="57"/>
+      <c r="J179" s="22"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="22"/>
+      <c r="M179" s="22"/>
+      <c r="N179" s="22"/>
+      <c r="O179" s="22"/>
+      <c r="P179" s="22"/>
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
       <c r="S179" s="5"/>
@@ -6875,21 +6866,21 @@
       <c r="A180" s="1">
         <v>177</v>
       </c>
-      <c r="B180" s="56"/>
-      <c r="C180" s="22"/>
+      <c r="B180" s="55"/>
+      <c r="C180" s="21"/>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="23"/>
-      <c r="H180" s="23"/>
-      <c r="I180" s="58"/>
-      <c r="J180" s="58"/>
-      <c r="K180" s="21"/>
-      <c r="L180" s="21"/>
-      <c r="M180" s="21"/>
-      <c r="N180" s="68"/>
-      <c r="O180" s="59"/>
-      <c r="P180" s="21"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="22"/>
+      <c r="H180" s="22"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="22"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="22"/>
+      <c r="M180" s="22"/>
+      <c r="N180" s="22"/>
+      <c r="O180" s="22"/>
+      <c r="P180" s="22"/>
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
       <c r="S180" s="5"/>
@@ -6907,21 +6898,21 @@
       <c r="A181" s="1">
         <v>178</v>
       </c>
-      <c r="B181" s="56"/>
-      <c r="C181" s="22"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="21"/>
       <c r="D181" s="20"/>
       <c r="E181" s="20"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="23"/>
-      <c r="H181" s="23"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="21"/>
-      <c r="M181" s="21"/>
-      <c r="N181" s="68"/>
-      <c r="O181" s="59"/>
-      <c r="P181" s="21"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="22"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="22"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="22"/>
+      <c r="M181" s="22"/>
+      <c r="N181" s="22"/>
+      <c r="O181" s="22"/>
+      <c r="P181" s="22"/>
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
       <c r="S181" s="5"/>
@@ -6939,21 +6930,21 @@
       <c r="A182" s="1">
         <v>179</v>
       </c>
-      <c r="B182" s="56"/>
-      <c r="C182" s="22"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="21"/>
       <c r="D182" s="20"/>
       <c r="E182" s="20"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="23"/>
-      <c r="H182" s="23"/>
-      <c r="I182" s="58"/>
-      <c r="J182" s="58"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="21"/>
-      <c r="N182" s="68"/>
-      <c r="O182" s="59"/>
-      <c r="P182" s="21"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="22"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="22"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="22"/>
+      <c r="M182" s="22"/>
+      <c r="N182" s="22"/>
+      <c r="O182" s="22"/>
+      <c r="P182" s="22"/>
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
       <c r="S182" s="5"/>
@@ -6971,21 +6962,21 @@
       <c r="A183" s="1">
         <v>180</v>
       </c>
-      <c r="B183" s="56"/>
-      <c r="C183" s="22"/>
+      <c r="B183" s="55"/>
+      <c r="C183" s="21"/>
       <c r="D183" s="20"/>
       <c r="E183" s="20"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="23"/>
-      <c r="H183" s="23"/>
-      <c r="I183" s="58"/>
-      <c r="J183" s="58"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="21"/>
-      <c r="N183" s="68"/>
-      <c r="O183" s="59"/>
-      <c r="P183" s="21"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="57"/>
+      <c r="J183" s="22"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="22"/>
+      <c r="M183" s="22"/>
+      <c r="N183" s="22"/>
+      <c r="O183" s="22"/>
+      <c r="P183" s="22"/>
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
       <c r="S183" s="5"/>
@@ -7003,21 +6994,21 @@
       <c r="A184" s="1">
         <v>181</v>
       </c>
-      <c r="B184" s="56"/>
-      <c r="C184" s="22"/>
+      <c r="B184" s="55"/>
+      <c r="C184" s="21"/>
       <c r="D184" s="20"/>
       <c r="E184" s="20"/>
-      <c r="F184" s="23"/>
-      <c r="G184" s="23"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="58"/>
-      <c r="J184" s="58"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
-      <c r="N184" s="68"/>
-      <c r="O184" s="59"/>
-      <c r="P184" s="21"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="57"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="22"/>
+      <c r="N184" s="22"/>
+      <c r="O184" s="22"/>
+      <c r="P184" s="22"/>
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
       <c r="S184" s="5"/>
@@ -7035,21 +7026,21 @@
       <c r="A185" s="1">
         <v>182</v>
       </c>
-      <c r="B185" s="56"/>
-      <c r="C185" s="22"/>
+      <c r="B185" s="55"/>
+      <c r="C185" s="21"/>
       <c r="D185" s="20"/>
       <c r="E185" s="20"/>
-      <c r="F185" s="23"/>
-      <c r="G185" s="23"/>
-      <c r="H185" s="23"/>
-      <c r="I185" s="58"/>
-      <c r="J185" s="58"/>
-      <c r="K185" s="21"/>
-      <c r="L185" s="21"/>
-      <c r="M185" s="21"/>
-      <c r="N185" s="68"/>
-      <c r="O185" s="59"/>
-      <c r="P185" s="21"/>
+      <c r="F185" s="22"/>
+      <c r="G185" s="22"/>
+      <c r="H185" s="22"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="22"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="22"/>
+      <c r="M185" s="22"/>
+      <c r="N185" s="22"/>
+      <c r="O185" s="22"/>
+      <c r="P185" s="22"/>
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
       <c r="S185" s="5"/>
@@ -7067,21 +7058,21 @@
       <c r="A186" s="1">
         <v>183</v>
       </c>
-      <c r="B186" s="56"/>
-      <c r="C186" s="22"/>
+      <c r="B186" s="55"/>
+      <c r="C186" s="21"/>
       <c r="D186" s="20"/>
       <c r="E186" s="20"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="23"/>
-      <c r="H186" s="23"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="68"/>
-      <c r="O186" s="59"/>
-      <c r="P186" s="21"/>
+      <c r="F186" s="22"/>
+      <c r="G186" s="22"/>
+      <c r="H186" s="22"/>
+      <c r="I186" s="57"/>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="22"/>
+      <c r="N186" s="22"/>
+      <c r="O186" s="22"/>
+      <c r="P186" s="22"/>
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
       <c r="S186" s="5"/>
@@ -7099,21 +7090,21 @@
       <c r="A187" s="1">
         <v>184</v>
       </c>
-      <c r="B187" s="56"/>
-      <c r="C187" s="22"/>
+      <c r="B187" s="55"/>
+      <c r="C187" s="21"/>
       <c r="D187" s="20"/>
       <c r="E187" s="20"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23"/>
-      <c r="I187" s="58"/>
-      <c r="J187" s="58"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="21"/>
-      <c r="M187" s="21"/>
-      <c r="N187" s="68"/>
-      <c r="O187" s="59"/>
-      <c r="P187" s="21"/>
+      <c r="F187" s="22"/>
+      <c r="G187" s="22"/>
+      <c r="H187" s="22"/>
+      <c r="I187" s="57"/>
+      <c r="J187" s="22"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="22"/>
+      <c r="M187" s="22"/>
+      <c r="N187" s="22"/>
+      <c r="O187" s="22"/>
+      <c r="P187" s="22"/>
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
       <c r="S187" s="5"/>
@@ -7131,21 +7122,21 @@
       <c r="A188" s="1">
         <v>185</v>
       </c>
-      <c r="B188" s="56"/>
-      <c r="C188" s="22"/>
+      <c r="B188" s="55"/>
+      <c r="C188" s="21"/>
       <c r="D188" s="20"/>
       <c r="E188" s="20"/>
-      <c r="F188" s="23"/>
-      <c r="G188" s="23"/>
-      <c r="H188" s="23"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="21"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="21"/>
-      <c r="N188" s="68"/>
-      <c r="O188" s="59"/>
-      <c r="P188" s="21"/>
+      <c r="F188" s="22"/>
+      <c r="G188" s="22"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="22"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="22"/>
+      <c r="M188" s="22"/>
+      <c r="N188" s="22"/>
+      <c r="O188" s="22"/>
+      <c r="P188" s="22"/>
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
       <c r="S188" s="5"/>
@@ -7163,21 +7154,21 @@
       <c r="A189" s="1">
         <v>186</v>
       </c>
-      <c r="B189" s="56"/>
-      <c r="C189" s="22"/>
+      <c r="B189" s="55"/>
+      <c r="C189" s="21"/>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
-      <c r="F189" s="23"/>
-      <c r="G189" s="23"/>
-      <c r="H189" s="23"/>
-      <c r="I189" s="58"/>
-      <c r="J189" s="58"/>
-      <c r="K189" s="21"/>
-      <c r="L189" s="21"/>
-      <c r="M189" s="21"/>
-      <c r="N189" s="68"/>
-      <c r="O189" s="59"/>
-      <c r="P189" s="21"/>
+      <c r="F189" s="22"/>
+      <c r="G189" s="22"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="22"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="22"/>
+      <c r="M189" s="22"/>
+      <c r="N189" s="22"/>
+      <c r="O189" s="22"/>
+      <c r="P189" s="22"/>
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
       <c r="S189" s="5"/>
@@ -7195,21 +7186,21 @@
       <c r="A190" s="1">
         <v>187</v>
       </c>
-      <c r="B190" s="56"/>
-      <c r="C190" s="22"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="21"/>
       <c r="D190" s="20"/>
       <c r="E190" s="20"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="23"/>
-      <c r="H190" s="23"/>
-      <c r="I190" s="58"/>
-      <c r="J190" s="58"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="21"/>
-      <c r="M190" s="21"/>
-      <c r="N190" s="68"/>
-      <c r="O190" s="59"/>
-      <c r="P190" s="21"/>
+      <c r="F190" s="22"/>
+      <c r="G190" s="22"/>
+      <c r="H190" s="22"/>
+      <c r="I190" s="57"/>
+      <c r="J190" s="22"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="22"/>
+      <c r="M190" s="22"/>
+      <c r="N190" s="22"/>
+      <c r="O190" s="22"/>
+      <c r="P190" s="22"/>
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
       <c r="S190" s="5"/>
@@ -7227,21 +7218,21 @@
       <c r="A191" s="1">
         <v>188</v>
       </c>
-      <c r="B191" s="56"/>
-      <c r="C191" s="22"/>
+      <c r="B191" s="55"/>
+      <c r="C191" s="21"/>
       <c r="D191" s="20"/>
       <c r="E191" s="20"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="23"/>
-      <c r="H191" s="23"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="21"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="21"/>
-      <c r="N191" s="68"/>
-      <c r="O191" s="59"/>
-      <c r="P191" s="21"/>
+      <c r="F191" s="22"/>
+      <c r="G191" s="22"/>
+      <c r="H191" s="22"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="22"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="22"/>
+      <c r="M191" s="22"/>
+      <c r="N191" s="22"/>
+      <c r="O191" s="22"/>
+      <c r="P191" s="22"/>
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
       <c r="S191" s="5"/>
@@ -7259,21 +7250,21 @@
       <c r="A192" s="1">
         <v>189</v>
       </c>
-      <c r="B192" s="56"/>
-      <c r="C192" s="22"/>
+      <c r="B192" s="55"/>
+      <c r="C192" s="21"/>
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
-      <c r="F192" s="23"/>
-      <c r="G192" s="23"/>
-      <c r="H192" s="23"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="21"/>
-      <c r="L192" s="21"/>
-      <c r="M192" s="21"/>
-      <c r="N192" s="68"/>
-      <c r="O192" s="59"/>
-      <c r="P192" s="21"/>
+      <c r="F192" s="22"/>
+      <c r="G192" s="22"/>
+      <c r="H192" s="22"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="22"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="22"/>
+      <c r="M192" s="22"/>
+      <c r="N192" s="22"/>
+      <c r="O192" s="22"/>
+      <c r="P192" s="22"/>
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
       <c r="S192" s="5"/>
@@ -7291,21 +7282,21 @@
       <c r="A193" s="1">
         <v>190</v>
       </c>
-      <c r="B193" s="56"/>
-      <c r="C193" s="22"/>
+      <c r="B193" s="55"/>
+      <c r="C193" s="21"/>
       <c r="D193" s="20"/>
       <c r="E193" s="20"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="23"/>
-      <c r="H193" s="23"/>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="68"/>
-      <c r="O193" s="59"/>
-      <c r="P193" s="21"/>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="22"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="22"/>
+      <c r="N193" s="22"/>
+      <c r="O193" s="22"/>
+      <c r="P193" s="22"/>
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
       <c r="S193" s="5"/>
@@ -7323,21 +7314,21 @@
       <c r="A194" s="1">
         <v>191</v>
       </c>
-      <c r="B194" s="56"/>
-      <c r="C194" s="22"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="21"/>
       <c r="D194" s="20"/>
       <c r="E194" s="20"/>
-      <c r="F194" s="23"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="23"/>
-      <c r="I194" s="58"/>
-      <c r="J194" s="58"/>
-      <c r="K194" s="21"/>
-      <c r="L194" s="21"/>
-      <c r="M194" s="21"/>
-      <c r="N194" s="68"/>
-      <c r="O194" s="59"/>
-      <c r="P194" s="21"/>
+      <c r="F194" s="22"/>
+      <c r="G194" s="22"/>
+      <c r="H194" s="22"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="22"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="22"/>
+      <c r="M194" s="22"/>
+      <c r="N194" s="22"/>
+      <c r="O194" s="22"/>
+      <c r="P194" s="22"/>
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
       <c r="S194" s="5"/>
@@ -7355,21 +7346,21 @@
       <c r="A195" s="1">
         <v>192</v>
       </c>
-      <c r="B195" s="56"/>
-      <c r="C195" s="22"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="21"/>
       <c r="D195" s="20"/>
       <c r="E195" s="20"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="23"/>
-      <c r="H195" s="23"/>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
-      <c r="K195" s="21"/>
-      <c r="L195" s="21"/>
-      <c r="M195" s="21"/>
-      <c r="N195" s="68"/>
-      <c r="O195" s="59"/>
-      <c r="P195" s="21"/>
+      <c r="F195" s="22"/>
+      <c r="G195" s="22"/>
+      <c r="H195" s="22"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="22"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="22"/>
+      <c r="M195" s="22"/>
+      <c r="N195" s="22"/>
+      <c r="O195" s="22"/>
+      <c r="P195" s="22"/>
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
       <c r="S195" s="5"/>
@@ -7387,21 +7378,21 @@
       <c r="A196" s="1">
         <v>193</v>
       </c>
-      <c r="B196" s="56"/>
-      <c r="C196" s="22"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="21"/>
       <c r="D196" s="20"/>
       <c r="E196" s="20"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="23"/>
-      <c r="H196" s="23"/>
-      <c r="I196" s="58"/>
-      <c r="J196" s="58"/>
-      <c r="K196" s="21"/>
-      <c r="L196" s="21"/>
-      <c r="M196" s="21"/>
-      <c r="N196" s="68"/>
-      <c r="O196" s="59"/>
-      <c r="P196" s="21"/>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="57"/>
+      <c r="J196" s="22"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="22"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="22"/>
+      <c r="P196" s="22"/>
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
       <c r="S196" s="5"/>
@@ -7419,21 +7410,21 @@
       <c r="A197" s="1">
         <v>194</v>
       </c>
-      <c r="B197" s="56"/>
-      <c r="C197" s="22"/>
+      <c r="B197" s="55"/>
+      <c r="C197" s="21"/>
       <c r="D197" s="20"/>
       <c r="E197" s="20"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="23"/>
-      <c r="H197" s="23"/>
-      <c r="I197" s="58"/>
-      <c r="J197" s="58"/>
-      <c r="K197" s="21"/>
-      <c r="L197" s="21"/>
-      <c r="M197" s="21"/>
-      <c r="N197" s="68"/>
-      <c r="O197" s="59"/>
-      <c r="P197" s="21"/>
+      <c r="F197" s="22"/>
+      <c r="G197" s="22"/>
+      <c r="H197" s="22"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="22"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="22"/>
+      <c r="M197" s="22"/>
+      <c r="N197" s="22"/>
+      <c r="O197" s="22"/>
+      <c r="P197" s="22"/>
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
       <c r="S197" s="5"/>
@@ -7451,21 +7442,21 @@
       <c r="A198" s="1">
         <v>195</v>
       </c>
-      <c r="B198" s="56"/>
-      <c r="C198" s="22"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="21"/>
       <c r="D198" s="20"/>
       <c r="E198" s="20"/>
-      <c r="F198" s="23"/>
-      <c r="G198" s="23"/>
-      <c r="H198" s="23"/>
-      <c r="I198" s="58"/>
-      <c r="J198" s="58"/>
-      <c r="K198" s="21"/>
-      <c r="L198" s="21"/>
-      <c r="M198" s="21"/>
-      <c r="N198" s="68"/>
-      <c r="O198" s="59"/>
-      <c r="P198" s="21"/>
+      <c r="F198" s="22"/>
+      <c r="G198" s="22"/>
+      <c r="H198" s="22"/>
+      <c r="I198" s="57"/>
+      <c r="J198" s="22"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="22"/>
+      <c r="M198" s="22"/>
+      <c r="N198" s="22"/>
+      <c r="O198" s="22"/>
+      <c r="P198" s="22"/>
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
       <c r="S198" s="5"/>
@@ -7483,21 +7474,21 @@
       <c r="A199" s="1">
         <v>196</v>
       </c>
-      <c r="B199" s="56"/>
-      <c r="C199" s="22"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="21"/>
       <c r="D199" s="20"/>
       <c r="E199" s="20"/>
-      <c r="F199" s="23"/>
-      <c r="G199" s="23"/>
-      <c r="H199" s="23"/>
-      <c r="I199" s="58"/>
-      <c r="J199" s="58"/>
-      <c r="K199" s="21"/>
-      <c r="L199" s="21"/>
-      <c r="M199" s="21"/>
-      <c r="N199" s="68"/>
-      <c r="O199" s="59"/>
-      <c r="P199" s="21"/>
+      <c r="F199" s="22"/>
+      <c r="G199" s="22"/>
+      <c r="H199" s="22"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="22"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="22"/>
+      <c r="M199" s="22"/>
+      <c r="N199" s="22"/>
+      <c r="O199" s="22"/>
+      <c r="P199" s="22"/>
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
       <c r="S199" s="5"/>
@@ -7515,21 +7506,21 @@
       <c r="A200" s="1">
         <v>197</v>
       </c>
-      <c r="B200" s="56"/>
-      <c r="C200" s="22"/>
+      <c r="B200" s="55"/>
+      <c r="C200" s="21"/>
       <c r="D200" s="20"/>
       <c r="E200" s="20"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="58"/>
-      <c r="J200" s="58"/>
-      <c r="K200" s="21"/>
-      <c r="L200" s="21"/>
-      <c r="M200" s="21"/>
-      <c r="N200" s="68"/>
-      <c r="O200" s="59"/>
-      <c r="P200" s="21"/>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="57"/>
+      <c r="J200" s="22"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="22"/>
+      <c r="M200" s="22"/>
+      <c r="N200" s="22"/>
+      <c r="O200" s="22"/>
+      <c r="P200" s="22"/>
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
       <c r="S200" s="5"/>
@@ -7547,21 +7538,21 @@
       <c r="A201" s="1">
         <v>198</v>
       </c>
-      <c r="B201" s="56"/>
-      <c r="C201" s="22"/>
+      <c r="B201" s="55"/>
+      <c r="C201" s="21"/>
       <c r="D201" s="20"/>
       <c r="E201" s="20"/>
-      <c r="F201" s="23"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="58"/>
-      <c r="J201" s="58"/>
-      <c r="K201" s="21"/>
-      <c r="L201" s="21"/>
-      <c r="M201" s="21"/>
-      <c r="N201" s="68"/>
-      <c r="O201" s="59"/>
-      <c r="P201" s="21"/>
+      <c r="F201" s="22"/>
+      <c r="G201" s="22"/>
+      <c r="H201" s="22"/>
+      <c r="I201" s="57"/>
+      <c r="J201" s="22"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="22"/>
+      <c r="N201" s="22"/>
+      <c r="O201" s="22"/>
+      <c r="P201" s="22"/>
       <c r="Q201" s="5"/>
       <c r="R201" s="5"/>
       <c r="S201" s="5"/>
@@ -7579,21 +7570,21 @@
       <c r="A202" s="1">
         <v>199</v>
       </c>
-      <c r="B202" s="56"/>
-      <c r="C202" s="22"/>
+      <c r="B202" s="55"/>
+      <c r="C202" s="21"/>
       <c r="D202" s="20"/>
       <c r="E202" s="20"/>
-      <c r="F202" s="23"/>
-      <c r="G202" s="23"/>
-      <c r="H202" s="23"/>
-      <c r="I202" s="58"/>
-      <c r="J202" s="58"/>
-      <c r="K202" s="21"/>
-      <c r="L202" s="21"/>
-      <c r="M202" s="21"/>
-      <c r="N202" s="68"/>
-      <c r="O202" s="59"/>
-      <c r="P202" s="21"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="22"/>
+      <c r="I202" s="57"/>
+      <c r="J202" s="22"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="22"/>
+      <c r="M202" s="22"/>
+      <c r="N202" s="22"/>
+      <c r="O202" s="22"/>
+      <c r="P202" s="22"/>
       <c r="Q202" s="5"/>
       <c r="R202" s="5"/>
       <c r="S202" s="5"/>
@@ -7611,21 +7602,21 @@
       <c r="A203" s="1">
         <v>200</v>
       </c>
-      <c r="B203" s="56"/>
-      <c r="C203" s="22"/>
+      <c r="B203" s="55"/>
+      <c r="C203" s="21"/>
       <c r="D203" s="20"/>
       <c r="E203" s="20"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
-      <c r="H203" s="23"/>
-      <c r="I203" s="58"/>
-      <c r="J203" s="58"/>
-      <c r="K203" s="21"/>
-      <c r="L203" s="21"/>
-      <c r="M203" s="21"/>
-      <c r="N203" s="68"/>
-      <c r="O203" s="59"/>
-      <c r="P203" s="21"/>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
+      <c r="I203" s="57"/>
+      <c r="J203" s="22"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="22"/>
+      <c r="M203" s="22"/>
+      <c r="N203" s="22"/>
+      <c r="O203" s="22"/>
+      <c r="P203" s="22"/>
       <c r="Q203" s="5"/>
       <c r="R203" s="5"/>
       <c r="S203" s="5"/>
@@ -22174,43 +22165,31 @@
           <x14:formula1>
             <xm:f>'Lista desplegable '!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I203 J4:P5</xm:sqref>
+          <xm:sqref>I4:I203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C400254-1A25-4ED6-BC7A-9D417B8FE589}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$D$2:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J6:J203</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{11882FBB-127B-476C-8983-468A8F38D10D}">
-          <x14:formula1>
-            <xm:f>'Lista desplegable '!$F$2:$F$20</xm:f>
-          </x14:formula1>
-          <xm:sqref>L6:L203</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F9CFCED5-4D7D-4AAC-8D54-18F17D499980}">
-          <x14:formula1>
-            <xm:f>'Lista desplegable '!$G$2:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>M6:M203</xm:sqref>
+          <xm:sqref>J4:J203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04BD9FEB-4C10-436A-88AB-9A55E8CC8C12}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$I$2:$I$9</xm:f>
           </x14:formula1>
-          <xm:sqref>O6:O203</xm:sqref>
+          <xm:sqref>O4:O203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3068EBCB-08B2-4F4C-B896-6519DD143CED}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$J$2:$J$5</xm:f>
           </x14:formula1>
-          <xm:sqref>P6:P203</xm:sqref>
+          <xm:sqref>P4:P203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CED81C9-3252-4E04-B5EF-D4B7F844F127}">
           <x14:formula1>
             <xm:f>'Lista desplegable '!$E$2:$E$7</xm:f>
           </x14:formula1>
-          <xm:sqref>K6:K203</xm:sqref>
+          <xm:sqref>K4:K203</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B55B14E3-3394-46A7-A37D-9F1887CDE752}">
           <x14:formula1>
@@ -22222,7 +22201,19 @@
           <x14:formula1>
             <xm:f>'Lista desplegable '!$H$2:$H$11</xm:f>
           </x14:formula1>
-          <xm:sqref>N6:N203</xm:sqref>
+          <xm:sqref>N4:N203</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDEF2A06-254F-43F7-8475-39E2D5463CBB}">
+          <x14:formula1>
+            <xm:f>'Lista desplegable '!$F$2:$F$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>L4:L203</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7D53300C-D849-4C5C-854B-1071D1C4B332}">
+          <x14:formula1>
+            <xm:f>'Lista desplegable '!$G$2:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>M4:M203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22241,24 +22232,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:28" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -22381,428 +22372,428 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="20" style="35" customWidth="1"/>
-    <col min="4" max="4" width="20" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="20" style="34" customWidth="1"/>
+    <col min="4" max="4" width="20" style="36" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="41" customWidth="1"/>
-    <col min="9" max="10" width="30.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="25" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="40" customWidth="1"/>
+    <col min="9" max="10" width="30.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="37.140625" customWidth="1"/>
     <col min="12" max="24" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1" ht="60.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="31"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <v>0</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="47">
         <v>4</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>0.1</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="43">
         <v>15</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="43">
         <v>2</v>
       </c>
-      <c r="I3" s="53">
+      <c r="I3" s="52">
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="33">
         <v>5</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <v>8</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0.5</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="43">
         <v>100</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="39">
         <v>3.4</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="52">
         <v>18</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>19</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="47">
         <v>16</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>1</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="39">
         <v>4.1399999999999997</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="52">
         <v>28</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>1.5</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="43">
         <v>5</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="52">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>2</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="39">
         <v>6.9</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>2.5</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="44">
+      <c r="G8" s="45"/>
+      <c r="H8" s="43">
         <v>8</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="52">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>3</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <v>9.66</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>3.5</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>11.04</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>4</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="39">
         <v>13.8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>6</v>
       </c>
-      <c r="G12" s="46"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="35"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="42"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="42"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="42"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="42"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="46"/>
-      <c r="H31" s="42"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="61" t="s">
         <v>31</v>
       </c>
     </row>
@@ -22817,9 +22808,9 @@
     </row>
     <row r="36" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="42"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
